--- a/ROS_calculations.xlsx
+++ b/ROS_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybenik/Research_files/Hill_Runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E72ED4F-7B27-9346-B843-F61ECE2C3B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97708F86-81C9-8145-AC29-36CBC87D94A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="17280" windowHeight="21700" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>ROS Data</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Run_21</t>
+  </si>
+  <si>
+    <t>Model ROS</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C5D8E9-26BC-FC46-9670-57C49E39CB3F}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,376 +755,556 @@
         <v>0.62129999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>10.511709</v>
-      </c>
-      <c r="C7">
-        <v>10.606191000000001</v>
-      </c>
-      <c r="D7">
-        <v>10.183984000000001</v>
-      </c>
-      <c r="E7">
-        <v>10.512212</v>
-      </c>
-      <c r="F7">
-        <v>10.121859000000001</v>
-      </c>
-      <c r="G7">
-        <v>10.623476999999999</v>
-      </c>
-      <c r="I7">
-        <v>10.512638000000001</v>
-      </c>
-      <c r="K7">
-        <v>10.546491</v>
-      </c>
-      <c r="L7">
-        <v>10.453250000000001</v>
-      </c>
-      <c r="M7">
-        <v>10.512064000000001</v>
-      </c>
-      <c r="N7">
-        <v>10.442306500000001</v>
-      </c>
-      <c r="O7">
-        <v>10.476487000000001</v>
-      </c>
-      <c r="P7">
-        <v>10.4758</v>
-      </c>
-      <c r="Q7">
-        <v>10.511231</v>
-      </c>
-      <c r="R7">
-        <v>10.455652000000001</v>
-      </c>
-      <c r="S7">
-        <v>10.511894</v>
-      </c>
-      <c r="T7">
-        <v>10.511896</v>
-      </c>
-      <c r="U7">
-        <v>10.511658000000001</v>
-      </c>
-      <c r="V7">
-        <v>10.511988000000001</v>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>2.3831376999999998</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>1.9875708000000001</v>
+      </c>
+      <c r="G6">
+        <v>5.0585839999999997</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>6.0000004999999996</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>6.0000004999999996</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <v>6.0000004999999996</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.29007253</v>
+        <v>10.511709</v>
       </c>
       <c r="C8">
-        <v>0.29007253</v>
+        <v>10.606191000000001</v>
       </c>
       <c r="D8">
-        <v>0.29007253</v>
+        <v>10.183984000000001</v>
       </c>
       <c r="E8">
-        <v>0.29007253</v>
+        <v>10.512212</v>
       </c>
       <c r="F8">
-        <v>0.29007253</v>
+        <v>10.121859000000001</v>
       </c>
       <c r="G8">
-        <v>0.29007253</v>
-      </c>
-      <c r="H8">
-        <v>0.29007253</v>
+        <v>10.623476999999999</v>
       </c>
       <c r="I8">
-        <v>0.29007253</v>
-      </c>
-      <c r="J8">
-        <v>0.29007253</v>
+        <v>10.512638000000001</v>
       </c>
       <c r="K8">
-        <v>0.29007253</v>
+        <v>10.546491</v>
       </c>
       <c r="L8">
-        <v>0.29007253</v>
+        <v>10.453250000000001</v>
       </c>
       <c r="M8">
-        <v>0.29007253</v>
+        <v>10.512064000000001</v>
       </c>
       <c r="N8">
-        <v>0.29007253</v>
+        <v>10.442306500000001</v>
       </c>
       <c r="O8">
-        <v>0.29007253</v>
+        <v>10.476487000000001</v>
       </c>
       <c r="P8">
-        <v>0.29007253</v>
+        <v>10.4758</v>
       </c>
       <c r="Q8">
-        <v>0.29007253</v>
+        <v>10.511231</v>
       </c>
       <c r="R8">
-        <v>0.29007253</v>
+        <v>10.455652000000001</v>
       </c>
       <c r="S8">
-        <v>0.29007253</v>
+        <v>10.511894</v>
       </c>
       <c r="T8">
-        <v>0.29007253</v>
+        <v>10.511896</v>
       </c>
       <c r="U8">
-        <v>0.29007253</v>
+        <v>10.511658000000001</v>
       </c>
       <c r="V8">
-        <v>0.29007253</v>
+        <v>10.511988000000001</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.29007253</v>
+      </c>
+      <c r="C9">
+        <v>0.29007253</v>
+      </c>
+      <c r="D9">
+        <v>0.29007253</v>
+      </c>
+      <c r="E9">
+        <v>0.29007253</v>
+      </c>
+      <c r="F9">
+        <v>0.29007253</v>
+      </c>
+      <c r="G9">
+        <v>0.29007253</v>
+      </c>
+      <c r="H9">
+        <v>0.29007253</v>
+      </c>
+      <c r="I9">
+        <v>0.29007253</v>
+      </c>
+      <c r="J9">
+        <v>0.29007253</v>
+      </c>
+      <c r="K9">
+        <v>0.29007253</v>
+      </c>
+      <c r="L9">
+        <v>0.29007253</v>
+      </c>
+      <c r="M9">
+        <v>0.29007253</v>
+      </c>
+      <c r="N9">
+        <v>0.29007253</v>
+      </c>
+      <c r="O9">
+        <v>0.29007253</v>
+      </c>
+      <c r="P9">
+        <v>0.29007253</v>
+      </c>
+      <c r="Q9">
+        <v>0.29007253</v>
+      </c>
+      <c r="R9">
+        <v>0.29007253</v>
+      </c>
+      <c r="S9">
+        <v>0.29007253</v>
+      </c>
+      <c r="T9">
+        <v>0.29007253</v>
+      </c>
+      <c r="U9">
+        <v>0.29007253</v>
+      </c>
+      <c r="V9">
+        <v>0.29007253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0.4864</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>0.4899</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0.47410000000000002</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>0.4864</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0.4718</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>0.49059999999999998</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>0.4864</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.48770000000000002</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>0.48770000000000002</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>0.4864</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>0.48380000000000001</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>10.476487000000001</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Q9">
+      <c r="Q10">
         <v>0.4864</v>
       </c>
-      <c r="R9">
+      <c r="R10">
         <v>0.48430000000000001</v>
       </c>
-      <c r="S9">
+      <c r="S10">
         <v>0.4864</v>
       </c>
-      <c r="T9">
+      <c r="T10">
         <v>0.4864</v>
       </c>
-      <c r="U9">
+      <c r="U10">
         <v>0.4864</v>
       </c>
-      <c r="V9">
+      <c r="V10">
         <v>10.511988000000001</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B11">
-        <v>10.088276</v>
+        <v>0.60530806000000004</v>
       </c>
       <c r="C11">
-        <v>10.172914499999999</v>
+        <v>0.60672959999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.40722406</v>
       </c>
       <c r="E11">
-        <v>10.088552</v>
+        <v>0.60585829999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.38986418</v>
       </c>
       <c r="G11">
-        <v>10.184378000000001</v>
+        <v>0.62131625000000001</v>
       </c>
       <c r="I11">
-        <v>10.088162000000001</v>
+        <v>0.60610549999999996</v>
       </c>
       <c r="K11">
-        <v>10.125124</v>
+        <v>0.61175597000000004</v>
       </c>
       <c r="L11">
-        <v>9.9728750000000002</v>
+        <v>0.52608319999999997</v>
       </c>
       <c r="M11">
-        <v>10.088305999999999</v>
+        <v>0.60557395000000003</v>
       </c>
       <c r="N11">
-        <v>10.026384</v>
+        <v>0.51828969999999996</v>
       </c>
       <c r="O11">
-        <v>10.053661999999999</v>
+        <v>0.60281085999999995</v>
       </c>
       <c r="P11">
-        <v>10.116463</v>
+        <v>0.60864339999999995</v>
       </c>
       <c r="Q11">
-        <v>10.088471999999999</v>
+        <v>0.60507619999999995</v>
       </c>
       <c r="R11">
-        <v>10.095207</v>
+        <v>0.60420436</v>
       </c>
       <c r="S11">
-        <v>10.088437000000001</v>
+        <v>0.60536160000000006</v>
       </c>
       <c r="T11">
-        <v>10.088939</v>
+        <v>0.60522880000000001</v>
       </c>
       <c r="U11">
-        <v>10.088243</v>
+        <v>0.6053636</v>
       </c>
       <c r="V11">
-        <v>10.089027</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.34060466</v>
-      </c>
-      <c r="C12">
-        <v>0.34060466</v>
-      </c>
-      <c r="D12">
-        <v>0.34060466</v>
-      </c>
-      <c r="E12">
-        <v>0.34060466</v>
-      </c>
-      <c r="F12">
-        <v>0.34060466</v>
-      </c>
-      <c r="G12">
-        <v>0.34060466</v>
-      </c>
-      <c r="H12">
-        <v>0.34060466</v>
-      </c>
-      <c r="I12">
-        <v>0.34060466</v>
-      </c>
-      <c r="J12">
-        <v>0.34060466</v>
-      </c>
-      <c r="K12">
-        <v>0.34060466</v>
-      </c>
-      <c r="L12">
-        <v>0.34060466</v>
-      </c>
-      <c r="M12">
-        <v>0.34060466</v>
-      </c>
-      <c r="N12">
-        <v>0.34060466</v>
-      </c>
-      <c r="O12">
-        <v>0.34060466</v>
-      </c>
-      <c r="P12">
-        <v>0.34060466</v>
-      </c>
-      <c r="Q12">
-        <v>0.34060466</v>
-      </c>
-      <c r="R12">
-        <v>0.34060466</v>
-      </c>
-      <c r="S12">
-        <v>0.34060466</v>
-      </c>
-      <c r="T12">
-        <v>0.34060466</v>
-      </c>
-      <c r="U12">
-        <v>0.34060466</v>
-      </c>
-      <c r="V12">
-        <v>0.34060466</v>
+        <v>0.60534980000000005</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10.088276</v>
+      </c>
+      <c r="C13">
+        <v>10.172914499999999</v>
+      </c>
+      <c r="E13">
+        <v>10.088552</v>
+      </c>
+      <c r="G13">
+        <v>10.184378000000001</v>
+      </c>
+      <c r="I13">
+        <v>10.088162000000001</v>
+      </c>
+      <c r="K13">
+        <v>10.125124</v>
+      </c>
+      <c r="L13">
+        <v>9.9728750000000002</v>
+      </c>
+      <c r="M13">
+        <v>10.088305999999999</v>
+      </c>
+      <c r="N13">
+        <v>10.026384</v>
+      </c>
+      <c r="O13">
+        <v>10.053661999999999</v>
+      </c>
+      <c r="P13">
+        <v>10.116463</v>
+      </c>
+      <c r="Q13">
+        <v>10.088471999999999</v>
+      </c>
+      <c r="R13">
+        <v>10.095207</v>
+      </c>
+      <c r="S13">
+        <v>10.088437000000001</v>
+      </c>
+      <c r="T13">
+        <v>10.088939</v>
+      </c>
+      <c r="U13">
+        <v>10.088243</v>
+      </c>
+      <c r="V13">
+        <v>10.089027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.34060466</v>
+      </c>
+      <c r="C14">
+        <v>0.34060466</v>
+      </c>
+      <c r="D14">
+        <v>0.34060466</v>
+      </c>
+      <c r="E14">
+        <v>0.34060466</v>
+      </c>
+      <c r="F14">
+        <v>0.34060466</v>
+      </c>
+      <c r="G14">
+        <v>0.34060466</v>
+      </c>
+      <c r="H14">
+        <v>0.34060466</v>
+      </c>
+      <c r="I14">
+        <v>0.34060466</v>
+      </c>
+      <c r="J14">
+        <v>0.34060466</v>
+      </c>
+      <c r="K14">
+        <v>0.34060466</v>
+      </c>
+      <c r="L14">
+        <v>0.34060466</v>
+      </c>
+      <c r="M14">
+        <v>0.34060466</v>
+      </c>
+      <c r="N14">
+        <v>0.34060466</v>
+      </c>
+      <c r="O14">
+        <v>0.34060466</v>
+      </c>
+      <c r="P14">
+        <v>0.34060466</v>
+      </c>
+      <c r="Q14">
+        <v>0.34060466</v>
+      </c>
+      <c r="R14">
+        <v>0.34060466</v>
+      </c>
+      <c r="S14">
+        <v>0.34060466</v>
+      </c>
+      <c r="T14">
+        <v>0.34060466</v>
+      </c>
+      <c r="U14">
+        <v>0.34060466</v>
+      </c>
+      <c r="V14">
+        <v>0.34060466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>0.48480000000000001</v>
       </c>
-      <c r="C13">
-        <v>0.34060466</v>
-      </c>
-      <c r="E13">
+      <c r="C15">
+        <v>0.34060466</v>
+      </c>
+      <c r="E15">
         <v>0.48480000000000001</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>0.4884</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>0.48480000000000001</v>
       </c>
-      <c r="K13">
+      <c r="K15">
         <v>0.48620000000000002</v>
       </c>
-      <c r="L13">
+      <c r="L15">
         <v>0.48049999999999998</v>
       </c>
-      <c r="M13">
+      <c r="M15">
         <v>0.48480000000000001</v>
       </c>
-      <c r="N13">
+      <c r="N15">
         <v>0.48249999999999998</v>
       </c>
-      <c r="O13">
+      <c r="O15">
         <v>0.48349999999999999</v>
       </c>
-      <c r="P13">
+      <c r="P15">
         <v>0.4859</v>
       </c>
-      <c r="Q13">
+      <c r="Q15">
         <v>0.48480000000000001</v>
       </c>
-      <c r="R13">
+      <c r="R15">
         <v>0.48509999999999998</v>
       </c>
-      <c r="S13">
+      <c r="S15">
         <v>0.48480000000000001</v>
       </c>
-      <c r="T13">
+      <c r="T15">
         <v>0.4849</v>
       </c>
-      <c r="U13">
+      <c r="U15">
         <v>0.48480000000000001</v>
       </c>
-      <c r="V13">
+      <c r="V15">
         <v>0.4849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0.68085600000000002</v>
+      </c>
+      <c r="C16">
+        <v>0.64096624000000002</v>
+      </c>
+      <c r="E16">
+        <v>0.6803785</v>
+      </c>
+      <c r="G16">
+        <v>0.60257470000000002</v>
+      </c>
+      <c r="I16">
+        <v>0.68052029999999997</v>
+      </c>
+      <c r="K16">
+        <v>0.65760960000000002</v>
+      </c>
+      <c r="L16">
+        <v>0.62494479999999997</v>
+      </c>
+      <c r="M16">
+        <v>0.68055220000000005</v>
+      </c>
+      <c r="N16">
+        <v>0.60391843000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.67636067</v>
+      </c>
+      <c r="P16">
+        <v>0.78299266000000001</v>
+      </c>
+      <c r="Q16">
+        <v>0.68069259999999998</v>
+      </c>
+      <c r="R16">
+        <v>0.75873279999999999</v>
+      </c>
+      <c r="S16">
+        <v>0.68084513999999996</v>
+      </c>
+      <c r="T16">
+        <v>0.67894129999999997</v>
+      </c>
+      <c r="U16">
+        <v>0.68056333000000002</v>
+      </c>
+      <c r="V16">
+        <v>0.67868139999999999</v>
       </c>
     </row>
   </sheetData>

--- a/ROS_calculations.xlsx
+++ b/ROS_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybenik/Research_files/Hill_Runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97708F86-81C9-8145-AC29-36CBC87D94A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FB10CF-12A3-E249-BADA-777FEFC7F5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="17280" windowHeight="21700" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C5D8E9-26BC-FC46-9670-57C49E39CB3F}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ROS_calculations.xlsx
+++ b/ROS_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybenik/Research_files/Hill_Runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FB10CF-12A3-E249-BADA-777FEFC7F5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DEE6A2-E0FB-654B-8612-B93A6A4B0240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ROS_calculations.xlsx
+++ b/ROS_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybenik/Research_files/Hill_Runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DEE6A2-E0FB-654B-8612-B93A6A4B0240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E643DD7-2E8F-AA4C-A441-ED1512431DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
+    <workbookView xWindow="17280" yWindow="640" windowWidth="17280" windowHeight="21700" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>ROS Data</t>
   </si>
@@ -131,19 +131,46 @@
   </si>
   <si>
     <t>Model ROS</t>
+  </si>
+  <si>
+    <t>adjr0</t>
+  </si>
+  <si>
+    <t>adjrw</t>
+  </si>
+  <si>
+    <t>adjrs</t>
+  </si>
+  <si>
+    <t>Modified Rothermel Matlab Code</t>
+  </si>
+  <si>
+    <t>Original Rothermel Matlab Code</t>
+  </si>
+  <si>
+    <t>ROS var modified</t>
+  </si>
+  <si>
+    <t>ROS var original</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,8 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C5D8E9-26BC-FC46-9670-57C49E39CB3F}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,813 +527,1471 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" t="s">
-        <v>30</v>
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.25</v>
+      </c>
+      <c r="J2">
+        <v>0.25</v>
+      </c>
+      <c r="K2">
+        <v>0.75</v>
+      </c>
+      <c r="N2">
+        <v>0.75</v>
+      </c>
+      <c r="O2">
+        <v>1.25</v>
+      </c>
+      <c r="R2">
+        <v>1.25</v>
+      </c>
+      <c r="S2">
+        <v>0.999</v>
+      </c>
+      <c r="V2">
+        <v>0.999</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>15.979096</v>
-      </c>
-      <c r="C3">
-        <v>15.979676</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>14.204286</v>
-      </c>
-      <c r="E3">
-        <v>15.985248</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>13.884665500000001</v>
-      </c>
-      <c r="G3">
-        <v>15.94369</v>
-      </c>
-      <c r="I3">
-        <v>15.988474999999999</v>
-      </c>
-      <c r="K3">
-        <v>16.009450000000001</v>
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <v>0.25</v>
       </c>
       <c r="L3">
-        <v>15.592441000000001</v>
-      </c>
-      <c r="M3">
-        <v>15.98211</v>
+        <v>0.75</v>
       </c>
       <c r="N3">
-        <v>15.435043</v>
-      </c>
-      <c r="O3">
-        <v>16.008780000000002</v>
+        <v>0.75</v>
       </c>
       <c r="P3">
-        <v>16.254318000000001</v>
-      </c>
-      <c r="Q3">
-        <v>15.975887999999999</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>16.241644000000001</v>
-      </c>
-      <c r="S3">
-        <v>15.979746</v>
+        <v>1.25</v>
       </c>
       <c r="T3">
-        <v>15.981907</v>
-      </c>
-      <c r="U3">
-        <v>15.979161</v>
+        <v>0.999</v>
       </c>
       <c r="V3">
-        <v>15.982637</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3.9121687000000002E-2</v>
-      </c>
-      <c r="C4">
-        <v>3.9121687000000002E-2</v>
-      </c>
-      <c r="D4">
-        <v>3.9121687000000002E-2</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>3.9121687000000002E-2</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>3.9121687000000002E-2</v>
-      </c>
-      <c r="G4">
-        <v>3.9121687000000002E-2</v>
-      </c>
-      <c r="H4">
-        <v>3.9121687000000002E-2</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
-        <v>3.9121687000000002E-2</v>
+        <v>0.25</v>
       </c>
       <c r="J4">
-        <v>3.9121687000000002E-2</v>
-      </c>
-      <c r="K4">
-        <v>3.9121687000000002E-2</v>
-      </c>
-      <c r="L4">
-        <v>3.9121687000000002E-2</v>
+        <v>0.25</v>
       </c>
       <c r="M4">
-        <v>3.9121687000000002E-2</v>
+        <v>0.75</v>
       </c>
       <c r="N4">
-        <v>3.9121687000000002E-2</v>
-      </c>
-      <c r="O4">
-        <v>3.9121687000000002E-2</v>
-      </c>
-      <c r="P4">
-        <v>3.9121687000000002E-2</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
-        <v>3.9121687000000002E-2</v>
+        <v>1.25</v>
       </c>
       <c r="R4">
-        <v>3.9121687000000002E-2</v>
-      </c>
-      <c r="S4">
-        <v>3.9121687000000002E-2</v>
-      </c>
-      <c r="T4">
-        <v>3.9121687000000002E-2</v>
+        <v>1.25</v>
       </c>
       <c r="U4">
-        <v>3.9121687000000002E-2</v>
+        <v>0.999</v>
       </c>
       <c r="V4">
-        <v>3.9121687000000002E-2</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.62119999999999997</v>
-      </c>
-      <c r="C5">
-        <v>0.62119999999999997</v>
-      </c>
-      <c r="D5">
-        <v>0.55379999999999996</v>
-      </c>
-      <c r="E5">
-        <v>0.62139999999999995</v>
-      </c>
-      <c r="F5">
-        <v>0.54179999999999995</v>
-      </c>
-      <c r="G5">
-        <v>0.61980000000000002</v>
-      </c>
-      <c r="I5">
-        <v>0.62150000000000005</v>
-      </c>
-      <c r="K5">
-        <v>0.62229999999999996</v>
-      </c>
-      <c r="L5">
-        <v>0.60640000000000005</v>
-      </c>
-      <c r="M5">
-        <v>0.62129999999999996</v>
-      </c>
-      <c r="N5">
-        <v>0.60050000000000003</v>
-      </c>
-      <c r="O5">
-        <v>0.62229999999999996</v>
-      </c>
-      <c r="P5">
-        <v>0.63160000000000005</v>
-      </c>
-      <c r="Q5">
-        <v>0.621</v>
-      </c>
-      <c r="R5">
-        <v>0.63119999999999998</v>
-      </c>
-      <c r="S5">
-        <v>0.62119999999999997</v>
-      </c>
-      <c r="T5">
-        <v>0.62129999999999996</v>
-      </c>
-      <c r="U5">
-        <v>0.62119999999999997</v>
-      </c>
-      <c r="V5">
-        <v>0.62129999999999996</v>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>15.979096</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>15.979676</v>
       </c>
       <c r="D6">
-        <v>2.3831376999999998</v>
+        <v>14.204286</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>15.985248</v>
       </c>
       <c r="F6">
-        <v>1.9875708000000001</v>
+        <v>13.884665500000001</v>
       </c>
       <c r="G6">
-        <v>5.0585839999999997</v>
+        <v>15.94369</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>15.988474999999999</v>
       </c>
       <c r="K6">
-        <v>6.0000004999999996</v>
+        <v>16.009450000000001</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>15.592441000000001</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>15.98211</v>
       </c>
       <c r="N6">
-        <v>6</v>
+        <v>15.435043</v>
       </c>
       <c r="O6">
-        <v>6</v>
+        <v>16.008780000000002</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>16.254318000000001</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>15.975887999999999</v>
       </c>
       <c r="R6">
-        <v>6</v>
+        <v>16.241644000000001</v>
       </c>
       <c r="S6">
-        <v>6.0000004999999996</v>
+        <v>15.979746</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>15.981907</v>
       </c>
       <c r="U6">
-        <v>6</v>
+        <v>15.979161</v>
       </c>
       <c r="V6">
-        <v>6.0000004999999996</v>
+        <v>15.982637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="H7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="I7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="J7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="K7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="L7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="M7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="N7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="O7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="P7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="Q7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="R7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="S7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="T7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="U7">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="V7">
+        <v>3.9121687000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>10.511709</v>
+        <v>0.62119999999999997</v>
       </c>
       <c r="C8">
-        <v>10.606191000000001</v>
+        <v>0.62119999999999997</v>
       </c>
       <c r="D8">
-        <v>10.183984000000001</v>
+        <v>0.55379999999999996</v>
       </c>
       <c r="E8">
-        <v>10.512212</v>
+        <v>0.62139999999999995</v>
       </c>
       <c r="F8">
-        <v>10.121859000000001</v>
+        <v>0.54179999999999995</v>
       </c>
       <c r="G8">
-        <v>10.623476999999999</v>
+        <v>0.61980000000000002</v>
       </c>
       <c r="I8">
-        <v>10.512638000000001</v>
+        <v>0.62150000000000005</v>
       </c>
       <c r="K8">
-        <v>10.546491</v>
+        <v>0.62229999999999996</v>
       </c>
       <c r="L8">
-        <v>10.453250000000001</v>
+        <v>0.60640000000000005</v>
       </c>
       <c r="M8">
-        <v>10.512064000000001</v>
+        <v>0.62129999999999996</v>
       </c>
       <c r="N8">
-        <v>10.442306500000001</v>
+        <v>0.60050000000000003</v>
       </c>
       <c r="O8">
-        <v>10.476487000000001</v>
+        <v>0.62229999999999996</v>
       </c>
       <c r="P8">
-        <v>10.4758</v>
+        <v>0.63160000000000005</v>
       </c>
       <c r="Q8">
-        <v>10.511231</v>
+        <v>0.621</v>
       </c>
       <c r="R8">
-        <v>10.455652000000001</v>
+        <v>0.63119999999999998</v>
       </c>
       <c r="S8">
-        <v>10.511894</v>
+        <v>0.62119999999999997</v>
       </c>
       <c r="T8">
-        <v>10.511896</v>
+        <v>0.62129999999999996</v>
       </c>
       <c r="U8">
-        <v>10.511658000000001</v>
+        <v>0.62119999999999997</v>
       </c>
       <c r="V8">
-        <v>10.511988000000001</v>
+        <v>0.62129999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>0.29007253</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.29007253</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>0.29007253</v>
+        <v>2.3831376999999998</v>
       </c>
       <c r="E9">
-        <v>0.29007253</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>0.29007253</v>
+        <v>1.9875708000000001</v>
       </c>
       <c r="G9">
-        <v>0.29007253</v>
-      </c>
-      <c r="H9">
-        <v>0.29007253</v>
+        <v>5.0585839999999997</v>
       </c>
       <c r="I9">
-        <v>0.29007253</v>
-      </c>
-      <c r="J9">
-        <v>0.29007253</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>0.29007253</v>
+        <v>6.0000004999999996</v>
       </c>
       <c r="L9">
-        <v>0.29007253</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>0.29007253</v>
+        <v>6</v>
       </c>
       <c r="N9">
-        <v>0.29007253</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>0.29007253</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>0.29007253</v>
+        <v>6</v>
       </c>
       <c r="Q9">
-        <v>0.29007253</v>
+        <v>6</v>
       </c>
       <c r="R9">
-        <v>0.29007253</v>
+        <v>6</v>
       </c>
       <c r="S9">
-        <v>0.29007253</v>
+        <v>6.0000004999999996</v>
       </c>
       <c r="T9">
-        <v>0.29007253</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>0.29007253</v>
+        <v>6</v>
       </c>
       <c r="V9">
-        <v>0.29007253</v>
+        <v>6.0000004999999996</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>0.4864</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0.4899</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0.47410000000000002</v>
+        <v>4.9615</v>
       </c>
       <c r="E10">
-        <v>0.4864</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>0.4718</v>
+        <v>4.7991000000000001</v>
       </c>
       <c r="G10">
-        <v>0.49059999999999998</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>0.4864</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>0.48770000000000002</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>0.48770000000000002</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>0.4864</v>
+        <v>6</v>
       </c>
       <c r="N10">
-        <v>0.48380000000000001</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>10.476487000000001</v>
+        <v>6</v>
       </c>
       <c r="P10">
-        <v>0.48499999999999999</v>
+        <v>6</v>
       </c>
       <c r="Q10">
-        <v>0.4864</v>
+        <v>6</v>
       </c>
       <c r="R10">
-        <v>0.48430000000000001</v>
+        <v>6</v>
       </c>
       <c r="S10">
-        <v>0.4864</v>
+        <v>6</v>
       </c>
       <c r="T10">
-        <v>0.4864</v>
+        <v>6</v>
       </c>
       <c r="U10">
-        <v>0.4864</v>
+        <v>6</v>
       </c>
       <c r="V10">
-        <v>10.511988000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>0.60530806000000004</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>0.60672959999999998</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>0.40722406</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>0.60585829999999996</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>0.38986418</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>0.62131625000000001</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>0.60610549999999996</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>0.61175597000000004</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>0.52608319999999997</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>0.60557395000000003</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>0.51828969999999996</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>0.60281085999999995</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>0.60864339999999995</v>
+        <v>6</v>
       </c>
       <c r="Q11">
-        <v>0.60507619999999995</v>
+        <v>6</v>
       </c>
       <c r="R11">
-        <v>0.60420436</v>
+        <v>6</v>
       </c>
       <c r="S11">
-        <v>0.60536160000000006</v>
+        <v>6</v>
       </c>
       <c r="T11">
-        <v>0.60522880000000001</v>
+        <v>6</v>
       </c>
       <c r="U11">
-        <v>0.6053636</v>
+        <v>6</v>
       </c>
       <c r="V11">
-        <v>0.60534980000000005</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>11.5319</v>
+      </c>
+      <c r="C12">
+        <v>11.5158</v>
+      </c>
+      <c r="D12">
+        <v>4.9615</v>
+      </c>
+      <c r="E12">
+        <v>11.5367</v>
+      </c>
+      <c r="F12">
+        <v>4.7991000000000001</v>
+      </c>
+      <c r="G12">
+        <v>11.4735</v>
+      </c>
+      <c r="I12">
+        <v>11.539300000000001</v>
+      </c>
+      <c r="K12">
+        <v>11.552199999999999</v>
+      </c>
+      <c r="L12">
+        <v>8.3851999999999993</v>
+      </c>
+      <c r="M12">
+        <v>11.5342</v>
+      </c>
+      <c r="N12">
+        <v>8.2660999999999998</v>
+      </c>
+      <c r="O12">
+        <v>11.568199999999999</v>
+      </c>
+      <c r="P12">
+        <v>14.731299999999999</v>
+      </c>
+      <c r="Q12">
+        <v>11.529299999999999</v>
+      </c>
+      <c r="R12">
+        <v>14.725099999999999</v>
+      </c>
+      <c r="S12">
+        <v>11.532400000000001</v>
+      </c>
+      <c r="T12">
+        <v>11.523</v>
+      </c>
+      <c r="U12">
+        <v>11.5319</v>
+      </c>
+      <c r="V12">
+        <v>11.5237</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>10.088276</v>
+        <v>11.5319</v>
       </c>
       <c r="C13">
-        <v>10.172914499999999</v>
+        <v>11.532400000000001</v>
+      </c>
+      <c r="D13">
+        <v>9.8877000000000006</v>
       </c>
       <c r="E13">
-        <v>10.088552</v>
+        <v>11.537699999999999</v>
+      </c>
+      <c r="F13">
+        <v>9.5982000000000003</v>
       </c>
       <c r="G13">
-        <v>10.184378000000001</v>
+        <v>11.4985</v>
       </c>
       <c r="I13">
-        <v>10.088162000000001</v>
+        <v>11.540699999999999</v>
       </c>
       <c r="K13">
-        <v>10.125124</v>
+        <v>11.560499999999999</v>
       </c>
       <c r="L13">
-        <v>9.9728750000000002</v>
+        <v>11.1686</v>
       </c>
       <c r="M13">
-        <v>10.088305999999999</v>
+        <v>11.534700000000001</v>
       </c>
       <c r="N13">
-        <v>10.026384</v>
+        <v>11.0215</v>
       </c>
       <c r="O13">
-        <v>10.053661999999999</v>
+        <v>11.559900000000001</v>
       </c>
       <c r="P13">
-        <v>10.116463</v>
+        <v>11.7921</v>
       </c>
       <c r="Q13">
-        <v>10.088471999999999</v>
+        <v>11.5288</v>
       </c>
       <c r="R13">
-        <v>10.095207</v>
+        <v>11.780099999999999</v>
       </c>
       <c r="S13">
-        <v>10.088437000000001</v>
+        <v>11.532500000000001</v>
       </c>
       <c r="T13">
-        <v>10.088939</v>
+        <v>11.5345</v>
       </c>
       <c r="U13">
-        <v>10.088243</v>
+        <v>11.5319</v>
       </c>
       <c r="V13">
-        <v>10.089027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>0.34060466</v>
-      </c>
-      <c r="C14">
-        <v>0.34060466</v>
-      </c>
-      <c r="D14">
-        <v>0.34060466</v>
-      </c>
-      <c r="E14">
-        <v>0.34060466</v>
-      </c>
-      <c r="F14">
-        <v>0.34060466</v>
-      </c>
-      <c r="G14">
-        <v>0.34060466</v>
-      </c>
-      <c r="H14">
-        <v>0.34060466</v>
-      </c>
-      <c r="I14">
-        <v>0.34060466</v>
-      </c>
-      <c r="J14">
-        <v>0.34060466</v>
-      </c>
-      <c r="K14">
-        <v>0.34060466</v>
-      </c>
-      <c r="L14">
-        <v>0.34060466</v>
-      </c>
-      <c r="M14">
-        <v>0.34060466</v>
-      </c>
-      <c r="N14">
-        <v>0.34060466</v>
-      </c>
-      <c r="O14">
-        <v>0.34060466</v>
-      </c>
-      <c r="P14">
-        <v>0.34060466</v>
-      </c>
-      <c r="Q14">
-        <v>0.34060466</v>
-      </c>
-      <c r="R14">
-        <v>0.34060466</v>
-      </c>
-      <c r="S14">
-        <v>0.34060466</v>
-      </c>
-      <c r="T14">
-        <v>0.34060466</v>
-      </c>
-      <c r="U14">
-        <v>0.34060466</v>
-      </c>
-      <c r="V14">
-        <v>0.34060466</v>
+        <v>11.5352</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>0.48480000000000001</v>
+        <v>10.511709</v>
       </c>
       <c r="C15">
-        <v>0.34060466</v>
+        <v>10.606191000000001</v>
+      </c>
+      <c r="D15">
+        <v>10.183984000000001</v>
       </c>
       <c r="E15">
-        <v>0.48480000000000001</v>
+        <v>10.512212</v>
+      </c>
+      <c r="F15">
+        <v>10.121859000000001</v>
       </c>
       <c r="G15">
-        <v>0.4884</v>
+        <v>10.623476999999999</v>
       </c>
       <c r="I15">
-        <v>0.48480000000000001</v>
+        <v>10.512638000000001</v>
       </c>
       <c r="K15">
-        <v>0.48620000000000002</v>
+        <v>10.546491</v>
       </c>
       <c r="L15">
-        <v>0.48049999999999998</v>
+        <v>10.453250000000001</v>
       </c>
       <c r="M15">
-        <v>0.48480000000000001</v>
+        <v>10.512064000000001</v>
       </c>
       <c r="N15">
-        <v>0.48249999999999998</v>
+        <v>10.442306500000001</v>
       </c>
       <c r="O15">
-        <v>0.48349999999999999</v>
+        <v>10.476487000000001</v>
       </c>
       <c r="P15">
-        <v>0.4859</v>
+        <v>10.4758</v>
       </c>
       <c r="Q15">
-        <v>0.48480000000000001</v>
+        <v>10.511231</v>
       </c>
       <c r="R15">
-        <v>0.48509999999999998</v>
+        <v>10.455652000000001</v>
       </c>
       <c r="S15">
-        <v>0.48480000000000001</v>
+        <v>10.511894</v>
       </c>
       <c r="T15">
-        <v>0.4849</v>
+        <v>10.511896</v>
       </c>
       <c r="U15">
-        <v>0.48480000000000001</v>
+        <v>10.511658000000001</v>
       </c>
       <c r="V15">
-        <v>0.4849</v>
+        <v>10.511988000000001</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0.29007253</v>
+      </c>
+      <c r="C16">
+        <v>0.29007253</v>
+      </c>
+      <c r="D16">
+        <v>0.29007253</v>
+      </c>
+      <c r="E16">
+        <v>0.29007253</v>
+      </c>
+      <c r="F16">
+        <v>0.29007253</v>
+      </c>
+      <c r="G16">
+        <v>0.29007253</v>
+      </c>
+      <c r="H16">
+        <v>0.29007253</v>
+      </c>
+      <c r="I16">
+        <v>0.29007253</v>
+      </c>
+      <c r="J16">
+        <v>0.29007253</v>
+      </c>
+      <c r="K16">
+        <v>0.29007253</v>
+      </c>
+      <c r="L16">
+        <v>0.29007253</v>
+      </c>
+      <c r="M16">
+        <v>0.29007253</v>
+      </c>
+      <c r="N16">
+        <v>0.29007253</v>
+      </c>
+      <c r="O16">
+        <v>0.29007253</v>
+      </c>
+      <c r="P16">
+        <v>0.29007253</v>
+      </c>
+      <c r="Q16">
+        <v>0.29007253</v>
+      </c>
+      <c r="R16">
+        <v>0.29007253</v>
+      </c>
+      <c r="S16">
+        <v>0.29007253</v>
+      </c>
+      <c r="T16">
+        <v>0.29007253</v>
+      </c>
+      <c r="U16">
+        <v>0.29007253</v>
+      </c>
+      <c r="V16">
+        <v>0.29007253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0.4864</v>
+      </c>
+      <c r="C17">
+        <v>0.4899</v>
+      </c>
+      <c r="D17">
+        <v>0.47410000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.4864</v>
+      </c>
+      <c r="F17">
+        <v>0.4718</v>
+      </c>
+      <c r="G17">
+        <v>0.49059999999999998</v>
+      </c>
+      <c r="I17">
+        <v>0.4864</v>
+      </c>
+      <c r="K17">
+        <v>0.48770000000000002</v>
+      </c>
+      <c r="L17">
+        <v>0.48770000000000002</v>
+      </c>
+      <c r="M17">
+        <v>0.4864</v>
+      </c>
+      <c r="N17">
+        <v>0.48380000000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.48509999999999998</v>
+      </c>
+      <c r="P17">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.4864</v>
+      </c>
+      <c r="R17">
+        <v>0.48430000000000001</v>
+      </c>
+      <c r="S17">
+        <v>0.4864</v>
+      </c>
+      <c r="T17">
+        <v>0.4864</v>
+      </c>
+      <c r="U17">
+        <v>0.4864</v>
+      </c>
+      <c r="V17">
+        <v>10.511988000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
+      <c r="B18">
+        <v>0.60530806000000004</v>
+      </c>
+      <c r="C18">
+        <v>0.60672959999999998</v>
+      </c>
+      <c r="D18">
+        <v>0.40722406</v>
+      </c>
+      <c r="E18">
+        <v>0.60585829999999996</v>
+      </c>
+      <c r="F18">
+        <v>0.38986418</v>
+      </c>
+      <c r="G18">
+        <v>0.62131625000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.60610549999999996</v>
+      </c>
+      <c r="K18">
+        <v>0.61175597000000004</v>
+      </c>
+      <c r="L18">
+        <v>0.52608319999999997</v>
+      </c>
+      <c r="M18">
+        <v>0.60557395000000003</v>
+      </c>
+      <c r="N18">
+        <v>0.51828969999999996</v>
+      </c>
+      <c r="O18">
+        <v>0.60281085999999995</v>
+      </c>
+      <c r="P18">
+        <v>0.60864339999999995</v>
+      </c>
+      <c r="Q18">
+        <v>0.60507619999999995</v>
+      </c>
+      <c r="R18">
+        <v>0.60420436</v>
+      </c>
+      <c r="S18">
+        <v>0.60536160000000006</v>
+      </c>
+      <c r="T18">
+        <v>0.60522880000000001</v>
+      </c>
+      <c r="U18">
+        <v>0.6053636</v>
+      </c>
+      <c r="V18">
+        <v>0.60534980000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>3.2275999999999998</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>5.0797999999999996</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>6</v>
+      </c>
+      <c r="U19">
+        <v>6</v>
+      </c>
+      <c r="V19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+      <c r="P20">
+        <v>6</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>6</v>
+      </c>
+      <c r="U20">
+        <v>6</v>
+      </c>
+      <c r="V20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="C21">
+        <v>6.8377999999999997</v>
+      </c>
+      <c r="D21">
+        <v>6.4893999999999998</v>
+      </c>
+      <c r="E21">
+        <v>6.7252000000000001</v>
+      </c>
+      <c r="F21">
+        <v>3.2275999999999998</v>
+      </c>
+      <c r="G21">
+        <v>6.8437999999999999</v>
+      </c>
+      <c r="I21">
+        <v>6.6997999999999998</v>
+      </c>
+      <c r="K21">
+        <v>6.7965999999999998</v>
+      </c>
+      <c r="L21">
+        <v>5.0797999999999996</v>
+      </c>
+      <c r="M21">
+        <v>6.7507000000000001</v>
+      </c>
+      <c r="N21">
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="O21">
+        <v>6.7553000000000001</v>
+      </c>
+      <c r="P21">
+        <v>8.3989999999999991</v>
+      </c>
+      <c r="Q21">
+        <v>6.8014000000000001</v>
+      </c>
+      <c r="R21">
+        <v>8.4122000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="C22">
+        <v>6.8544999999999998</v>
+      </c>
+      <c r="D22">
+        <v>6.5061</v>
+      </c>
+      <c r="E22">
+        <v>6.7765000000000004</v>
+      </c>
+      <c r="F22">
+        <v>6.4551999999999996</v>
+      </c>
+      <c r="G22">
+        <v>6.8688000000000002</v>
+      </c>
+      <c r="I22">
+        <v>6.7769000000000004</v>
+      </c>
+      <c r="K22">
+        <v>6.8048999999999999</v>
+      </c>
+      <c r="L22">
+        <v>6.7278000000000002</v>
+      </c>
+      <c r="M22">
+        <v>6.7763999999999998</v>
+      </c>
+      <c r="N22">
+        <v>6.7187000000000001</v>
+      </c>
+      <c r="O22">
+        <v>6.7469999999999999</v>
+      </c>
+      <c r="P22">
+        <v>6.7464000000000004</v>
+      </c>
+      <c r="Q22">
+        <v>6.7756999999999996</v>
+      </c>
+      <c r="R22">
+        <v>6.7297000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>10.088276</v>
+      </c>
+      <c r="C24">
+        <v>10.172914499999999</v>
+      </c>
+      <c r="E24">
+        <v>10.088552</v>
+      </c>
+      <c r="G24">
+        <v>10.184378000000001</v>
+      </c>
+      <c r="I24">
+        <v>10.088162000000001</v>
+      </c>
+      <c r="K24">
+        <v>10.125124</v>
+      </c>
+      <c r="L24">
+        <v>9.9728750000000002</v>
+      </c>
+      <c r="M24">
+        <v>10.088305999999999</v>
+      </c>
+      <c r="N24">
+        <v>10.026384</v>
+      </c>
+      <c r="O24">
+        <v>10.053661999999999</v>
+      </c>
+      <c r="P24">
+        <v>10.116463</v>
+      </c>
+      <c r="Q24">
+        <v>10.088471999999999</v>
+      </c>
+      <c r="R24">
+        <v>10.095207</v>
+      </c>
+      <c r="S24">
+        <v>10.088437000000001</v>
+      </c>
+      <c r="T24">
+        <v>10.088939</v>
+      </c>
+      <c r="U24">
+        <v>10.088243</v>
+      </c>
+      <c r="V24">
+        <v>10.089027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0.34060466</v>
+      </c>
+      <c r="C25">
+        <v>0.34060466</v>
+      </c>
+      <c r="D25">
+        <v>0.34060466</v>
+      </c>
+      <c r="E25">
+        <v>0.34060466</v>
+      </c>
+      <c r="F25">
+        <v>0.34060466</v>
+      </c>
+      <c r="G25">
+        <v>0.34060466</v>
+      </c>
+      <c r="H25">
+        <v>0.34060466</v>
+      </c>
+      <c r="I25">
+        <v>0.34060466</v>
+      </c>
+      <c r="J25">
+        <v>0.34060466</v>
+      </c>
+      <c r="K25">
+        <v>0.34060466</v>
+      </c>
+      <c r="L25">
+        <v>0.34060466</v>
+      </c>
+      <c r="M25">
+        <v>0.34060466</v>
+      </c>
+      <c r="N25">
+        <v>0.34060466</v>
+      </c>
+      <c r="O25">
+        <v>0.34060466</v>
+      </c>
+      <c r="P25">
+        <v>0.34060466</v>
+      </c>
+      <c r="Q25">
+        <v>0.34060466</v>
+      </c>
+      <c r="R25">
+        <v>0.34060466</v>
+      </c>
+      <c r="S25">
+        <v>0.34060466</v>
+      </c>
+      <c r="T25">
+        <v>0.34060466</v>
+      </c>
+      <c r="U25">
+        <v>0.34060466</v>
+      </c>
+      <c r="V25">
+        <v>0.34060466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.48820000000000002</v>
+      </c>
+      <c r="E26">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.4884</v>
+      </c>
+      <c r="I26">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.48620000000000002</v>
+      </c>
+      <c r="L26">
+        <v>0.48049999999999998</v>
+      </c>
+      <c r="M26">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="O26">
+        <v>0.48349999999999999</v>
+      </c>
+      <c r="P26">
+        <v>0.4859</v>
+      </c>
+      <c r="Q26">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="R26">
+        <v>0.48509999999999998</v>
+      </c>
+      <c r="S26">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="T26">
+        <v>0.4849</v>
+      </c>
+      <c r="U26">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="V26">
+        <v>0.4849</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
         <v>0.68085600000000002</v>
       </c>
-      <c r="C16">
+      <c r="C27">
         <v>0.64096624000000002</v>
       </c>
-      <c r="E16">
+      <c r="E27">
         <v>0.6803785</v>
       </c>
-      <c r="G16">
+      <c r="G27">
         <v>0.60257470000000002</v>
       </c>
-      <c r="I16">
+      <c r="I27">
         <v>0.68052029999999997</v>
       </c>
-      <c r="K16">
+      <c r="K27">
         <v>0.65760960000000002</v>
       </c>
-      <c r="L16">
+      <c r="L27">
         <v>0.62494479999999997</v>
       </c>
-      <c r="M16">
+      <c r="M27">
         <v>0.68055220000000005</v>
       </c>
-      <c r="N16">
+      <c r="N27">
         <v>0.60391843000000001</v>
       </c>
-      <c r="O16">
+      <c r="O27">
         <v>0.67636067</v>
       </c>
-      <c r="P16">
+      <c r="P27">
         <v>0.78299266000000001</v>
       </c>
-      <c r="Q16">
+      <c r="Q27">
         <v>0.68069259999999998</v>
       </c>
-      <c r="R16">
+      <c r="R27">
         <v>0.75873279999999999</v>
       </c>
-      <c r="S16">
+      <c r="S27">
         <v>0.68084513999999996</v>
       </c>
-      <c r="T16">
+      <c r="T27">
         <v>0.67894129999999997</v>
       </c>
-      <c r="U16">
+      <c r="U27">
         <v>0.68056333000000002</v>
       </c>
-      <c r="V16">
+      <c r="V27">
         <v>0.67868139999999999</v>
       </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ROS_calculations.xlsx
+++ b/ROS_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybenik/Research_files/Hill_Runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E643DD7-2E8F-AA4C-A441-ED1512431DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E1DA7C-6B3F-6F48-8720-B3CA22F4B522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="640" windowWidth="17280" windowHeight="21700" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
+    <workbookView xWindow="72960" yWindow="-7220" windowWidth="38400" windowHeight="21600" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,9 +193,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C5D8E9-26BC-FC46-9670-57C49E39CB3F}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1625,6 +1626,18 @@
       <c r="R21">
         <v>8.4122000000000003</v>
       </c>
+      <c r="S21">
+        <v>6.7762000000000002</v>
+      </c>
+      <c r="T21">
+        <v>6.7695999999999996</v>
+      </c>
+      <c r="U21">
+        <v>6.7950999999999997</v>
+      </c>
+      <c r="V21">
+        <v>6.7763</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1675,6 +1688,18 @@
       <c r="R22">
         <v>6.7297000000000002</v>
       </c>
+      <c r="S22">
+        <v>6.7763</v>
+      </c>
+      <c r="T22" s="2">
+        <v>6.7763</v>
+      </c>
+      <c r="U22">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="V22">
+        <v>6.7695999999999996</v>
+      </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1916,22 +1941,249 @@
       <c r="A28" t="s">
         <v>35</v>
       </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>6</v>
+      </c>
+      <c r="L28">
+        <v>4.8231000000000002</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <v>4.8121</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>6</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
+      </c>
+      <c r="T28">
+        <v>6</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <v>6</v>
+      </c>
+      <c r="V29">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
+      <c r="B30">
+        <v>6.4665999999999997</v>
+      </c>
+      <c r="C30">
+        <v>6.5193000000000003</v>
+      </c>
+      <c r="E30">
+        <v>6.3959999999999999</v>
+      </c>
+      <c r="G30">
+        <v>6.5202999999999998</v>
+      </c>
+      <c r="I30">
+        <v>6.3602999999999996</v>
+      </c>
+      <c r="K30">
+        <v>6.4885000000000002</v>
+      </c>
+      <c r="L30">
+        <v>4.8231000000000002</v>
+      </c>
+      <c r="M30">
+        <v>6.4313000000000002</v>
+      </c>
+      <c r="N30">
+        <v>4.8121</v>
+      </c>
+      <c r="O30">
+        <v>6.4466999999999999</v>
+      </c>
+      <c r="P30">
+        <v>8.0684000000000005</v>
+      </c>
+      <c r="Q30">
+        <v>6.5022000000000002</v>
+      </c>
+      <c r="R30">
+        <v>8.0904000000000007</v>
+      </c>
+      <c r="S30">
+        <v>6.4667000000000003</v>
+      </c>
+      <c r="T30">
+        <v>6.4608999999999996</v>
+      </c>
+      <c r="U30">
+        <v>6.4664999999999999</v>
+      </c>
+      <c r="V30">
+        <v>6.4607999999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>6.4665999999999997</v>
+      </c>
+      <c r="C31">
+        <v>6.5358999999999998</v>
+      </c>
+      <c r="E31">
+        <v>6.4668999999999999</v>
+      </c>
+      <c r="G31">
+        <v>6.5453000000000001</v>
+      </c>
+      <c r="I31">
+        <v>6.4664999999999999</v>
+      </c>
+      <c r="K31">
+        <v>6.4968000000000004</v>
+      </c>
+      <c r="L31">
+        <v>6.3724999999999996</v>
+      </c>
+      <c r="M31">
+        <v>6.4667000000000003</v>
+      </c>
+      <c r="N31">
+        <v>6.4161000000000001</v>
+      </c>
+      <c r="O31">
+        <v>6.4383999999999997</v>
+      </c>
+      <c r="P31">
+        <v>6.4897</v>
+      </c>
+      <c r="Q31">
+        <v>6.4668000000000001</v>
+      </c>
+      <c r="R31">
+        <v>6.4722999999999997</v>
+      </c>
+      <c r="S31">
+        <v>6.4668000000000001</v>
+      </c>
+      <c r="T31">
+        <v>6.4672000000000001</v>
+      </c>
+      <c r="U31">
+        <v>6.4665999999999997</v>
+      </c>
+      <c r="V31">
+        <v>6.4672999999999998</v>
+      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>

--- a/ROS_calculations.xlsx
+++ b/ROS_calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybenik/Research_files/Hill_Runs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybenik/Research_Files/Hill_Runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E1DA7C-6B3F-6F48-8720-B3CA22F4B522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A2729F9-697B-3344-80BF-7CC29C96F39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72960" yWindow="-7220" windowWidth="38400" windowHeight="21600" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C5D8E9-26BC-FC46-9670-57C49E39CB3F}">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,325 +1199,263 @@
         <v>11.5352</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>10.511709</v>
-      </c>
-      <c r="C15">
-        <v>10.606191000000001</v>
-      </c>
-      <c r="D15">
-        <v>10.183984000000001</v>
-      </c>
-      <c r="E15">
-        <v>10.512212</v>
-      </c>
-      <c r="F15">
-        <v>10.121859000000001</v>
-      </c>
-      <c r="G15">
-        <v>10.623476999999999</v>
-      </c>
-      <c r="I15">
-        <v>10.512638000000001</v>
-      </c>
-      <c r="K15">
-        <v>10.546491</v>
-      </c>
-      <c r="L15">
-        <v>10.453250000000001</v>
-      </c>
-      <c r="M15">
-        <v>10.512064000000001</v>
-      </c>
-      <c r="N15">
-        <v>10.442306500000001</v>
-      </c>
-      <c r="O15">
-        <v>10.476487000000001</v>
-      </c>
-      <c r="P15">
-        <v>10.4758</v>
-      </c>
-      <c r="Q15">
-        <v>10.511231</v>
-      </c>
-      <c r="R15">
-        <v>10.455652000000001</v>
-      </c>
-      <c r="S15">
-        <v>10.511894</v>
-      </c>
-      <c r="T15">
-        <v>10.511896</v>
-      </c>
-      <c r="U15">
-        <v>10.511658000000001</v>
-      </c>
-      <c r="V15">
-        <v>10.511988000000001</v>
-      </c>
-    </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>0.29007253</v>
+        <v>10.511709</v>
       </c>
       <c r="C16">
-        <v>0.29007253</v>
+        <v>10.606191000000001</v>
       </c>
       <c r="D16">
-        <v>0.29007253</v>
+        <v>10.183984000000001</v>
       </c>
       <c r="E16">
-        <v>0.29007253</v>
+        <v>10.512212</v>
       </c>
       <c r="F16">
-        <v>0.29007253</v>
+        <v>10.121859000000001</v>
       </c>
       <c r="G16">
-        <v>0.29007253</v>
-      </c>
-      <c r="H16">
-        <v>0.29007253</v>
+        <v>10.623476999999999</v>
       </c>
       <c r="I16">
-        <v>0.29007253</v>
-      </c>
-      <c r="J16">
-        <v>0.29007253</v>
+        <v>10.512638000000001</v>
       </c>
       <c r="K16">
-        <v>0.29007253</v>
+        <v>10.546491</v>
       </c>
       <c r="L16">
-        <v>0.29007253</v>
+        <v>10.453250000000001</v>
       </c>
       <c r="M16">
-        <v>0.29007253</v>
+        <v>10.512064000000001</v>
       </c>
       <c r="N16">
-        <v>0.29007253</v>
+        <v>10.442306500000001</v>
       </c>
       <c r="O16">
-        <v>0.29007253</v>
+        <v>10.476487000000001</v>
       </c>
       <c r="P16">
-        <v>0.29007253</v>
+        <v>10.4758</v>
       </c>
       <c r="Q16">
-        <v>0.29007253</v>
+        <v>10.511231</v>
       </c>
       <c r="R16">
-        <v>0.29007253</v>
+        <v>10.455652000000001</v>
       </c>
       <c r="S16">
-        <v>0.29007253</v>
+        <v>10.511894</v>
       </c>
       <c r="T16">
-        <v>0.29007253</v>
+        <v>10.511896</v>
       </c>
       <c r="U16">
-        <v>0.29007253</v>
+        <v>10.511658000000001</v>
       </c>
       <c r="V16">
-        <v>0.29007253</v>
+        <v>10.511988000000001</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>0.4864</v>
+        <v>0.29007253</v>
       </c>
       <c r="C17">
-        <v>0.4899</v>
+        <v>0.29007253</v>
       </c>
       <c r="D17">
-        <v>0.47410000000000002</v>
+        <v>0.29007253</v>
       </c>
       <c r="E17">
-        <v>0.4864</v>
+        <v>0.29007253</v>
       </c>
       <c r="F17">
-        <v>0.4718</v>
+        <v>0.29007253</v>
       </c>
       <c r="G17">
-        <v>0.49059999999999998</v>
+        <v>0.29007253</v>
+      </c>
+      <c r="H17">
+        <v>0.29007253</v>
       </c>
       <c r="I17">
-        <v>0.4864</v>
+        <v>0.29007253</v>
+      </c>
+      <c r="J17">
+        <v>0.29007253</v>
       </c>
       <c r="K17">
-        <v>0.48770000000000002</v>
+        <v>0.29007253</v>
       </c>
       <c r="L17">
-        <v>0.48770000000000002</v>
+        <v>0.29007253</v>
       </c>
       <c r="M17">
-        <v>0.4864</v>
+        <v>0.29007253</v>
       </c>
       <c r="N17">
-        <v>0.48380000000000001</v>
+        <v>0.29007253</v>
       </c>
       <c r="O17">
-        <v>0.48509999999999998</v>
+        <v>0.29007253</v>
       </c>
       <c r="P17">
-        <v>0.48499999999999999</v>
+        <v>0.29007253</v>
       </c>
       <c r="Q17">
-        <v>0.4864</v>
+        <v>0.29007253</v>
       </c>
       <c r="R17">
-        <v>0.48430000000000001</v>
+        <v>0.29007253</v>
       </c>
       <c r="S17">
-        <v>0.4864</v>
+        <v>0.29007253</v>
       </c>
       <c r="T17">
-        <v>0.4864</v>
+        <v>0.29007253</v>
       </c>
       <c r="U17">
-        <v>0.4864</v>
+        <v>0.29007253</v>
       </c>
       <c r="V17">
-        <v>10.511988000000001</v>
+        <v>0.29007253</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>0.60530806000000004</v>
+        <v>0.4864</v>
       </c>
       <c r="C18">
-        <v>0.60672959999999998</v>
+        <v>0.4899</v>
       </c>
       <c r="D18">
-        <v>0.40722406</v>
+        <v>0.47410000000000002</v>
       </c>
       <c r="E18">
-        <v>0.60585829999999996</v>
+        <v>0.4864</v>
       </c>
       <c r="F18">
-        <v>0.38986418</v>
+        <v>0.4718</v>
       </c>
       <c r="G18">
-        <v>0.62131625000000001</v>
+        <v>0.49059999999999998</v>
       </c>
       <c r="I18">
-        <v>0.60610549999999996</v>
+        <v>0.4864</v>
       </c>
       <c r="K18">
-        <v>0.61175597000000004</v>
+        <v>0.48770000000000002</v>
       </c>
       <c r="L18">
-        <v>0.52608319999999997</v>
+        <v>0.48770000000000002</v>
       </c>
       <c r="M18">
-        <v>0.60557395000000003</v>
+        <v>0.4864</v>
       </c>
       <c r="N18">
-        <v>0.51828969999999996</v>
+        <v>0.48380000000000001</v>
       </c>
       <c r="O18">
-        <v>0.60281085999999995</v>
+        <v>0.48509999999999998</v>
       </c>
       <c r="P18">
-        <v>0.60864339999999995</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="Q18">
-        <v>0.60507619999999995</v>
+        <v>0.4864</v>
       </c>
       <c r="R18">
-        <v>0.60420436</v>
+        <v>0.48430000000000001</v>
       </c>
       <c r="S18">
-        <v>0.60536160000000006</v>
+        <v>0.4864</v>
       </c>
       <c r="T18">
-        <v>0.60522880000000001</v>
+        <v>0.4864</v>
       </c>
       <c r="U18">
-        <v>0.6053636</v>
+        <v>0.4864</v>
       </c>
       <c r="V18">
-        <v>0.60534980000000005</v>
+        <v>10.511988000000001</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>0.60530806000000004</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>0.60672959999999998</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>0.40722406</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>0.60585829999999996</v>
       </c>
       <c r="F19">
-        <v>3.2275999999999998</v>
+        <v>0.38986418</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>0.62131625000000001</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>0.60610549999999996</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>0.61175597000000004</v>
       </c>
       <c r="L19">
-        <v>5.0797999999999996</v>
+        <v>0.52608319999999997</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>0.60557395000000003</v>
       </c>
       <c r="N19">
-        <v>5.0389999999999997</v>
+        <v>0.51828969999999996</v>
       </c>
       <c r="O19">
-        <v>6</v>
+        <v>0.60281085999999995</v>
       </c>
       <c r="P19">
-        <v>6</v>
+        <v>0.60864339999999995</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>0.60507619999999995</v>
       </c>
       <c r="R19">
-        <v>6</v>
+        <v>0.60420436</v>
       </c>
       <c r="S19">
-        <v>6</v>
+        <v>0.60536160000000006</v>
       </c>
       <c r="T19">
-        <v>6</v>
+        <v>0.60522880000000001</v>
       </c>
       <c r="U19">
-        <v>6</v>
+        <v>0.6053636</v>
       </c>
       <c r="V19">
-        <v>6</v>
+        <v>0.60534980000000005</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -1532,7 +1470,7 @@
         <v>6</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>3.2275999999999998</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -1544,13 +1482,13 @@
         <v>6</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>5.0797999999999996</v>
       </c>
       <c r="M20">
         <v>6</v>
       </c>
       <c r="N20">
-        <v>6</v>
+        <v>5.0389999999999997</v>
       </c>
       <c r="O20">
         <v>6</v>
@@ -1579,661 +1517,720 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>6.7760999999999996</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>6.8377999999999997</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>6.4893999999999998</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>6.7252000000000001</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>3.2275999999999998</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>6.8437999999999999</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>6.6997999999999998</v>
+        <v>6</v>
       </c>
       <c r="K21">
-        <v>6.7965999999999998</v>
+        <v>6</v>
       </c>
       <c r="L21">
-        <v>5.0797999999999996</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>6.7507000000000001</v>
+        <v>6</v>
       </c>
       <c r="N21">
-        <v>5.0389999999999997</v>
+        <v>6</v>
       </c>
       <c r="O21">
-        <v>6.7553000000000001</v>
+        <v>6</v>
       </c>
       <c r="P21">
-        <v>8.3989999999999991</v>
+        <v>6</v>
       </c>
       <c r="Q21">
-        <v>6.8014000000000001</v>
+        <v>6</v>
       </c>
       <c r="R21">
-        <v>8.4122000000000003</v>
+        <v>6</v>
       </c>
       <c r="S21">
-        <v>6.7762000000000002</v>
+        <v>6</v>
       </c>
       <c r="T21">
-        <v>6.7695999999999996</v>
+        <v>6</v>
       </c>
       <c r="U21">
-        <v>6.7950999999999997</v>
+        <v>6</v>
       </c>
       <c r="V21">
-        <v>6.7763</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>6.7760999999999996</v>
       </c>
       <c r="C22">
+        <v>6.8377999999999997</v>
+      </c>
+      <c r="D22">
+        <v>6.4893999999999998</v>
+      </c>
+      <c r="E22">
+        <v>6.7252000000000001</v>
+      </c>
+      <c r="F22">
+        <v>3.2275999999999998</v>
+      </c>
+      <c r="G22">
+        <v>6.8437999999999999</v>
+      </c>
+      <c r="I22">
+        <v>6.6997999999999998</v>
+      </c>
+      <c r="K22">
+        <v>6.7965999999999998</v>
+      </c>
+      <c r="L22">
+        <v>5.0797999999999996</v>
+      </c>
+      <c r="M22">
+        <v>6.7507000000000001</v>
+      </c>
+      <c r="N22">
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="O22">
+        <v>6.7553000000000001</v>
+      </c>
+      <c r="P22">
+        <v>8.3989999999999991</v>
+      </c>
+      <c r="Q22">
+        <v>6.8014000000000001</v>
+      </c>
+      <c r="R22">
+        <v>8.4122000000000003</v>
+      </c>
+      <c r="S22">
+        <v>6.7762000000000002</v>
+      </c>
+      <c r="T22">
+        <v>6.7695999999999996</v>
+      </c>
+      <c r="U22">
+        <v>6.7950999999999997</v>
+      </c>
+      <c r="V22">
+        <v>6.7763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="C23">
         <v>6.8544999999999998</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>6.5061</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>6.7765000000000004</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>6.4551999999999996</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>6.8688000000000002</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>6.7769000000000004</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>6.8048999999999999</v>
       </c>
-      <c r="L22">
+      <c r="L23">
         <v>6.7278000000000002</v>
       </c>
-      <c r="M22">
+      <c r="M23">
         <v>6.7763999999999998</v>
       </c>
-      <c r="N22">
+      <c r="N23">
         <v>6.7187000000000001</v>
       </c>
-      <c r="O22">
+      <c r="O23">
         <v>6.7469999999999999</v>
       </c>
-      <c r="P22">
+      <c r="P23">
         <v>6.7464000000000004</v>
       </c>
-      <c r="Q22">
+      <c r="Q23">
         <v>6.7756999999999996</v>
       </c>
-      <c r="R22">
+      <c r="R23">
         <v>6.7297000000000002</v>
       </c>
-      <c r="S22">
+      <c r="S23">
         <v>6.7763</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T23" s="2">
         <v>6.7763</v>
       </c>
-      <c r="U22">
+      <c r="U23">
         <v>6.7760999999999996</v>
       </c>
-      <c r="V22">
+      <c r="V23">
         <v>6.7695999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>10.088276</v>
-      </c>
-      <c r="C24">
-        <v>10.172914499999999</v>
-      </c>
-      <c r="E24">
-        <v>10.088552</v>
-      </c>
-      <c r="G24">
-        <v>10.184378000000001</v>
-      </c>
-      <c r="I24">
-        <v>10.088162000000001</v>
-      </c>
-      <c r="K24">
-        <v>10.125124</v>
-      </c>
-      <c r="L24">
-        <v>9.9728750000000002</v>
-      </c>
-      <c r="M24">
-        <v>10.088305999999999</v>
-      </c>
-      <c r="N24">
-        <v>10.026384</v>
-      </c>
-      <c r="O24">
-        <v>10.053661999999999</v>
-      </c>
-      <c r="P24">
-        <v>10.116463</v>
-      </c>
-      <c r="Q24">
-        <v>10.088471999999999</v>
-      </c>
-      <c r="R24">
-        <v>10.095207</v>
-      </c>
-      <c r="S24">
-        <v>10.088437000000001</v>
-      </c>
-      <c r="T24">
-        <v>10.088939</v>
-      </c>
-      <c r="U24">
-        <v>10.088243</v>
-      </c>
-      <c r="V24">
-        <v>10.089027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25">
-        <v>0.34060466</v>
-      </c>
-      <c r="C25">
-        <v>0.34060466</v>
-      </c>
-      <c r="D25">
-        <v>0.34060466</v>
-      </c>
-      <c r="E25">
-        <v>0.34060466</v>
-      </c>
-      <c r="F25">
-        <v>0.34060466</v>
-      </c>
-      <c r="G25">
-        <v>0.34060466</v>
-      </c>
-      <c r="H25">
-        <v>0.34060466</v>
-      </c>
-      <c r="I25">
-        <v>0.34060466</v>
-      </c>
-      <c r="J25">
-        <v>0.34060466</v>
-      </c>
-      <c r="K25">
-        <v>0.34060466</v>
-      </c>
-      <c r="L25">
-        <v>0.34060466</v>
-      </c>
-      <c r="M25">
-        <v>0.34060466</v>
-      </c>
-      <c r="N25">
-        <v>0.34060466</v>
-      </c>
-      <c r="O25">
-        <v>0.34060466</v>
-      </c>
-      <c r="P25">
-        <v>0.34060466</v>
-      </c>
-      <c r="Q25">
-        <v>0.34060466</v>
-      </c>
-      <c r="R25">
-        <v>0.34060466</v>
-      </c>
-      <c r="S25">
-        <v>0.34060466</v>
-      </c>
-      <c r="T25">
-        <v>0.34060466</v>
-      </c>
-      <c r="U25">
-        <v>0.34060466</v>
-      </c>
-      <c r="V25">
-        <v>0.34060466</v>
-      </c>
+      <c r="T24" s="2"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>0.48480000000000001</v>
+        <v>10.088276</v>
       </c>
       <c r="C26">
-        <v>0.48820000000000002</v>
+        <v>10.172914499999999</v>
       </c>
       <c r="E26">
-        <v>0.48480000000000001</v>
+        <v>10.088552</v>
       </c>
       <c r="G26">
-        <v>0.4884</v>
+        <v>10.184378000000001</v>
       </c>
       <c r="I26">
-        <v>0.48480000000000001</v>
+        <v>10.088162000000001</v>
       </c>
       <c r="K26">
-        <v>0.48620000000000002</v>
+        <v>10.125124</v>
       </c>
       <c r="L26">
-        <v>0.48049999999999998</v>
+        <v>9.9728750000000002</v>
       </c>
       <c r="M26">
-        <v>0.48480000000000001</v>
+        <v>10.088305999999999</v>
       </c>
       <c r="N26">
-        <v>0.48249999999999998</v>
+        <v>10.026384</v>
       </c>
       <c r="O26">
-        <v>0.48349999999999999</v>
+        <v>10.053661999999999</v>
       </c>
       <c r="P26">
-        <v>0.4859</v>
+        <v>10.116463</v>
       </c>
       <c r="Q26">
-        <v>0.48480000000000001</v>
+        <v>10.088471999999999</v>
       </c>
       <c r="R26">
-        <v>0.48509999999999998</v>
+        <v>10.095207</v>
       </c>
       <c r="S26">
-        <v>0.48480000000000001</v>
+        <v>10.088437000000001</v>
       </c>
       <c r="T26">
-        <v>0.4849</v>
+        <v>10.088939</v>
       </c>
       <c r="U26">
-        <v>0.48480000000000001</v>
+        <v>10.088243</v>
       </c>
       <c r="V26">
-        <v>0.4849</v>
+        <v>10.089027</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>0.68085600000000002</v>
+        <v>0.34060466</v>
       </c>
       <c r="C27">
-        <v>0.64096624000000002</v>
+        <v>0.34060466</v>
+      </c>
+      <c r="D27">
+        <v>0.34060466</v>
       </c>
       <c r="E27">
-        <v>0.6803785</v>
+        <v>0.34060466</v>
+      </c>
+      <c r="F27">
+        <v>0.34060466</v>
       </c>
       <c r="G27">
-        <v>0.60257470000000002</v>
+        <v>0.34060466</v>
+      </c>
+      <c r="H27">
+        <v>0.34060466</v>
       </c>
       <c r="I27">
-        <v>0.68052029999999997</v>
+        <v>0.34060466</v>
+      </c>
+      <c r="J27">
+        <v>0.34060466</v>
       </c>
       <c r="K27">
-        <v>0.65760960000000002</v>
+        <v>0.34060466</v>
       </c>
       <c r="L27">
-        <v>0.62494479999999997</v>
+        <v>0.34060466</v>
       </c>
       <c r="M27">
-        <v>0.68055220000000005</v>
+        <v>0.34060466</v>
       </c>
       <c r="N27">
-        <v>0.60391843000000001</v>
+        <v>0.34060466</v>
       </c>
       <c r="O27">
-        <v>0.67636067</v>
+        <v>0.34060466</v>
       </c>
       <c r="P27">
-        <v>0.78299266000000001</v>
+        <v>0.34060466</v>
       </c>
       <c r="Q27">
-        <v>0.68069259999999998</v>
+        <v>0.34060466</v>
       </c>
       <c r="R27">
-        <v>0.75873279999999999</v>
+        <v>0.34060466</v>
       </c>
       <c r="S27">
-        <v>0.68084513999999996</v>
+        <v>0.34060466</v>
       </c>
       <c r="T27">
-        <v>0.67894129999999997</v>
+        <v>0.34060466</v>
       </c>
       <c r="U27">
-        <v>0.68056333000000002</v>
+        <v>0.34060466</v>
       </c>
       <c r="V27">
-        <v>0.67868139999999999</v>
+        <v>0.34060466</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
+        <v>0.48820000000000002</v>
       </c>
       <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28">
-        <v>6</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="G28">
-        <v>6</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
+        <v>0.4884</v>
       </c>
       <c r="I28">
-        <v>6</v>
-      </c>
-      <c r="J28">
-        <v>6</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>0.48620000000000002</v>
       </c>
       <c r="L28">
-        <v>4.8231000000000002</v>
+        <v>0.48049999999999998</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="N28">
-        <v>4.8121</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>0.48349999999999999</v>
       </c>
       <c r="P28">
-        <v>6</v>
+        <v>0.4859</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="R28">
-        <v>6</v>
+        <v>0.48509999999999998</v>
       </c>
       <c r="S28">
-        <v>6</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="T28">
-        <v>6</v>
+        <v>0.4849</v>
       </c>
       <c r="U28">
-        <v>6</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="V28">
-        <v>6</v>
+        <v>0.4849</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>0.68085600000000002</v>
       </c>
       <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
+        <v>0.64096624000000002</v>
       </c>
       <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29">
-        <v>6</v>
+        <v>0.6803785</v>
       </c>
       <c r="G29">
-        <v>6</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
+        <v>0.60257470000000002</v>
       </c>
       <c r="I29">
-        <v>6</v>
-      </c>
-      <c r="J29">
-        <v>6</v>
+        <v>0.68052029999999997</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>0.65760960000000002</v>
       </c>
       <c r="L29">
-        <v>6</v>
+        <v>0.62494479999999997</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>0.68055220000000005</v>
       </c>
       <c r="N29">
-        <v>6</v>
+        <v>0.60391843000000001</v>
       </c>
       <c r="O29">
-        <v>6</v>
+        <v>0.67636067</v>
       </c>
       <c r="P29">
-        <v>6</v>
+        <v>0.78299266000000001</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>0.68069259999999998</v>
       </c>
       <c r="R29">
-        <v>6</v>
+        <v>0.75873279999999999</v>
       </c>
       <c r="S29">
-        <v>6</v>
+        <v>0.68084513999999996</v>
       </c>
       <c r="T29">
-        <v>6</v>
+        <v>0.67894129999999997</v>
       </c>
       <c r="U29">
-        <v>6</v>
+        <v>0.68056333000000002</v>
       </c>
       <c r="V29">
-        <v>6</v>
+        <v>0.67868139999999999</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>6.4665999999999997</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>6.5193000000000003</v>
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>6.3959999999999999</v>
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>6.5202999999999998</v>
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>6.3602999999999996</v>
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
       </c>
       <c r="K30">
-        <v>6.4885000000000002</v>
+        <v>6</v>
       </c>
       <c r="L30">
         <v>4.8231000000000002</v>
       </c>
       <c r="M30">
-        <v>6.4313000000000002</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>4.8121</v>
       </c>
       <c r="O30">
-        <v>6.4466999999999999</v>
+        <v>6</v>
       </c>
       <c r="P30">
-        <v>8.0684000000000005</v>
+        <v>6</v>
       </c>
       <c r="Q30">
-        <v>6.5022000000000002</v>
+        <v>6</v>
       </c>
       <c r="R30">
-        <v>8.0904000000000007</v>
+        <v>6</v>
       </c>
       <c r="S30">
-        <v>6.4667000000000003</v>
+        <v>6</v>
       </c>
       <c r="T30">
-        <v>6.4608999999999996</v>
+        <v>6</v>
       </c>
       <c r="U30">
-        <v>6.4664999999999999</v>
+        <v>6</v>
       </c>
       <c r="V30">
-        <v>6.4607999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>6</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>6</v>
+      </c>
+      <c r="U31">
+        <v>6</v>
+      </c>
+      <c r="V31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>6.4665999999999997</v>
+      </c>
+      <c r="C32">
+        <v>6.5193000000000003</v>
+      </c>
+      <c r="E32">
+        <v>6.3959999999999999</v>
+      </c>
+      <c r="G32">
+        <v>6.5202999999999998</v>
+      </c>
+      <c r="I32">
+        <v>6.3602999999999996</v>
+      </c>
+      <c r="K32">
+        <v>6.4885000000000002</v>
+      </c>
+      <c r="L32">
+        <v>4.8231000000000002</v>
+      </c>
+      <c r="M32">
+        <v>6.4313000000000002</v>
+      </c>
+      <c r="N32">
+        <v>4.8121</v>
+      </c>
+      <c r="O32">
+        <v>6.4466999999999999</v>
+      </c>
+      <c r="P32">
+        <v>8.0684000000000005</v>
+      </c>
+      <c r="Q32">
+        <v>6.5022000000000002</v>
+      </c>
+      <c r="R32">
+        <v>8.0904000000000007</v>
+      </c>
+      <c r="S32">
+        <v>6.4667000000000003</v>
+      </c>
+      <c r="T32">
+        <v>6.4608999999999996</v>
+      </c>
+      <c r="U32">
+        <v>6.4664999999999999</v>
+      </c>
+      <c r="V32">
+        <v>6.4607999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B33" s="1">
         <v>6.4665999999999997</v>
       </c>
-      <c r="C31">
+      <c r="C33">
         <v>6.5358999999999998</v>
       </c>
-      <c r="E31">
+      <c r="E33">
         <v>6.4668999999999999</v>
       </c>
-      <c r="G31">
+      <c r="G33">
         <v>6.5453000000000001</v>
       </c>
-      <c r="I31">
+      <c r="I33">
         <v>6.4664999999999999</v>
       </c>
-      <c r="K31">
+      <c r="K33">
         <v>6.4968000000000004</v>
       </c>
-      <c r="L31">
+      <c r="L33">
         <v>6.3724999999999996</v>
       </c>
-      <c r="M31">
+      <c r="M33">
         <v>6.4667000000000003</v>
       </c>
-      <c r="N31">
+      <c r="N33">
         <v>6.4161000000000001</v>
       </c>
-      <c r="O31">
+      <c r="O33">
         <v>6.4383999999999997</v>
       </c>
-      <c r="P31">
+      <c r="P33">
         <v>6.4897</v>
       </c>
-      <c r="Q31">
+      <c r="Q33">
         <v>6.4668000000000001</v>
       </c>
-      <c r="R31">
+      <c r="R33">
         <v>6.4722999999999997</v>
       </c>
-      <c r="S31">
+      <c r="S33">
         <v>6.4668000000000001</v>
       </c>
-      <c r="T31">
+      <c r="T33">
         <v>6.4672000000000001</v>
       </c>
-      <c r="U31">
+      <c r="U33">
         <v>6.4665999999999997</v>
       </c>
-      <c r="V31">
+      <c r="V33">
         <v>6.4672999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
@@ -2244,6 +2241,12 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ROS_calculations.xlsx
+++ b/ROS_calculations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybenik/Research_Files/Hill_Runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A2729F9-697B-3344-80BF-7CC29C96F39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E97EC7-0356-274B-A623-F74FE11B931F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>ROS Data</t>
   </si>
@@ -152,13 +152,31 @@
   </si>
   <si>
     <t>ROS var original</t>
+  </si>
+  <si>
+    <t>New Modified rothermel Code</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Tanphi</t>
+  </si>
+  <si>
+    <t>R_0</t>
+  </si>
+  <si>
+    <t>ROS</t>
+  </si>
+  <si>
+    <t>for testing purposes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,18 +185,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,10 +223,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,1742 +545,2767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C5D8E9-26BC-FC46-9670-57C49E39CB3F}">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>0.5</v>
       </c>
-      <c r="F2">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <v>0.5</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0.25</v>
       </c>
-      <c r="J2">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
         <v>0.25</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>0.75</v>
       </c>
-      <c r="N2">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2">
         <v>0.75</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>1.25</v>
       </c>
-      <c r="R2">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2">
         <v>1.25</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="2">
         <v>0.999</v>
       </c>
-      <c r="V2">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2">
         <v>0.999</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>0.5</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
         <v>0.5</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
         <v>0.25</v>
       </c>
-      <c r="J3">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
         <v>0.25</v>
       </c>
-      <c r="L3">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
         <v>0.75</v>
       </c>
-      <c r="N3">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2">
         <v>0.75</v>
       </c>
-      <c r="P3">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2">
         <v>1.25</v>
       </c>
-      <c r="R3">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2">
         <v>1.25</v>
       </c>
-      <c r="T3">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2">
         <v>0.999</v>
       </c>
-      <c r="V3">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2">
         <v>0.999</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>0.5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.5</v>
       </c>
-      <c r="I4">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <v>0.25</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>0.25</v>
       </c>
-      <c r="M4">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
         <v>0.75</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>0.75</v>
       </c>
-      <c r="Q4">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
         <v>1.25</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>1.25</v>
       </c>
-      <c r="U4">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2">
         <v>0.999</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="2">
         <v>0.999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>15.979096</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>15.979676</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>14.204286</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>15.985248</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>13.884665500000001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>15.94369</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>15.988474999999999</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
         <v>16.009450000000001</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>15.592441000000001</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>15.98211</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>15.435043</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>16.008780000000002</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <v>16.254318000000001</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <v>15.975887999999999</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="2">
         <v>16.241644000000001</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="2">
         <v>15.979746</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="2">
         <v>15.981907</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="2">
         <v>15.979161</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="2">
         <v>15.982637</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="2">
         <v>3.9121687000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.62119999999999997</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.62119999999999997</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.55379999999999996</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0.62139999999999995</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0.54179999999999995</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>0.61980000000000002</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
         <v>0.62150000000000005</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
         <v>0.62229999999999996</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>0.60640000000000005</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>0.62129999999999996</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>0.60050000000000003</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>0.62229999999999996</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <v>0.63160000000000005</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <v>0.621</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="2">
         <v>0.63119999999999998</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="2">
         <v>0.62119999999999997</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="2">
         <v>0.62129999999999996</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="2">
         <v>0.62119999999999997</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="2">
         <v>0.62129999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
         <v>2.3831376999999998</v>
       </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
         <v>1.9875708000000001</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>5.0585839999999997</v>
       </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="K9">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
         <v>6.0000004999999996</v>
       </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>6</v>
-      </c>
-      <c r="O9">
-        <v>6</v>
-      </c>
-      <c r="P9">
-        <v>6</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-      <c r="R9">
-        <v>6</v>
-      </c>
-      <c r="S9">
+      <c r="L9" s="2">
+        <v>6</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6</v>
+      </c>
+      <c r="N9" s="2">
+        <v>6</v>
+      </c>
+      <c r="O9" s="2">
+        <v>6</v>
+      </c>
+      <c r="P9" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2">
+        <v>6</v>
+      </c>
+      <c r="S9" s="2">
         <v>6.0000004999999996</v>
       </c>
-      <c r="T9">
-        <v>6</v>
-      </c>
-      <c r="U9">
-        <v>6</v>
-      </c>
-      <c r="V9">
+      <c r="T9" s="2">
+        <v>6</v>
+      </c>
+      <c r="U9" s="2">
+        <v>6</v>
+      </c>
+      <c r="V9" s="2">
         <v>6.0000004999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
         <v>4.9615</v>
       </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
         <v>4.7991000000000001</v>
       </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>6</v>
-      </c>
-      <c r="Q10">
-        <v>6</v>
-      </c>
-      <c r="R10">
-        <v>6</v>
-      </c>
-      <c r="S10">
-        <v>6</v>
-      </c>
-      <c r="T10">
-        <v>6</v>
-      </c>
-      <c r="U10">
-        <v>6</v>
-      </c>
-      <c r="V10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="G10" s="2">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>6</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2">
+        <v>6</v>
+      </c>
+      <c r="N10" s="2">
+        <v>6</v>
+      </c>
+      <c r="O10" s="2">
+        <v>6</v>
+      </c>
+      <c r="P10" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2">
+        <v>6</v>
+      </c>
+      <c r="S10" s="2">
+        <v>6</v>
+      </c>
+      <c r="T10" s="2">
+        <v>6</v>
+      </c>
+      <c r="U10" s="2">
+        <v>6</v>
+      </c>
+      <c r="V10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
-      <c r="N11">
-        <v>6</v>
-      </c>
-      <c r="O11">
-        <v>6</v>
-      </c>
-      <c r="P11">
-        <v>6</v>
-      </c>
-      <c r="Q11">
-        <v>6</v>
-      </c>
-      <c r="R11">
-        <v>6</v>
-      </c>
-      <c r="S11">
-        <v>6</v>
-      </c>
-      <c r="T11">
-        <v>6</v>
-      </c>
-      <c r="U11">
-        <v>6</v>
-      </c>
-      <c r="V11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>6</v>
+      </c>
+      <c r="L11" s="2">
+        <v>6</v>
+      </c>
+      <c r="M11" s="2">
+        <v>6</v>
+      </c>
+      <c r="N11" s="2">
+        <v>6</v>
+      </c>
+      <c r="O11" s="2">
+        <v>6</v>
+      </c>
+      <c r="P11" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>6</v>
+      </c>
+      <c r="R11" s="2">
+        <v>6</v>
+      </c>
+      <c r="S11" s="2">
+        <v>6</v>
+      </c>
+      <c r="T11" s="2">
+        <v>6</v>
+      </c>
+      <c r="U11" s="2">
+        <v>6</v>
+      </c>
+      <c r="V11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>11.5319</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>11.5158</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>4.9615</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>11.5367</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>4.7991000000000001</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>11.4735</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
         <v>11.539300000000001</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
         <v>11.552199999999999</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>8.3851999999999993</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>11.5342</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <v>8.2660999999999998</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <v>11.568199999999999</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="2">
         <v>14.731299999999999</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="2">
         <v>11.529299999999999</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="2">
         <v>14.725099999999999</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="2">
         <v>11.532400000000001</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="2">
         <v>11.523</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="2">
         <v>11.5319</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="2">
         <v>11.5237</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>11.5319</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>11.532400000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>9.8877000000000006</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>11.537699999999999</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>9.5982000000000003</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>11.4985</v>
       </c>
-      <c r="I13">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
         <v>11.540699999999999</v>
       </c>
-      <c r="K13">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
         <v>11.560499999999999</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>11.1686</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>11.534700000000001</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>11.0215</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <v>11.559900000000001</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="2">
         <v>11.7921</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="2">
         <v>11.5288</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="2">
         <v>11.780099999999999</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="2">
         <v>11.532500000000001</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="2">
         <v>11.5345</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="2">
         <v>11.5319</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="2">
         <v>11.5352</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15.979096</v>
+      </c>
+      <c r="C15" s="3">
+        <v>15.979676</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7.1021000000000001</v>
+      </c>
+      <c r="E15" s="3">
+        <v>15.985200000000001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6.9423000000000004</v>
+      </c>
+      <c r="G15" s="3">
+        <v>15.9437</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.9971000000000001</v>
+      </c>
+      <c r="I15" s="3">
+        <v>15.988474999999999</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3.9971000000000001</v>
+      </c>
+      <c r="K15" s="3">
+        <v>16.009499999999999</v>
+      </c>
+      <c r="L15" s="3">
+        <v>11.6943</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" ref="M15:V15" si="0">M6</f>
+        <v>15.98211</v>
+      </c>
+      <c r="N15" s="3">
+        <v>11.5763</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="0"/>
+        <v>16.008780000000002</v>
+      </c>
+      <c r="P15" s="3">
+        <v>20.317900000000002</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="0"/>
+        <v>15.975887999999999</v>
+      </c>
+      <c r="R15" s="3">
+        <v>20.302099999999999</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="0"/>
+        <v>15.979746</v>
+      </c>
+      <c r="T15" s="3">
+        <f>T6 * T3</f>
+        <v>15.965925092999999</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="0"/>
+        <v>15.979161</v>
+      </c>
+      <c r="V15" s="3">
+        <v>15.966699999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="K16" s="3">
+        <f>K7</f>
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <f>L7</f>
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2.93E-2</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2.93E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" ref="M16:V16" si="1">O7</f>
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="R16" s="3">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9121687000000002E-2</v>
+      </c>
+      <c r="U16" s="3">
+        <f>U7 * U4</f>
+        <v>3.9082565313000001E-2</v>
+      </c>
+      <c r="V16" s="3">
+        <v>3.9100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3.2778</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3.2778</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.6389</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1.6389</v>
+      </c>
+      <c r="K17" s="3">
+        <v>4.9166999999999996</v>
+      </c>
+      <c r="L17" s="3">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="M17" s="3">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="N17" s="3">
+        <v>4.9166999999999996</v>
+      </c>
+      <c r="O17" s="3">
+        <v>8.1944999999999997</v>
+      </c>
+      <c r="P17" s="3">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="R17" s="3">
+        <v>8.1944999999999997</v>
+      </c>
+      <c r="S17" s="3">
+        <f xml:space="preserve"> 6.5556 * S2</f>
+        <v>6.5490443999999997</v>
+      </c>
+      <c r="T17" s="3">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="U17" s="3">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="V17" s="3">
+        <v>6.5491000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3">
+        <v>11.5319</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.7662000000000004</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4.0068000000000001</v>
+      </c>
+      <c r="E18" s="3">
+        <v>11.536300000000001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.9443999999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.8746</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.9048</v>
+      </c>
+      <c r="I18" s="3">
+        <v>11.5389</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.4758</v>
+      </c>
+      <c r="K18" s="3">
+        <v>8.6704000000000008</v>
+      </c>
+      <c r="L18" s="3">
+        <v>7.6711</v>
+      </c>
+      <c r="M18" s="3">
+        <v>11.533899999999999</v>
+      </c>
+      <c r="N18" s="3">
+        <v>5.6771000000000003</v>
+      </c>
+      <c r="O18" s="3">
+        <v>14.4498</v>
+      </c>
+      <c r="P18" s="3">
+        <v>15.7866</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>11.5299</v>
+      </c>
+      <c r="R18" s="3">
+        <v>19.714400000000001</v>
+      </c>
+      <c r="S18" s="3">
+        <v>11.520899999999999</v>
+      </c>
+      <c r="T18" s="3">
+        <v>11.519399999999999</v>
+      </c>
+      <c r="U18" s="3">
+        <v>11.5319</v>
+      </c>
+      <c r="V18" s="3">
+        <v>11.508599999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
         <v>10.511709</v>
       </c>
-      <c r="C16">
+      <c r="C20" s="1">
         <v>10.606191000000001</v>
       </c>
-      <c r="D16">
+      <c r="D20" s="1">
         <v>10.183984000000001</v>
       </c>
-      <c r="E16">
+      <c r="E20" s="1">
         <v>10.512212</v>
       </c>
-      <c r="F16">
+      <c r="F20" s="1">
         <v>10.121859000000001</v>
       </c>
-      <c r="G16">
+      <c r="G20" s="1">
         <v>10.623476999999999</v>
       </c>
-      <c r="I16">
+      <c r="I20" s="1">
         <v>10.512638000000001</v>
       </c>
-      <c r="K16">
+      <c r="K20" s="1">
         <v>10.546491</v>
       </c>
-      <c r="L16">
+      <c r="L20" s="1">
         <v>10.453250000000001</v>
       </c>
-      <c r="M16">
+      <c r="M20" s="1">
         <v>10.512064000000001</v>
       </c>
-      <c r="N16">
+      <c r="N20" s="1">
         <v>10.442306500000001</v>
       </c>
-      <c r="O16">
+      <c r="O20" s="1">
         <v>10.476487000000001</v>
       </c>
-      <c r="P16">
+      <c r="P20" s="1">
         <v>10.4758</v>
       </c>
-      <c r="Q16">
+      <c r="Q20" s="1">
         <v>10.511231</v>
       </c>
-      <c r="R16">
+      <c r="R20" s="1">
         <v>10.455652000000001</v>
       </c>
-      <c r="S16">
+      <c r="S20" s="1">
         <v>10.511894</v>
       </c>
-      <c r="T16">
+      <c r="T20" s="1">
         <v>10.511896</v>
       </c>
-      <c r="U16">
+      <c r="U20" s="1">
         <v>10.511658000000001</v>
       </c>
-      <c r="V16">
+      <c r="V20" s="1">
         <v>10.511988000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="21" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17">
+      <c r="B21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="C17">
+      <c r="C21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="D17">
+      <c r="D21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="E17">
+      <c r="E21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="F17">
+      <c r="F21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="G17">
+      <c r="G21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="H17">
+      <c r="H21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="I17">
+      <c r="I21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="J17">
+      <c r="J21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="K17">
+      <c r="K21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="L17">
+      <c r="L21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="M17">
+      <c r="M21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="N17">
+      <c r="N21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="O17">
+      <c r="O21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="P17">
+      <c r="P21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="Q17">
+      <c r="Q21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="R17">
+      <c r="R21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="S17">
+      <c r="S21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="T17">
+      <c r="T21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="U17">
+      <c r="U21" s="1">
         <v>0.29007253</v>
       </c>
-      <c r="V17">
+      <c r="V21" s="1">
         <v>0.29007253</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="22" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18">
+      <c r="B22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="C18">
+      <c r="C22" s="1">
         <v>0.4899</v>
       </c>
-      <c r="D18">
+      <c r="D22" s="1">
         <v>0.47410000000000002</v>
       </c>
-      <c r="E18">
+      <c r="E22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="F18">
+      <c r="F22" s="1">
         <v>0.4718</v>
       </c>
-      <c r="G18">
+      <c r="G22" s="1">
         <v>0.49059999999999998</v>
       </c>
-      <c r="I18">
+      <c r="I22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="K18">
+      <c r="K22" s="1">
         <v>0.48770000000000002</v>
       </c>
-      <c r="L18">
+      <c r="L22" s="1">
         <v>0.48770000000000002</v>
       </c>
-      <c r="M18">
+      <c r="M22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="N18">
+      <c r="N22" s="1">
         <v>0.48380000000000001</v>
       </c>
-      <c r="O18">
+      <c r="O22" s="1">
         <v>0.48509999999999998</v>
       </c>
-      <c r="P18">
+      <c r="P22" s="1">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Q18">
+      <c r="Q22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="R18">
+      <c r="R22" s="1">
         <v>0.48430000000000001</v>
       </c>
-      <c r="S18">
+      <c r="S22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="T18">
+      <c r="T22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="U18">
+      <c r="U22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="V18">
+      <c r="V22" s="1">
         <v>10.511988000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19">
+      <c r="B23" s="1">
         <v>0.60530806000000004</v>
       </c>
-      <c r="C19">
+      <c r="C23" s="1">
         <v>0.60672959999999998</v>
       </c>
-      <c r="D19">
+      <c r="D23" s="1">
         <v>0.40722406</v>
       </c>
-      <c r="E19">
+      <c r="E23" s="1">
         <v>0.60585829999999996</v>
       </c>
-      <c r="F19">
+      <c r="F23" s="1">
         <v>0.38986418</v>
       </c>
-      <c r="G19">
+      <c r="G23" s="1">
         <v>0.62131625000000001</v>
       </c>
-      <c r="I19">
+      <c r="I23" s="1">
         <v>0.60610549999999996</v>
       </c>
-      <c r="K19">
+      <c r="K23" s="1">
         <v>0.61175597000000004</v>
       </c>
-      <c r="L19">
+      <c r="L23" s="1">
         <v>0.52608319999999997</v>
       </c>
-      <c r="M19">
+      <c r="M23" s="1">
         <v>0.60557395000000003</v>
       </c>
-      <c r="N19">
+      <c r="N23" s="1">
         <v>0.51828969999999996</v>
       </c>
-      <c r="O19">
+      <c r="O23" s="1">
         <v>0.60281085999999995</v>
       </c>
-      <c r="P19">
+      <c r="P23" s="1">
         <v>0.60864339999999995</v>
       </c>
-      <c r="Q19">
+      <c r="Q23" s="1">
         <v>0.60507619999999995</v>
       </c>
-      <c r="R19">
+      <c r="R23" s="1">
         <v>0.60420436</v>
       </c>
-      <c r="S19">
+      <c r="S23" s="1">
         <v>0.60536160000000006</v>
       </c>
-      <c r="T19">
+      <c r="T23" s="1">
         <v>0.60522880000000001</v>
       </c>
-      <c r="U19">
+      <c r="U23" s="1">
         <v>0.6053636</v>
       </c>
-      <c r="V19">
+      <c r="V23" s="1">
         <v>0.60534980000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="24" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20">
+      <c r="B24" s="1">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1">
         <v>3.2275999999999998</v>
       </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="I20">
-        <v>6</v>
-      </c>
-      <c r="K20">
-        <v>6</v>
-      </c>
-      <c r="L20">
+      <c r="G24" s="1">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1">
+        <v>6</v>
+      </c>
+      <c r="L24" s="1">
         <v>5.0797999999999996</v>
       </c>
-      <c r="M20">
-        <v>6</v>
-      </c>
-      <c r="N20">
+      <c r="M24" s="1">
+        <v>6</v>
+      </c>
+      <c r="N24" s="1">
         <v>5.0389999999999997</v>
       </c>
-      <c r="O20">
-        <v>6</v>
-      </c>
-      <c r="P20">
-        <v>6</v>
-      </c>
-      <c r="Q20">
-        <v>6</v>
-      </c>
-      <c r="R20">
-        <v>6</v>
-      </c>
-      <c r="S20">
-        <v>6</v>
-      </c>
-      <c r="T20">
-        <v>6</v>
-      </c>
-      <c r="U20">
-        <v>6</v>
-      </c>
-      <c r="V20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="O24" s="1">
+        <v>6</v>
+      </c>
+      <c r="P24" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>6</v>
+      </c>
+      <c r="R24" s="1">
+        <v>6</v>
+      </c>
+      <c r="S24" s="1">
+        <v>6</v>
+      </c>
+      <c r="T24" s="1">
+        <v>6</v>
+      </c>
+      <c r="U24" s="1">
+        <v>6</v>
+      </c>
+      <c r="V24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="I21">
-        <v>6</v>
-      </c>
-      <c r="K21">
-        <v>6</v>
-      </c>
-      <c r="L21">
-        <v>6</v>
-      </c>
-      <c r="M21">
-        <v>6</v>
-      </c>
-      <c r="N21">
-        <v>6</v>
-      </c>
-      <c r="O21">
-        <v>6</v>
-      </c>
-      <c r="P21">
-        <v>6</v>
-      </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-      <c r="R21">
-        <v>6</v>
-      </c>
-      <c r="S21">
-        <v>6</v>
-      </c>
-      <c r="T21">
-        <v>6</v>
-      </c>
-      <c r="U21">
-        <v>6</v>
-      </c>
-      <c r="V21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B25" s="1">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1">
+        <v>6</v>
+      </c>
+      <c r="K25" s="1">
+        <v>6</v>
+      </c>
+      <c r="L25" s="1">
+        <v>6</v>
+      </c>
+      <c r="M25" s="1">
+        <v>6</v>
+      </c>
+      <c r="N25" s="1">
+        <v>6</v>
+      </c>
+      <c r="O25" s="1">
+        <v>6</v>
+      </c>
+      <c r="P25" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>6</v>
+      </c>
+      <c r="R25" s="1">
+        <v>6</v>
+      </c>
+      <c r="S25" s="1">
+        <v>6</v>
+      </c>
+      <c r="T25" s="1">
+        <v>6</v>
+      </c>
+      <c r="U25" s="1">
+        <v>6</v>
+      </c>
+      <c r="V25" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22">
+      <c r="B26" s="1">
         <v>6.7760999999999996</v>
       </c>
-      <c r="C22">
+      <c r="C26" s="1">
         <v>6.8377999999999997</v>
       </c>
-      <c r="D22">
+      <c r="D26" s="1">
         <v>6.4893999999999998</v>
       </c>
-      <c r="E22">
+      <c r="E26" s="1">
         <v>6.7252000000000001</v>
       </c>
-      <c r="F22">
+      <c r="F26" s="1">
         <v>3.2275999999999998</v>
       </c>
-      <c r="G22">
+      <c r="G26" s="1">
         <v>6.8437999999999999</v>
       </c>
-      <c r="I22">
+      <c r="I26" s="1">
         <v>6.6997999999999998</v>
       </c>
-      <c r="K22">
+      <c r="K26" s="1">
         <v>6.7965999999999998</v>
       </c>
-      <c r="L22">
+      <c r="L26" s="1">
         <v>5.0797999999999996</v>
       </c>
-      <c r="M22">
+      <c r="M26" s="1">
         <v>6.7507000000000001</v>
       </c>
-      <c r="N22">
+      <c r="N26" s="1">
         <v>5.0389999999999997</v>
       </c>
-      <c r="O22">
+      <c r="O26" s="1">
         <v>6.7553000000000001</v>
       </c>
-      <c r="P22">
+      <c r="P26" s="1">
         <v>8.3989999999999991</v>
       </c>
-      <c r="Q22">
+      <c r="Q26" s="1">
         <v>6.8014000000000001</v>
       </c>
-      <c r="R22">
+      <c r="R26" s="1">
         <v>8.4122000000000003</v>
       </c>
-      <c r="S22">
+      <c r="S26" s="1">
         <v>6.7762000000000002</v>
       </c>
-      <c r="T22">
+      <c r="T26" s="1">
         <v>6.7695999999999996</v>
       </c>
-      <c r="U22">
+      <c r="U26" s="1">
         <v>6.7950999999999997</v>
       </c>
-      <c r="V22">
+      <c r="V26" s="1">
         <v>6.7763</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="27" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23">
+      <c r="B27" s="1">
         <v>6.7760999999999996</v>
       </c>
-      <c r="C23">
+      <c r="C27" s="1">
         <v>6.8544999999999998</v>
       </c>
-      <c r="D23">
+      <c r="D27" s="1">
         <v>6.5061</v>
       </c>
-      <c r="E23">
+      <c r="E27" s="1">
         <v>6.7765000000000004</v>
       </c>
-      <c r="F23">
+      <c r="F27" s="1">
         <v>6.4551999999999996</v>
       </c>
-      <c r="G23">
+      <c r="G27" s="1">
         <v>6.8688000000000002</v>
       </c>
-      <c r="I23">
+      <c r="I27" s="1">
         <v>6.7769000000000004</v>
       </c>
-      <c r="K23">
+      <c r="K27" s="1">
         <v>6.8048999999999999</v>
       </c>
-      <c r="L23">
+      <c r="L27" s="1">
         <v>6.7278000000000002</v>
       </c>
-      <c r="M23">
+      <c r="M27" s="1">
         <v>6.7763999999999998</v>
       </c>
-      <c r="N23">
+      <c r="N27" s="1">
         <v>6.7187000000000001</v>
       </c>
-      <c r="O23">
+      <c r="O27" s="1">
         <v>6.7469999999999999</v>
       </c>
-      <c r="P23">
+      <c r="P27" s="1">
         <v>6.7464000000000004</v>
       </c>
-      <c r="Q23">
+      <c r="Q27" s="1">
         <v>6.7756999999999996</v>
       </c>
-      <c r="R23">
+      <c r="R27" s="1">
         <v>6.7297000000000002</v>
       </c>
-      <c r="S23">
+      <c r="S27" s="1">
         <v>6.7763</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T27" s="1">
         <v>6.7763</v>
       </c>
-      <c r="U23">
+      <c r="U27" s="1">
         <v>6.7760999999999996</v>
       </c>
-      <c r="V23">
+      <c r="V27" s="1">
         <v>6.7695999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T24" s="2"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4">
+        <v>10.511709</v>
+      </c>
+      <c r="C29" s="4">
+        <f>C20</f>
+        <v>10.606191000000001</v>
+      </c>
+      <c r="D29" s="4">
+        <f>D20 * D3</f>
+        <v>5.0919920000000003</v>
+      </c>
+      <c r="E29" s="4">
+        <f>E20</f>
+        <v>10.512212</v>
+      </c>
+      <c r="F29" s="4">
+        <f>F20 * F2</f>
+        <v>5.0609295000000003</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" ref="G29:V29" si="2">G20</f>
+        <v>10.623476999999999</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2.6282000000000001</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" ref="I29:V29" si="3">I20</f>
+        <v>10.512638000000001</v>
+      </c>
+      <c r="J29" s="4">
+        <v>2.6282000000000001</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" ref="K29:V29" si="4">K20</f>
+        <v>10.546491</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" ref="L29:V29" si="5">L20 * L3</f>
+        <v>7.8399375000000004</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" ref="M29:V29" si="6">M20</f>
+        <v>10.512064000000001</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" ref="N29:V29" si="7">N20 * N2</f>
+        <v>7.8317298750000006</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" ref="O29:V29" si="8">O20</f>
+        <v>10.476487000000001</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" ref="P29:V29" si="9">P20 * P3</f>
+        <v>13.094749999999999</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" ref="Q29:V29" si="10">Q20</f>
+        <v>10.511231</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" ref="R29:V29" si="11">R20 * R2</f>
+        <v>13.069565000000001</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" ref="S29:V29" si="12">S20</f>
+        <v>10.511894</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" ref="T29:V29" si="13">T20 * T3</f>
+        <v>10.501384104</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" ref="U29:V29" si="14">U20</f>
+        <v>10.511658000000001</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" ref="V29" si="15">V20 * V2</f>
+        <v>10.501476012000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.29007253</v>
+      </c>
+      <c r="C30" s="4">
+        <f>C21</f>
+        <v>0.29007253</v>
+      </c>
+      <c r="D30" s="4">
+        <f>D21</f>
+        <v>0.29007253</v>
+      </c>
+      <c r="E30" s="4">
+        <f>E21 * E4</f>
+        <v>0.145036265</v>
+      </c>
+      <c r="F30" s="4">
+        <f>F21 * F4</f>
+        <v>0.145036265</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" ref="G30:V30" si="16">G21</f>
+        <v>0.29007253</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="16"/>
+        <v>0.29007253</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" ref="I30:V30" si="17">I21 * I4</f>
+        <v>7.2518132499999999E-2</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="17"/>
+        <v>7.2518132499999999E-2</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" ref="K30:V30" si="18">K21</f>
+        <v>0.29007253</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="18"/>
+        <v>0.29007253</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" ref="M30:V30" si="19">M21 * M4</f>
+        <v>0.2175543975</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="19"/>
+        <v>0.2175543975</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" ref="O30:V30" si="20">O21</f>
+        <v>0.29007253</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="20"/>
+        <v>0.29007253</v>
+      </c>
+      <c r="Q30" s="4">
+        <f t="shared" ref="Q30:V30" si="21">Q21 * Q4</f>
+        <v>0.36259066249999999</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" si="21"/>
+        <v>0.36259066249999999</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" ref="S30:V30" si="22">S21</f>
+        <v>0.29007253</v>
+      </c>
+      <c r="T30" s="4">
+        <f t="shared" si="22"/>
+        <v>0.29007253</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" ref="U30:V30" si="23">U21 * U4</f>
+        <v>0.28978245746999998</v>
+      </c>
+      <c r="V30" s="4">
+        <f t="shared" si="23"/>
+        <v>0.28978245746999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="C31" s="4">
+        <f>6.5556 * C2</f>
+        <v>3.2778</v>
+      </c>
+      <c r="D31" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="E31" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="F31" s="4">
+        <f>6.5556 * F2</f>
+        <v>3.2778</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" ref="G31:V31" si="24">6.5556 * G2</f>
+        <v>1.6389</v>
+      </c>
+      <c r="H31" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="I31" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" ref="J31:V31" si="25">6.5556 * J2</f>
+        <v>1.6389</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="25"/>
+        <v>4.9167000000000005</v>
+      </c>
+      <c r="L31" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="M31" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" ref="N31:V31" si="26">6.5556 * N2</f>
+        <v>4.9167000000000005</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="26"/>
+        <v>8.1944999999999997</v>
+      </c>
+      <c r="P31" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" ref="R31:V31" si="27">6.5556 * R2</f>
+        <v>8.1944999999999997</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" si="27"/>
+        <v>6.5490443999999997</v>
+      </c>
+      <c r="T31" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="U31" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="V31" s="4">
+        <f t="shared" ref="V31" si="28">6.5556 * V2</f>
+        <v>6.5490443999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3.4272</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2.7039</v>
+      </c>
+      <c r="E32" s="4">
+        <v>6.6994999999999996</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1.3030999999999999</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1.7172000000000001</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1.2151000000000001</v>
+      </c>
+      <c r="I32" s="4">
+        <v>6.6806000000000001</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.2797</v>
+      </c>
+      <c r="K32" s="4">
+        <v>5.1036999999999999</v>
+      </c>
+      <c r="L32" s="4">
+        <v>4.657</v>
+      </c>
+      <c r="M32" s="4">
+        <v>6.7314999999999996</v>
+      </c>
+      <c r="N32" s="4">
+        <v>3.4544000000000001</v>
+      </c>
+      <c r="O32" s="4">
+        <v>8.4337</v>
+      </c>
+      <c r="P32" s="4">
+        <v>8.9923000000000002</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>6.8334999999999999</v>
+      </c>
+      <c r="R32" s="4">
+        <v>11.284700000000001</v>
+      </c>
+      <c r="S32" s="4">
+        <v>6.7694999999999999</v>
+      </c>
+      <c r="T32" s="4">
+        <v>6.7675999999999998</v>
+      </c>
+      <c r="U32" s="4">
+        <v>6.7759</v>
+      </c>
+      <c r="V32" s="4">
+        <v>6.7606999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="B34" s="1">
         <v>10.088276</v>
       </c>
-      <c r="C26">
+      <c r="C34" s="1">
         <v>10.172914499999999</v>
       </c>
-      <c r="E26">
+      <c r="E34" s="1">
         <v>10.088552</v>
       </c>
-      <c r="G26">
+      <c r="G34" s="1">
         <v>10.184378000000001</v>
       </c>
-      <c r="I26">
+      <c r="I34" s="1">
         <v>10.088162000000001</v>
       </c>
-      <c r="K26">
+      <c r="K34" s="1">
         <v>10.125124</v>
       </c>
-      <c r="L26">
+      <c r="L34" s="1">
         <v>9.9728750000000002</v>
       </c>
-      <c r="M26">
+      <c r="M34" s="1">
         <v>10.088305999999999</v>
       </c>
-      <c r="N26">
+      <c r="N34" s="1">
         <v>10.026384</v>
       </c>
-      <c r="O26">
+      <c r="O34" s="1">
         <v>10.053661999999999</v>
       </c>
-      <c r="P26">
+      <c r="P34" s="1">
         <v>10.116463</v>
       </c>
-      <c r="Q26">
+      <c r="Q34" s="1">
         <v>10.088471999999999</v>
       </c>
-      <c r="R26">
+      <c r="R34" s="1">
         <v>10.095207</v>
       </c>
-      <c r="S26">
+      <c r="S34" s="1">
         <v>10.088437000000001</v>
       </c>
-      <c r="T26">
+      <c r="T34" s="1">
         <v>10.088939</v>
       </c>
-      <c r="U26">
+      <c r="U34" s="1">
         <v>10.088243</v>
       </c>
-      <c r="V26">
+      <c r="V34" s="1">
         <v>10.089027</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="35" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B27">
+      <c r="B35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="C27">
+      <c r="C35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="D27">
+      <c r="D35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="E27">
+      <c r="E35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="F27">
+      <c r="F35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="G27">
+      <c r="G35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="H27">
+      <c r="H35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="I27">
+      <c r="I35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="J27">
+      <c r="J35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="K27">
+      <c r="K35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="L27">
+      <c r="L35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="M27">
+      <c r="M35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="N27">
+      <c r="N35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="O27">
+      <c r="O35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="P27">
+      <c r="P35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="Q27">
+      <c r="Q35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="R27">
+      <c r="R35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="S27">
+      <c r="S35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="T27">
+      <c r="T35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="U27">
+      <c r="U35" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="V27">
+      <c r="V35" s="1">
         <v>0.34060466</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="36" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B28">
+      <c r="B36" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="C28">
+      <c r="C36" s="1">
         <v>0.48820000000000002</v>
       </c>
-      <c r="E28">
+      <c r="E36" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="G28">
+      <c r="G36" s="1">
         <v>0.4884</v>
       </c>
-      <c r="I28">
+      <c r="I36" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="K28">
+      <c r="K36" s="1">
         <v>0.48620000000000002</v>
       </c>
-      <c r="L28">
+      <c r="L36" s="1">
         <v>0.48049999999999998</v>
       </c>
-      <c r="M28">
+      <c r="M36" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="N28">
+      <c r="N36" s="1">
         <v>0.48249999999999998</v>
       </c>
-      <c r="O28">
+      <c r="O36" s="1">
         <v>0.48349999999999999</v>
       </c>
-      <c r="P28">
+      <c r="P36" s="1">
         <v>0.4859</v>
       </c>
-      <c r="Q28">
+      <c r="Q36" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="R28">
+      <c r="R36" s="1">
         <v>0.48509999999999998</v>
       </c>
-      <c r="S28">
+      <c r="S36" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="T28">
+      <c r="T36" s="1">
         <v>0.4849</v>
       </c>
-      <c r="U28">
+      <c r="U36" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="V28">
+      <c r="V36" s="1">
         <v>0.4849</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="37" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
+      <c r="B37" s="1">
         <v>0.68085600000000002</v>
       </c>
-      <c r="C29">
+      <c r="C37" s="1">
         <v>0.64096624000000002</v>
       </c>
-      <c r="E29">
+      <c r="E37" s="1">
         <v>0.6803785</v>
       </c>
-      <c r="G29">
+      <c r="G37" s="1">
         <v>0.60257470000000002</v>
       </c>
-      <c r="I29">
+      <c r="I37" s="1">
         <v>0.68052029999999997</v>
       </c>
-      <c r="K29">
+      <c r="K37" s="1">
         <v>0.65760960000000002</v>
       </c>
-      <c r="L29">
+      <c r="L37" s="1">
         <v>0.62494479999999997</v>
       </c>
-      <c r="M29">
+      <c r="M37" s="1">
         <v>0.68055220000000005</v>
       </c>
-      <c r="N29">
+      <c r="N37" s="1">
         <v>0.60391843000000001</v>
       </c>
-      <c r="O29">
+      <c r="O37" s="1">
         <v>0.67636067</v>
       </c>
-      <c r="P29">
+      <c r="P37" s="1">
         <v>0.78299266000000001</v>
       </c>
-      <c r="Q29">
+      <c r="Q37" s="1">
         <v>0.68069259999999998</v>
       </c>
-      <c r="R29">
+      <c r="R37" s="1">
         <v>0.75873279999999999</v>
       </c>
-      <c r="S29">
+      <c r="S37" s="1">
         <v>0.68084513999999996</v>
       </c>
-      <c r="T29">
+      <c r="T37" s="1">
         <v>0.67894129999999997</v>
       </c>
-      <c r="U29">
+      <c r="U37" s="1">
         <v>0.68056333000000002</v>
       </c>
-      <c r="V29">
+      <c r="V37" s="1">
         <v>0.67868139999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="38" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30">
-        <v>6</v>
-      </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30">
-        <v>6</v>
-      </c>
-      <c r="J30">
-        <v>6</v>
-      </c>
-      <c r="K30">
-        <v>6</v>
-      </c>
-      <c r="L30">
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>6</v>
+      </c>
+      <c r="G38" s="1">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1">
+        <v>6</v>
+      </c>
+      <c r="J38" s="1">
+        <v>6</v>
+      </c>
+      <c r="K38" s="1">
+        <v>6</v>
+      </c>
+      <c r="L38" s="1">
         <v>4.8231000000000002</v>
       </c>
-      <c r="M30">
-        <v>6</v>
-      </c>
-      <c r="N30">
+      <c r="M38" s="1">
+        <v>6</v>
+      </c>
+      <c r="N38" s="1">
         <v>4.8121</v>
       </c>
-      <c r="O30">
-        <v>6</v>
-      </c>
-      <c r="P30">
-        <v>6</v>
-      </c>
-      <c r="Q30">
-        <v>6</v>
-      </c>
-      <c r="R30">
-        <v>6</v>
-      </c>
-      <c r="S30">
-        <v>6</v>
-      </c>
-      <c r="T30">
-        <v>6</v>
-      </c>
-      <c r="U30">
-        <v>6</v>
-      </c>
-      <c r="V30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="O38" s="1">
+        <v>6</v>
+      </c>
+      <c r="P38" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>6</v>
+      </c>
+      <c r="R38" s="1">
+        <v>6</v>
+      </c>
+      <c r="S38" s="1">
+        <v>6</v>
+      </c>
+      <c r="T38" s="1">
+        <v>6</v>
+      </c>
+      <c r="U38" s="1">
+        <v>6</v>
+      </c>
+      <c r="V38" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>6</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-      <c r="I31">
-        <v>6</v>
-      </c>
-      <c r="J31">
-        <v>6</v>
-      </c>
-      <c r="K31">
-        <v>6</v>
-      </c>
-      <c r="L31">
-        <v>6</v>
-      </c>
-      <c r="M31">
-        <v>6</v>
-      </c>
-      <c r="N31">
-        <v>6</v>
-      </c>
-      <c r="O31">
-        <v>6</v>
-      </c>
-      <c r="P31">
-        <v>6</v>
-      </c>
-      <c r="Q31">
-        <v>6</v>
-      </c>
-      <c r="R31">
-        <v>6</v>
-      </c>
-      <c r="S31">
-        <v>6</v>
-      </c>
-      <c r="T31">
-        <v>6</v>
-      </c>
-      <c r="U31">
-        <v>6</v>
-      </c>
-      <c r="V31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B39" s="1">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1">
+        <v>6</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1">
+        <v>6</v>
+      </c>
+      <c r="J39" s="1">
+        <v>6</v>
+      </c>
+      <c r="K39" s="1">
+        <v>6</v>
+      </c>
+      <c r="L39" s="1">
+        <v>6</v>
+      </c>
+      <c r="M39" s="1">
+        <v>6</v>
+      </c>
+      <c r="N39" s="1">
+        <v>6</v>
+      </c>
+      <c r="O39" s="1">
+        <v>6</v>
+      </c>
+      <c r="P39" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>6</v>
+      </c>
+      <c r="R39" s="1">
+        <v>6</v>
+      </c>
+      <c r="S39" s="1">
+        <v>6</v>
+      </c>
+      <c r="T39" s="1">
+        <v>6</v>
+      </c>
+      <c r="U39" s="1">
+        <v>6</v>
+      </c>
+      <c r="V39" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32">
+      <c r="B40" s="1">
         <v>6.4665999999999997</v>
       </c>
-      <c r="C32">
+      <c r="C40" s="1">
         <v>6.5193000000000003</v>
       </c>
-      <c r="E32">
+      <c r="E40" s="1">
         <v>6.3959999999999999</v>
       </c>
-      <c r="G32">
+      <c r="G40" s="1">
         <v>6.5202999999999998</v>
       </c>
-      <c r="I32">
+      <c r="I40" s="1">
         <v>6.3602999999999996</v>
       </c>
-      <c r="K32">
+      <c r="K40" s="1">
         <v>6.4885000000000002</v>
       </c>
-      <c r="L32">
+      <c r="L40" s="1">
         <v>4.8231000000000002</v>
       </c>
-      <c r="M32">
+      <c r="M40" s="1">
         <v>6.4313000000000002</v>
       </c>
-      <c r="N32">
+      <c r="N40" s="1">
         <v>4.8121</v>
       </c>
-      <c r="O32">
+      <c r="O40" s="1">
         <v>6.4466999999999999</v>
       </c>
-      <c r="P32">
+      <c r="P40" s="1">
         <v>8.0684000000000005</v>
       </c>
-      <c r="Q32">
+      <c r="Q40" s="1">
         <v>6.5022000000000002</v>
       </c>
-      <c r="R32">
+      <c r="R40" s="1">
         <v>8.0904000000000007</v>
       </c>
-      <c r="S32">
+      <c r="S40" s="1">
         <v>6.4667000000000003</v>
       </c>
-      <c r="T32">
+      <c r="T40" s="1">
         <v>6.4608999999999996</v>
       </c>
-      <c r="U32">
+      <c r="U40" s="1">
         <v>6.4664999999999999</v>
       </c>
-      <c r="V32">
+      <c r="V40" s="1">
         <v>6.4607999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="41" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B41" s="5">
         <v>6.4665999999999997</v>
       </c>
-      <c r="C33">
+      <c r="C41" s="1">
         <v>6.5358999999999998</v>
       </c>
-      <c r="E33">
+      <c r="E41" s="1">
         <v>6.4668999999999999</v>
       </c>
-      <c r="G33">
+      <c r="G41" s="1">
         <v>6.5453000000000001</v>
       </c>
-      <c r="I33">
+      <c r="I41" s="1">
         <v>6.4664999999999999</v>
       </c>
-      <c r="K33">
+      <c r="K41" s="1">
         <v>6.4968000000000004</v>
       </c>
-      <c r="L33">
+      <c r="L41" s="1">
         <v>6.3724999999999996</v>
       </c>
-      <c r="M33">
+      <c r="M41" s="1">
         <v>6.4667000000000003</v>
       </c>
-      <c r="N33">
+      <c r="N41" s="1">
         <v>6.4161000000000001</v>
       </c>
-      <c r="O33">
+      <c r="O41" s="1">
         <v>6.4383999999999997</v>
       </c>
-      <c r="P33">
+      <c r="P41" s="1">
         <v>6.4897</v>
       </c>
-      <c r="Q33">
+      <c r="Q41" s="1">
         <v>6.4668000000000001</v>
       </c>
-      <c r="R33">
+      <c r="R41" s="1">
         <v>6.4722999999999997</v>
       </c>
-      <c r="S33">
+      <c r="S41" s="1">
         <v>6.4668000000000001</v>
       </c>
-      <c r="T33">
+      <c r="T41" s="1">
         <v>6.4672000000000001</v>
       </c>
-      <c r="U33">
+      <c r="U41" s="1">
         <v>6.4665999999999997</v>
       </c>
-      <c r="V33">
+      <c r="V41" s="1">
         <v>6.4672999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
+    <row r="42" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="6">
+        <v>10.0883</v>
+      </c>
+      <c r="C43" s="4">
+        <f>C34</f>
+        <v>10.172914499999999</v>
+      </c>
+      <c r="D43" s="4">
+        <v>5.0442999999999998</v>
+      </c>
+      <c r="E43" s="4">
+        <f>E34</f>
+        <v>10.088552</v>
+      </c>
+      <c r="F43" s="4">
+        <v>5.0922000000000001</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" ref="G43:V43" si="29">G34</f>
+        <v>10.184378000000001</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" ref="I43:V43" si="30">I34</f>
+        <v>10.088162000000001</v>
+      </c>
+      <c r="J43" s="4">
+        <v>2.5312999999999999</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" ref="K43:V43" si="31">K34</f>
+        <v>10.125124</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" ref="L43:V43" si="32">L34 * L3</f>
+        <v>7.4796562499999997</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" ref="M43:V43" si="33">M34</f>
+        <v>10.088305999999999</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" ref="N43:V43" si="34">N34 * N3</f>
+        <v>7.5197880000000001</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" ref="O43:V43" si="35">O34</f>
+        <v>10.053661999999999</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" ref="P43:V43" si="36">P34 * P3</f>
+        <v>12.645578749999999</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" ref="Q43:V43" si="37">Q34</f>
+        <v>10.088471999999999</v>
+      </c>
+      <c r="R43" s="4">
+        <f t="shared" ref="R43:V43" si="38">R34 * R3</f>
+        <v>12.619008750000001</v>
+      </c>
+      <c r="S43" s="4">
+        <f t="shared" ref="S43:V43" si="39">S34</f>
+        <v>10.088437000000001</v>
+      </c>
+      <c r="T43" s="4">
+        <f t="shared" ref="T43:V43" si="40">T34 * T3</f>
+        <v>10.078850061000001</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" ref="U43:V43" si="41">U34</f>
+        <v>10.088243</v>
+      </c>
+      <c r="V43" s="4">
+        <f t="shared" ref="V43:V44" si="42">V34 * V3</f>
+        <v>10.078937973</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="C44" s="4">
+        <f>C35</f>
+        <v>0.34060466</v>
+      </c>
+      <c r="D44" s="4">
+        <f>D35</f>
+        <v>0.34060466</v>
+      </c>
+      <c r="E44" s="4">
+        <f>E35 * E4</f>
+        <v>0.17030233</v>
+      </c>
+      <c r="F44" s="4">
+        <f>F35 * F4</f>
+        <v>0.17030233</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" ref="G44:V44" si="43">G35</f>
+        <v>0.34060466</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="43"/>
+        <v>0.34060466</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" ref="I44:V44" si="44">I35 * I4</f>
+        <v>8.5151165000000001E-2</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="44"/>
+        <v>8.5151165000000001E-2</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" ref="K44:V44" si="45">K35</f>
+        <v>0.34060466</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="45"/>
+        <v>0.34060466</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" ref="M44:V44" si="46">M35 * M4</f>
+        <v>0.25545349500000003</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="46"/>
+        <v>0.25545349500000003</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" ref="O44:V44" si="47">O35</f>
+        <v>0.34060466</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" si="47"/>
+        <v>0.34060466</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" ref="Q44:V44" si="48">Q35 * Q4</f>
+        <v>0.42575582499999998</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" si="48"/>
+        <v>0.42575582499999998</v>
+      </c>
+      <c r="S44" s="4">
+        <f t="shared" ref="S44:V44" si="49">S35</f>
+        <v>0.34060466</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="49"/>
+        <v>0.34060466</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" ref="U44:V44" si="50">U35 * U4</f>
+        <v>0.34026405533999998</v>
+      </c>
+      <c r="V44" s="4">
+        <f t="shared" si="42"/>
+        <v>0.34026405533999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="6">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="C45" s="4">
+        <f>6.5556 * C2</f>
+        <v>3.2778</v>
+      </c>
+      <c r="D45" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="E45" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="F45" s="4">
+        <f>6.5556 * F2</f>
+        <v>3.2778</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" ref="G45:V45" si="51">6.5556 * G2</f>
+        <v>1.6389</v>
+      </c>
+      <c r="H45" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="I45" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" ref="J45:V45" si="52">6.5556 * J2</f>
+        <v>1.6389</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="52"/>
+        <v>4.9167000000000005</v>
+      </c>
+      <c r="L45" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="M45" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" ref="N45:V45" si="53">6.5556 * N2</f>
+        <v>4.9167000000000005</v>
+      </c>
+      <c r="O45" s="4">
+        <f t="shared" si="53"/>
+        <v>8.1944999999999997</v>
+      </c>
+      <c r="P45" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="R45" s="4">
+        <f t="shared" ref="R45:V45" si="54">6.5556 * R2</f>
+        <v>8.1944999999999997</v>
+      </c>
+      <c r="S45" s="4">
+        <f t="shared" si="54"/>
+        <v>6.5490443999999997</v>
+      </c>
+      <c r="T45" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="U45" s="4">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="V45" s="4">
+        <f t="shared" ref="V45" si="55">6.5556 * V2</f>
+        <v>6.5490443999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="6">
+        <v>6.4665999999999997</v>
+      </c>
+      <c r="C46" s="4">
+        <v>3.2679999999999998</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2.7113</v>
+      </c>
+      <c r="E46" s="4">
+        <v>6.3605999999999998</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1.3183</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1.6363000000000001</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1.1973</v>
+      </c>
+      <c r="I46" s="4">
+        <v>6.3338000000000001</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.26740000000000003</v>
+      </c>
+      <c r="K46" s="4">
+        <v>4.8726000000000003</v>
+      </c>
+      <c r="L46" s="4">
+        <v>4.4256000000000002</v>
+      </c>
+      <c r="M46" s="4">
+        <v>6.4047000000000001</v>
+      </c>
+      <c r="N46" s="4">
+        <v>3.2951000000000001</v>
+      </c>
+      <c r="O46" s="4">
+        <v>8.048</v>
+      </c>
+      <c r="P46" s="4">
+        <v>8.6351999999999993</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>6.5465</v>
+      </c>
+      <c r="R46" s="4">
+        <v>10.8644</v>
+      </c>
+      <c r="S46" s="4">
+        <v>6.4603000000000002</v>
+      </c>
+      <c r="T46" s="4">
+        <v>6.4584999999999999</v>
+      </c>
+      <c r="U46" s="4">
+        <v>6.4668999999999999</v>
+      </c>
+      <c r="V46" s="4">
+        <v>6.4516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ROS_calculations.xlsx
+++ b/ROS_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybenik/Research_Files/Hill_Runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E97EC7-0356-274B-A623-F74FE11B931F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C0B68F-F8E1-EB41-ADAA-2C68EC4384E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
+    <workbookView xWindow="660" yWindow="640" windowWidth="34560" windowHeight="21600" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>ROS Data</t>
   </si>
@@ -52,27 +52,18 @@
     <t>Tanphi center of the hill</t>
   </si>
   <si>
-    <t>Rate of Spread Middle of the hill</t>
-  </si>
-  <si>
     <t>Wind Speed NE part of hill</t>
   </si>
   <si>
     <t>Tanphi NE part of hill</t>
   </si>
   <si>
-    <t>Rate of Spread NE part of hill</t>
-  </si>
-  <si>
     <t>Wind Speed SW part of hill</t>
   </si>
   <si>
     <t>Tanphi SW part of hill</t>
   </si>
   <si>
-    <t>Rate of Spread SW part of hill</t>
-  </si>
-  <si>
     <t>Run_3</t>
   </si>
   <si>
@@ -170,6 +161,21 @@
   </si>
   <si>
     <t>for testing purposes</t>
+  </si>
+  <si>
+    <t>DON'T WORRY ABOUT THE SW PART</t>
+  </si>
+  <si>
+    <t>Adam's Modified Rothermel Code ROS</t>
+  </si>
+  <si>
+    <t>Balbi Rate of Spread Middle of the hill</t>
+  </si>
+  <si>
+    <t>Balbi Rate of Spread NE part of hill</t>
+  </si>
+  <si>
+    <t>Balbi Rate of Spread SW part of hill</t>
   </si>
 </sst>
 </file>
@@ -223,14 +229,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C5D8E9-26BC-FC46-9670-57C49E39CB3F}">
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,7 +569,7 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,9 +595,9 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
@@ -633,9 +641,9 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -679,9 +687,9 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -725,7 +733,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -734,64 +742,64 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -855,7 +863,7 @@
         <v>15.982637</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -923,9 +931,9 @@
         <v>3.9121687000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2">
         <v>0.62119999999999997</v>
@@ -987,9 +995,9 @@
         <v>0.62129999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
         <v>6</v>
@@ -1051,9 +1059,9 @@
         <v>6.0000004999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2">
         <v>6</v>
@@ -1115,9 +1123,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
@@ -1179,9 +1187,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2">
         <v>11.5319</v>
@@ -1243,9 +1251,9 @@
         <v>11.5237</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2">
         <v>11.5319</v>
@@ -1307,9 +1315,9 @@
         <v>11.5352</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1318,11 +1326,11 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1337,1975 +1345,2163 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7">
         <v>15.979096</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>15.979676</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>7.1021000000000001</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
         <v>15.985200000000001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="7">
         <v>6.9423000000000004</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="7">
         <v>15.9437</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="7">
         <v>3.9971000000000001</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="7">
         <v>15.988474999999999</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="7">
         <v>3.9971000000000001</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="7">
         <v>16.009499999999999</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="7">
         <v>11.6943</v>
       </c>
-      <c r="M15" s="3">
-        <f t="shared" ref="M15:V15" si="0">M6</f>
+      <c r="M15" s="7">
+        <f t="shared" ref="M15:U15" si="0">M6</f>
         <v>15.98211</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="7">
         <v>11.5763</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="7">
         <f t="shared" si="0"/>
         <v>16.008780000000002</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="7">
         <v>20.317900000000002</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="7">
         <f t="shared" si="0"/>
         <v>15.975887999999999</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="7">
         <v>20.302099999999999</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="7">
         <f t="shared" si="0"/>
         <v>15.979746</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="7">
         <f>T6 * T3</f>
         <v>15.965925092999999</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="7">
         <f t="shared" si="0"/>
         <v>15.979161</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="7">
         <v>15.966699999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="3">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="7">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="7">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="7">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="7">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="7">
         <f>K7</f>
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="7">
         <f>L7</f>
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="7">
         <v>2.93E-2</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="7">
         <v>2.93E-2</v>
       </c>
-      <c r="O16" s="3">
-        <f t="shared" ref="M16:V16" si="1">O7</f>
+      <c r="O16" s="7">
+        <f t="shared" ref="O16:T16" si="1">O7</f>
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="7">
         <f t="shared" si="1"/>
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="7">
         <f t="shared" si="1"/>
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="7">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="7">
         <f t="shared" si="1"/>
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="7">
         <f t="shared" si="1"/>
         <v>3.9121687000000002E-2</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="7">
         <f>U7 * U4</f>
         <v>3.9082565313000001E-2</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="7">
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3">
+        <v>39</v>
+      </c>
+      <c r="B17" s="7">
         <v>6.5556000000000001</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>3.2778</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>6.5556000000000001</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="7">
         <v>6.5556000000000001</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="7">
         <v>3.2778</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="7">
         <v>1.6389</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="7">
         <v>6.5556000000000001</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="7">
         <v>6.5556000000000001</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="7">
         <v>1.6389</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="7">
         <v>4.9166999999999996</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="7">
         <v>6.5556000000000001</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="7">
         <v>6.5556000000000001</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="7">
         <v>4.9166999999999996</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="7">
         <v>8.1944999999999997</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="7">
         <v>6.5556000000000001</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="7">
         <v>6.5556000000000001</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="7">
         <v>8.1944999999999997</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="7">
         <f xml:space="preserve"> 6.5556 * S2</f>
         <v>6.5490443999999997</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="7">
         <v>6.5556000000000001</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="7">
         <v>6.5556000000000001</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="7">
         <v>6.5491000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="7">
+        <v>11.5319</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5.7662000000000004</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4.0068000000000001</v>
+      </c>
+      <c r="E18" s="7">
+        <v>11.536300000000001</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.9443999999999999</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2.8746</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1.9048</v>
+      </c>
+      <c r="I18" s="7">
+        <v>11.5389</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.4758</v>
+      </c>
+      <c r="K18" s="7">
+        <v>8.6704000000000008</v>
+      </c>
+      <c r="L18" s="7">
+        <v>7.6711</v>
+      </c>
+      <c r="M18" s="7">
+        <v>11.533899999999999</v>
+      </c>
+      <c r="N18" s="7">
+        <v>5.6771000000000003</v>
+      </c>
+      <c r="O18" s="7">
+        <v>14.4498</v>
+      </c>
+      <c r="P18" s="7">
+        <v>15.7866</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>11.5299</v>
+      </c>
+      <c r="R18" s="7">
+        <v>19.714400000000001</v>
+      </c>
+      <c r="S18" s="7">
+        <v>11.520899999999999</v>
+      </c>
+      <c r="T18" s="7">
+        <v>11.519399999999999</v>
+      </c>
+      <c r="U18" s="7">
+        <v>11.5319</v>
+      </c>
+      <c r="V18" s="7">
+        <v>11.508599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B20" s="3">
         <v>11.5319</v>
       </c>
-      <c r="C18" s="3">
-        <v>5.7662000000000004</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4.0068000000000001</v>
-      </c>
-      <c r="E18" s="3">
-        <v>11.536300000000001</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1.9443999999999999</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2.8746</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1.9048</v>
-      </c>
-      <c r="I18" s="3">
-        <v>11.5389</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0.4758</v>
-      </c>
-      <c r="K18" s="3">
-        <v>8.6704000000000008</v>
-      </c>
-      <c r="L18" s="3">
-        <v>7.6711</v>
-      </c>
-      <c r="M18" s="3">
-        <v>11.533899999999999</v>
-      </c>
-      <c r="N18" s="3">
-        <v>5.6771000000000003</v>
-      </c>
-      <c r="O18" s="3">
-        <v>14.4498</v>
-      </c>
-      <c r="P18" s="3">
-        <v>15.7866</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>11.5299</v>
-      </c>
-      <c r="R18" s="3">
-        <v>19.714400000000001</v>
-      </c>
-      <c r="S18" s="3">
-        <v>11.520899999999999</v>
-      </c>
-      <c r="T18" s="3">
-        <v>11.519399999999999</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="C20" s="3">
+        <v>11.5152</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5.7835000000000001</v>
+      </c>
+      <c r="E20" s="3">
+        <v>11.530900000000001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5.7659000000000002</v>
+      </c>
+      <c r="G20" s="3">
+        <v>11.5069</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2.9093</v>
+      </c>
+      <c r="I20" s="3">
+        <v>11.5305</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2.883</v>
+      </c>
+      <c r="K20" s="3">
+        <v>11.5235</v>
+      </c>
+      <c r="L20" s="3">
+        <v>8.6577000000000002</v>
+      </c>
+      <c r="M20" s="3">
+        <v>11.5314</v>
+      </c>
+      <c r="N20" s="3">
+        <v>8.6488999999999994</v>
+      </c>
+      <c r="O20" s="3">
+        <v>11.5402</v>
+      </c>
+      <c r="P20" s="3">
+        <v>14.406000000000001</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>11.532299999999999</v>
+      </c>
+      <c r="R20" s="3">
+        <v>14.4148</v>
+      </c>
+      <c r="S20" s="3">
+        <v>11.5318</v>
+      </c>
+      <c r="T20" s="3">
+        <v>11.5204</v>
+      </c>
+      <c r="U20" s="3">
         <v>11.5319</v>
       </c>
-      <c r="V18" s="3">
-        <v>11.508599999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="V20" s="3">
+        <v>11.520300000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
         <v>10.511709</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C22" s="1">
         <v>10.606191000000001</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D22" s="1">
         <v>10.183984000000001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E22" s="1">
         <v>10.512212</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F22" s="1">
         <v>10.121859000000001</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G22" s="1">
         <v>10.623476999999999</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I22" s="1">
         <v>10.512638000000001</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K22" s="1">
         <v>10.546491</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L22" s="1">
         <v>10.453250000000001</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M22" s="1">
         <v>10.512064000000001</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N22" s="1">
         <v>10.442306500000001</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O22" s="1">
         <v>10.476487000000001</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P22" s="1">
         <v>10.4758</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q22" s="1">
         <v>10.511231</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R22" s="1">
         <v>10.455652000000001</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S22" s="1">
         <v>10.511894</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T22" s="1">
         <v>10.511896</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U22" s="1">
         <v>10.511658000000001</v>
-      </c>
-      <c r="V20" s="1">
-        <v>10.511988000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="V21" s="1">
-        <v>0.29007253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.4864</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.4899</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.47410000000000002</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.4864</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.4718</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.49059999999999998</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.4864</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.48770000000000002</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.48770000000000002</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.4864</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.48380000000000001</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0.48509999999999998</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0.4864</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0.48430000000000001</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0.4864</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0.4864</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0.4864</v>
       </c>
       <c r="V22" s="1">
         <v>10.511988000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.29007253</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.29007253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.4864</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.4899</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.47410000000000002</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.4864</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.4718</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.49059999999999998</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.4864</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.48770000000000002</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.48770000000000002</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.4864</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.48380000000000001</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.48509999999999998</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.4864</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.48430000000000001</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.4864</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.4864</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0.4864</v>
+      </c>
+      <c r="V24" s="1">
+        <v>10.511988000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
         <v>0.60530806000000004</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C25" s="1">
         <v>0.60672959999999998</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="1">
         <v>0.40722406</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E25" s="1">
         <v>0.60585829999999996</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F25" s="1">
         <v>0.38986418</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G25" s="1">
         <v>0.62131625000000001</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I25" s="1">
         <v>0.60610549999999996</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K25" s="1">
         <v>0.61175597000000004</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L25" s="1">
         <v>0.52608319999999997</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M25" s="1">
         <v>0.60557395000000003</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N25" s="1">
         <v>0.51828969999999996</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O25" s="1">
         <v>0.60281085999999995</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P25" s="1">
         <v>0.60864339999999995</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q25" s="1">
         <v>0.60507619999999995</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R25" s="1">
         <v>0.60420436</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S25" s="1">
         <v>0.60536160000000006</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T25" s="1">
         <v>0.60522880000000001</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U25" s="1">
         <v>0.6053636</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V25" s="1">
         <v>0.60534980000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1">
-        <v>6</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3.2275999999999998</v>
-      </c>
-      <c r="G24" s="1">
-        <v>6</v>
-      </c>
-      <c r="I24" s="1">
-        <v>6</v>
-      </c>
-      <c r="K24" s="1">
-        <v>6</v>
-      </c>
-      <c r="L24" s="1">
-        <v>5.0797999999999996</v>
-      </c>
-      <c r="M24" s="1">
-        <v>6</v>
-      </c>
-      <c r="N24" s="1">
-        <v>5.0389999999999997</v>
-      </c>
-      <c r="O24" s="1">
-        <v>6</v>
-      </c>
-      <c r="P24" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>6</v>
-      </c>
-      <c r="R24" s="1">
-        <v>6</v>
-      </c>
-      <c r="S24" s="1">
-        <v>6</v>
-      </c>
-      <c r="T24" s="1">
-        <v>6</v>
-      </c>
-      <c r="U24" s="1">
-        <v>6</v>
-      </c>
-      <c r="V24" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1">
-        <v>6</v>
-      </c>
-      <c r="F25" s="1">
-        <v>6</v>
-      </c>
-      <c r="G25" s="1">
-        <v>6</v>
-      </c>
-      <c r="I25" s="1">
-        <v>6</v>
-      </c>
-      <c r="K25" s="1">
-        <v>6</v>
-      </c>
-      <c r="L25" s="1">
-        <v>6</v>
-      </c>
-      <c r="M25" s="1">
-        <v>6</v>
-      </c>
-      <c r="N25" s="1">
-        <v>6</v>
-      </c>
-      <c r="O25" s="1">
-        <v>6</v>
-      </c>
-      <c r="P25" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>6</v>
-      </c>
-      <c r="R25" s="1">
-        <v>6</v>
-      </c>
-      <c r="S25" s="1">
-        <v>6</v>
-      </c>
-      <c r="T25" s="1">
-        <v>6</v>
-      </c>
-      <c r="U25" s="1">
-        <v>6</v>
-      </c>
-      <c r="V25" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1">
-        <v>6.7760999999999996</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
-        <v>6.8377999999999997</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1">
-        <v>6.4893999999999998</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1">
-        <v>6.7252000000000001</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1">
         <v>3.2275999999999998</v>
       </c>
       <c r="G26" s="1">
-        <v>6.8437999999999999</v>
+        <v>6</v>
       </c>
       <c r="I26" s="1">
-        <v>6.6997999999999998</v>
+        <v>6</v>
       </c>
       <c r="K26" s="1">
-        <v>6.7965999999999998</v>
+        <v>6</v>
       </c>
       <c r="L26" s="1">
         <v>5.0797999999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>6.7507000000000001</v>
+        <v>6</v>
       </c>
       <c r="N26" s="1">
         <v>5.0389999999999997</v>
       </c>
       <c r="O26" s="1">
+        <v>6</v>
+      </c>
+      <c r="P26" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>6</v>
+      </c>
+      <c r="R26" s="1">
+        <v>6</v>
+      </c>
+      <c r="S26" s="1">
+        <v>6</v>
+      </c>
+      <c r="T26" s="1">
+        <v>6</v>
+      </c>
+      <c r="U26" s="1">
+        <v>6</v>
+      </c>
+      <c r="V26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1">
+        <v>6</v>
+      </c>
+      <c r="K27" s="1">
+        <v>6</v>
+      </c>
+      <c r="L27" s="1">
+        <v>6</v>
+      </c>
+      <c r="M27" s="1">
+        <v>6</v>
+      </c>
+      <c r="N27" s="1">
+        <v>6</v>
+      </c>
+      <c r="O27" s="1">
+        <v>6</v>
+      </c>
+      <c r="P27" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>6</v>
+      </c>
+      <c r="R27" s="1">
+        <v>6</v>
+      </c>
+      <c r="S27" s="1">
+        <v>6</v>
+      </c>
+      <c r="T27" s="1">
+        <v>6</v>
+      </c>
+      <c r="U27" s="1">
+        <v>6</v>
+      </c>
+      <c r="V27" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6.8377999999999997</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6.4893999999999998</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6.7252000000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3.2275999999999998</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6.8437999999999999</v>
+      </c>
+      <c r="I28" s="1">
+        <v>6.6997999999999998</v>
+      </c>
+      <c r="K28" s="1">
+        <v>6.7965999999999998</v>
+      </c>
+      <c r="L28" s="1">
+        <v>5.0797999999999996</v>
+      </c>
+      <c r="M28" s="1">
+        <v>6.7507000000000001</v>
+      </c>
+      <c r="N28" s="1">
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="O28" s="1">
         <v>6.7553000000000001</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P28" s="1">
         <v>8.3989999999999991</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q28" s="1">
         <v>6.8014000000000001</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R28" s="1">
         <v>8.4122000000000003</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S28" s="1">
         <v>6.7762000000000002</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T28" s="1">
         <v>6.7695999999999996</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U28" s="1">
         <v>6.7950999999999997</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V28" s="1">
         <v>6.7763</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6.8544999999999998</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6.5061</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6.7765000000000004</v>
+      </c>
+      <c r="F29" s="1">
+        <v>6.4551999999999996</v>
+      </c>
+      <c r="G29" s="1">
+        <v>6.8688000000000002</v>
+      </c>
+      <c r="I29" s="1">
+        <v>6.7769000000000004</v>
+      </c>
+      <c r="K29" s="1">
+        <v>6.8048999999999999</v>
+      </c>
+      <c r="L29" s="1">
+        <v>6.7278000000000002</v>
+      </c>
+      <c r="M29" s="1">
+        <v>6.7763999999999998</v>
+      </c>
+      <c r="N29" s="1">
+        <v>6.7187000000000001</v>
+      </c>
+      <c r="O29" s="1">
+        <v>6.7469999999999999</v>
+      </c>
+      <c r="P29" s="1">
+        <v>6.7464000000000004</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>6.7756999999999996</v>
+      </c>
+      <c r="R29" s="1">
+        <v>6.7297000000000002</v>
+      </c>
+      <c r="S29" s="1">
+        <v>6.7763</v>
+      </c>
+      <c r="T29" s="1">
+        <v>6.7763</v>
+      </c>
+      <c r="U29" s="1">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="V29" s="1">
+        <v>6.7695999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="6">
+        <v>10.511709</v>
+      </c>
+      <c r="C31" s="6">
+        <f>C22</f>
+        <v>10.606191000000001</v>
+      </c>
+      <c r="D31" s="6">
+        <f>D22 * D3</f>
+        <v>5.0919920000000003</v>
+      </c>
+      <c r="E31" s="6">
+        <f>E22</f>
+        <v>10.512212</v>
+      </c>
+      <c r="F31" s="6">
+        <f>F22 * F2</f>
+        <v>5.0609295000000003</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" ref="G31" si="2">G22</f>
+        <v>10.623476999999999</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.6282000000000001</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" ref="I31" si="3">I22</f>
+        <v>10.512638000000001</v>
+      </c>
+      <c r="J31" s="6">
+        <v>2.6282000000000001</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" ref="K31" si="4">K22</f>
+        <v>10.546491</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" ref="L31" si="5">L22 * L3</f>
+        <v>7.8399375000000004</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" ref="M31" si="6">M22</f>
+        <v>10.512064000000001</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" ref="N31" si="7">N22 * N2</f>
+        <v>7.8317298750000006</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" ref="O31" si="8">O22</f>
+        <v>10.476487000000001</v>
+      </c>
+      <c r="P31" s="6">
+        <f t="shared" ref="P31" si="9">P22 * P3</f>
+        <v>13.094749999999999</v>
+      </c>
+      <c r="Q31" s="6">
+        <f t="shared" ref="Q31" si="10">Q22</f>
+        <v>10.511231</v>
+      </c>
+      <c r="R31" s="6">
+        <f t="shared" ref="R31" si="11">R22 * R2</f>
+        <v>13.069565000000001</v>
+      </c>
+      <c r="S31" s="6">
+        <f t="shared" ref="S31" si="12">S22</f>
+        <v>10.511894</v>
+      </c>
+      <c r="T31" s="6">
+        <f t="shared" ref="T31" si="13">T22 * T3</f>
+        <v>10.501384104</v>
+      </c>
+      <c r="U31" s="6">
+        <f t="shared" ref="U31" si="14">U22</f>
+        <v>10.511658000000001</v>
+      </c>
+      <c r="V31" s="6">
+        <f t="shared" ref="V31" si="15">V22 * V2</f>
+        <v>10.501476012000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="1">
-        <v>6.7760999999999996</v>
-      </c>
-      <c r="C27" s="1">
-        <v>6.8544999999999998</v>
-      </c>
-      <c r="D27" s="1">
-        <v>6.5061</v>
-      </c>
-      <c r="E27" s="1">
-        <v>6.7765000000000004</v>
-      </c>
-      <c r="F27" s="1">
-        <v>6.4551999999999996</v>
-      </c>
-      <c r="G27" s="1">
-        <v>6.8688000000000002</v>
-      </c>
-      <c r="I27" s="1">
-        <v>6.7769000000000004</v>
-      </c>
-      <c r="K27" s="1">
-        <v>6.8048999999999999</v>
-      </c>
-      <c r="L27" s="1">
-        <v>6.7278000000000002</v>
-      </c>
-      <c r="M27" s="1">
-        <v>6.7763999999999998</v>
-      </c>
-      <c r="N27" s="1">
-        <v>6.7187000000000001</v>
-      </c>
-      <c r="O27" s="1">
-        <v>6.7469999999999999</v>
-      </c>
-      <c r="P27" s="1">
-        <v>6.7464000000000004</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>6.7756999999999996</v>
-      </c>
-      <c r="R27" s="1">
-        <v>6.7297000000000002</v>
-      </c>
-      <c r="S27" s="1">
-        <v>6.7763</v>
-      </c>
-      <c r="T27" s="1">
-        <v>6.7763</v>
-      </c>
-      <c r="U27" s="1">
-        <v>6.7760999999999996</v>
-      </c>
-      <c r="V27" s="1">
-        <v>6.7695999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="4">
-        <v>10.511709</v>
-      </c>
-      <c r="C29" s="4">
-        <f>C20</f>
-        <v>10.606191000000001</v>
-      </c>
-      <c r="D29" s="4">
-        <f>D20 * D3</f>
-        <v>5.0919920000000003</v>
-      </c>
-      <c r="E29" s="4">
-        <f>E20</f>
-        <v>10.512212</v>
-      </c>
-      <c r="F29" s="4">
-        <f>F20 * F2</f>
-        <v>5.0609295000000003</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" ref="G29:V29" si="2">G20</f>
-        <v>10.623476999999999</v>
-      </c>
-      <c r="H29" s="4">
-        <v>2.6282000000000001</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" ref="I29:V29" si="3">I20</f>
-        <v>10.512638000000001</v>
-      </c>
-      <c r="J29" s="4">
-        <v>2.6282000000000001</v>
-      </c>
-      <c r="K29" s="4">
-        <f t="shared" ref="K29:V29" si="4">K20</f>
-        <v>10.546491</v>
-      </c>
-      <c r="L29" s="4">
-        <f t="shared" ref="L29:V29" si="5">L20 * L3</f>
-        <v>7.8399375000000004</v>
-      </c>
-      <c r="M29" s="4">
-        <f t="shared" ref="M29:V29" si="6">M20</f>
-        <v>10.512064000000001</v>
-      </c>
-      <c r="N29" s="4">
-        <f t="shared" ref="N29:V29" si="7">N20 * N2</f>
-        <v>7.8317298750000006</v>
-      </c>
-      <c r="O29" s="4">
-        <f t="shared" ref="O29:V29" si="8">O20</f>
-        <v>10.476487000000001</v>
-      </c>
-      <c r="P29" s="4">
-        <f t="shared" ref="P29:V29" si="9">P20 * P3</f>
-        <v>13.094749999999999</v>
-      </c>
-      <c r="Q29" s="4">
-        <f t="shared" ref="Q29:V29" si="10">Q20</f>
-        <v>10.511231</v>
-      </c>
-      <c r="R29" s="4">
-        <f t="shared" ref="R29:V29" si="11">R20 * R2</f>
-        <v>13.069565000000001</v>
-      </c>
-      <c r="S29" s="4">
-        <f t="shared" ref="S29:V29" si="12">S20</f>
-        <v>10.511894</v>
-      </c>
-      <c r="T29" s="4">
-        <f t="shared" ref="T29:V29" si="13">T20 * T3</f>
-        <v>10.501384104</v>
-      </c>
-      <c r="U29" s="4">
-        <f t="shared" ref="U29:V29" si="14">U20</f>
-        <v>10.511658000000001</v>
-      </c>
-      <c r="V29" s="4">
-        <f t="shared" ref="V29" si="15">V20 * V2</f>
-        <v>10.501476012000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="4">
+      <c r="B32" s="6">
         <v>0.29007253</v>
       </c>
-      <c r="C30" s="4">
-        <f>C21</f>
+      <c r="C32" s="6">
+        <f>C23</f>
         <v>0.29007253</v>
       </c>
-      <c r="D30" s="4">
-        <f>D21</f>
+      <c r="D32" s="6">
+        <f>D23</f>
         <v>0.29007253</v>
       </c>
-      <c r="E30" s="4">
-        <f>E21 * E4</f>
+      <c r="E32" s="6">
+        <f>E23 * E4</f>
         <v>0.145036265</v>
       </c>
-      <c r="F30" s="4">
-        <f>F21 * F4</f>
+      <c r="F32" s="6">
+        <f>F23 * F4</f>
         <v>0.145036265</v>
       </c>
-      <c r="G30" s="4">
-        <f t="shared" ref="G30:V30" si="16">G21</f>
+      <c r="G32" s="6">
+        <f t="shared" ref="G32:H32" si="16">G23</f>
         <v>0.29007253</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H32" s="6">
         <f t="shared" si="16"/>
         <v>0.29007253</v>
       </c>
-      <c r="I30" s="4">
-        <f t="shared" ref="I30:V30" si="17">I21 * I4</f>
+      <c r="I32" s="6">
+        <f t="shared" ref="I32:J32" si="17">I23 * I4</f>
         <v>7.2518132499999999E-2</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J32" s="6">
         <f t="shared" si="17"/>
         <v>7.2518132499999999E-2</v>
       </c>
-      <c r="K30" s="4">
-        <f t="shared" ref="K30:V30" si="18">K21</f>
+      <c r="K32" s="6">
+        <f t="shared" ref="K32:L32" si="18">K23</f>
         <v>0.29007253</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L32" s="6">
         <f t="shared" si="18"/>
         <v>0.29007253</v>
       </c>
-      <c r="M30" s="4">
-        <f t="shared" ref="M30:V30" si="19">M21 * M4</f>
+      <c r="M32" s="6">
+        <f t="shared" ref="M32:N32" si="19">M23 * M4</f>
         <v>0.2175543975</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N32" s="6">
         <f t="shared" si="19"/>
         <v>0.2175543975</v>
       </c>
-      <c r="O30" s="4">
-        <f t="shared" ref="O30:V30" si="20">O21</f>
+      <c r="O32" s="6">
+        <f t="shared" ref="O32:P32" si="20">O23</f>
         <v>0.29007253</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P32" s="6">
         <f t="shared" si="20"/>
         <v>0.29007253</v>
       </c>
-      <c r="Q30" s="4">
-        <f t="shared" ref="Q30:V30" si="21">Q21 * Q4</f>
+      <c r="Q32" s="6">
+        <f t="shared" ref="Q32:R32" si="21">Q23 * Q4</f>
         <v>0.36259066249999999</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R32" s="6">
         <f t="shared" si="21"/>
         <v>0.36259066249999999</v>
       </c>
-      <c r="S30" s="4">
-        <f t="shared" ref="S30:V30" si="22">S21</f>
+      <c r="S32" s="6">
+        <f t="shared" ref="S32:T32" si="22">S23</f>
         <v>0.29007253</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T32" s="6">
         <f t="shared" si="22"/>
         <v>0.29007253</v>
       </c>
-      <c r="U30" s="4">
-        <f t="shared" ref="U30:V30" si="23">U21 * U4</f>
+      <c r="U32" s="6">
+        <f t="shared" ref="U32:V32" si="23">U23 * U4</f>
         <v>0.28978245746999998</v>
       </c>
-      <c r="V30" s="4">
+      <c r="V32" s="6">
         <f t="shared" si="23"/>
         <v>0.28978245746999998</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="4">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C33" s="6">
         <f>6.5556 * C2</f>
         <v>3.2778</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D33" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E33" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F33" s="6">
         <f>6.5556 * F2</f>
         <v>3.2778</v>
       </c>
-      <c r="G31" s="4">
-        <f t="shared" ref="G31:V31" si="24">6.5556 * G2</f>
+      <c r="G33" s="6">
+        <f t="shared" ref="G33" si="24">6.5556 * G2</f>
         <v>1.6389</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H33" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I33" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="J31" s="4">
-        <f t="shared" ref="J31:V31" si="25">6.5556 * J2</f>
+      <c r="J33" s="6">
+        <f t="shared" ref="J33:K33" si="25">6.5556 * J2</f>
         <v>1.6389</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K33" s="6">
         <f t="shared" si="25"/>
         <v>4.9167000000000005</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L33" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M33" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="N31" s="4">
-        <f t="shared" ref="N31:V31" si="26">6.5556 * N2</f>
+      <c r="N33" s="6">
+        <f t="shared" ref="N33:O33" si="26">6.5556 * N2</f>
         <v>4.9167000000000005</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O33" s="6">
         <f t="shared" si="26"/>
         <v>8.1944999999999997</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P33" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q33" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="R31" s="4">
-        <f t="shared" ref="R31:V31" si="27">6.5556 * R2</f>
+      <c r="R33" s="6">
+        <f t="shared" ref="R33:S33" si="27">6.5556 * R2</f>
         <v>8.1944999999999997</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S33" s="6">
         <f t="shared" si="27"/>
         <v>6.5490443999999997</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T33" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="U31" s="4">
+      <c r="U33" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="V31" s="4">
-        <f t="shared" ref="V31" si="28">6.5556 * V2</f>
+      <c r="V33" s="6">
+        <f t="shared" ref="V33" si="28">6.5556 * V2</f>
         <v>6.5490443999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="6">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="C34" s="6">
+        <v>3.4272</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2.7039</v>
+      </c>
+      <c r="E34" s="6">
+        <v>6.6994999999999996</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1.3030999999999999</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1.7172000000000001</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1.2151000000000001</v>
+      </c>
+      <c r="I34" s="6">
+        <v>6.6806000000000001</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.2797</v>
+      </c>
+      <c r="K34" s="6">
+        <v>5.1036999999999999</v>
+      </c>
+      <c r="L34" s="6">
+        <v>4.657</v>
+      </c>
+      <c r="M34" s="6">
+        <v>6.7314999999999996</v>
+      </c>
+      <c r="N34" s="6">
+        <v>3.4544000000000001</v>
+      </c>
+      <c r="O34" s="6">
+        <v>8.4337</v>
+      </c>
+      <c r="P34" s="6">
+        <v>8.9923000000000002</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>6.8334999999999999</v>
+      </c>
+      <c r="R34" s="6">
+        <v>11.284700000000001</v>
+      </c>
+      <c r="S34" s="6">
+        <v>6.7694999999999999</v>
+      </c>
+      <c r="T34" s="6">
+        <v>6.7675999999999998</v>
+      </c>
+      <c r="U34" s="6">
+        <v>6.7759</v>
+      </c>
+      <c r="V34" s="6">
+        <v>6.7606999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B36" s="4">
         <v>6.7760999999999996</v>
       </c>
-      <c r="C32" s="4">
-        <v>3.4272</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2.7039</v>
-      </c>
-      <c r="E32" s="4">
-        <v>6.6994999999999996</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1.3030999999999999</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1.7172000000000001</v>
-      </c>
-      <c r="H32" s="4">
-        <v>1.2151000000000001</v>
-      </c>
-      <c r="I32" s="4">
-        <v>6.6806000000000001</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0.2797</v>
-      </c>
-      <c r="K32" s="4">
-        <v>5.1036999999999999</v>
-      </c>
-      <c r="L32" s="4">
-        <v>4.657</v>
-      </c>
-      <c r="M32" s="4">
-        <v>6.7314999999999996</v>
-      </c>
-      <c r="N32" s="4">
-        <v>3.4544000000000001</v>
-      </c>
-      <c r="O32" s="4">
-        <v>8.4337</v>
-      </c>
-      <c r="P32" s="4">
-        <v>8.9923000000000002</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>6.8334999999999999</v>
-      </c>
-      <c r="R32" s="4">
-        <v>11.284700000000001</v>
-      </c>
-      <c r="S32" s="4">
+      <c r="C36" s="4">
+        <v>6.7595000000000001</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3.4561000000000002</v>
+      </c>
+      <c r="E36" s="4">
+        <v>6.7247000000000003</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3.3881000000000001</v>
+      </c>
+      <c r="G36" s="4">
+        <v>6.7511000000000001</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1.7961</v>
+      </c>
+      <c r="I36" s="4">
+        <v>6.6990999999999996</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1.694</v>
+      </c>
+      <c r="K36" s="4">
+        <v>6.7678000000000003</v>
+      </c>
+      <c r="L36" s="4">
+        <v>5.1161000000000003</v>
+      </c>
+      <c r="M36" s="4">
+        <v>6.7504</v>
+      </c>
+      <c r="N36" s="4">
+        <v>5.0820999999999996</v>
+      </c>
+      <c r="O36" s="4">
+        <v>6.7843999999999998</v>
+      </c>
+      <c r="P36" s="4">
+        <v>8.4360999999999997</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>6.8018000000000001</v>
+      </c>
+      <c r="R36" s="4">
+        <v>8.4701000000000004</v>
+      </c>
+      <c r="S36" s="4">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="T36" s="4">
         <v>6.7694999999999999</v>
       </c>
-      <c r="T32" s="4">
-        <v>6.7675999999999998</v>
-      </c>
-      <c r="U32" s="4">
-        <v>6.7759</v>
-      </c>
-      <c r="V32" s="4">
-        <v>6.7606999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="U36" s="4">
+        <v>6.7759999999999998</v>
+      </c>
+      <c r="V36" s="4">
+        <v>6.7693000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1">
         <v>10.088276</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C38" s="1">
         <v>10.172914499999999</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E38" s="1">
         <v>10.088552</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G38" s="1">
         <v>10.184378000000001</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I38" s="1">
         <v>10.088162000000001</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K38" s="1">
         <v>10.125124</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L38" s="1">
         <v>9.9728750000000002</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M38" s="1">
         <v>10.088305999999999</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N38" s="1">
         <v>10.026384</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O38" s="1">
         <v>10.053661999999999</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P38" s="1">
         <v>10.116463</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q38" s="1">
         <v>10.088471999999999</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R38" s="1">
         <v>10.095207</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S38" s="1">
         <v>10.088437000000001</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T38" s="1">
         <v>10.088939</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U38" s="1">
         <v>10.088243</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V38" s="1">
         <v>10.089027</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="1">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="S35" s="1">
+      <c r="S39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="T35" s="1">
+      <c r="T39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="U35" s="1">
+      <c r="U39" s="1">
         <v>0.34060466</v>
       </c>
-      <c r="V35" s="1">
+      <c r="V39" s="1">
         <v>0.34060466</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="1">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C40" s="1">
         <v>0.48820000000000002</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E40" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G40" s="1">
         <v>0.4884</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I40" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K40" s="1">
         <v>0.48620000000000002</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L40" s="1">
         <v>0.48049999999999998</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M40" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N40" s="1">
         <v>0.48249999999999998</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O40" s="1">
         <v>0.48349999999999999</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P40" s="1">
         <v>0.4859</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q40" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R40" s="1">
         <v>0.48509999999999998</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S40" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="T36" s="1">
+      <c r="T40" s="1">
         <v>0.4849</v>
       </c>
-      <c r="U36" s="1">
+      <c r="U40" s="1">
         <v>0.48480000000000001</v>
       </c>
-      <c r="V36" s="1">
+      <c r="V40" s="1">
         <v>0.4849</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="1">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="1">
         <v>0.68085600000000002</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C41" s="1">
         <v>0.64096624000000002</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E41" s="1">
         <v>0.6803785</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G41" s="1">
         <v>0.60257470000000002</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I41" s="1">
         <v>0.68052029999999997</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K41" s="1">
         <v>0.65760960000000002</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L41" s="1">
         <v>0.62494479999999997</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M41" s="1">
         <v>0.68055220000000005</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N41" s="1">
         <v>0.60391843000000001</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O41" s="1">
         <v>0.67636067</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P41" s="1">
         <v>0.78299266000000001</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q41" s="1">
         <v>0.68069259999999998</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R41" s="1">
         <v>0.75873279999999999</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S41" s="1">
         <v>0.68084513999999996</v>
       </c>
-      <c r="T37" s="1">
+      <c r="T41" s="1">
         <v>0.67894129999999997</v>
       </c>
-      <c r="U37" s="1">
+      <c r="U41" s="1">
         <v>0.68056333000000002</v>
       </c>
-      <c r="V37" s="1">
+      <c r="V41" s="1">
         <v>0.67868139999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1">
+        <v>6</v>
+      </c>
+      <c r="J42" s="1">
+        <v>6</v>
+      </c>
+      <c r="K42" s="1">
+        <v>6</v>
+      </c>
+      <c r="L42" s="1">
+        <v>4.8231000000000002</v>
+      </c>
+      <c r="M42" s="1">
+        <v>6</v>
+      </c>
+      <c r="N42" s="1">
+        <v>4.8121</v>
+      </c>
+      <c r="O42" s="1">
+        <v>6</v>
+      </c>
+      <c r="P42" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>6</v>
+      </c>
+      <c r="R42" s="1">
+        <v>6</v>
+      </c>
+      <c r="S42" s="1">
+        <v>6</v>
+      </c>
+      <c r="T42" s="1">
+        <v>6</v>
+      </c>
+      <c r="U42" s="1">
+        <v>6</v>
+      </c>
+      <c r="V42" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6</v>
+      </c>
+      <c r="G43" s="1">
+        <v>6</v>
+      </c>
+      <c r="H43" s="1">
+        <v>6</v>
+      </c>
+      <c r="I43" s="1">
+        <v>6</v>
+      </c>
+      <c r="J43" s="1">
+        <v>6</v>
+      </c>
+      <c r="K43" s="1">
+        <v>6</v>
+      </c>
+      <c r="L43" s="1">
+        <v>6</v>
+      </c>
+      <c r="M43" s="1">
+        <v>6</v>
+      </c>
+      <c r="N43" s="1">
+        <v>6</v>
+      </c>
+      <c r="O43" s="1">
+        <v>6</v>
+      </c>
+      <c r="P43" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>6</v>
+      </c>
+      <c r="R43" s="1">
+        <v>6</v>
+      </c>
+      <c r="S43" s="1">
+        <v>6</v>
+      </c>
+      <c r="T43" s="1">
+        <v>6</v>
+      </c>
+      <c r="U43" s="1">
+        <v>6</v>
+      </c>
+      <c r="V43" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="1">
+        <v>6.4665999999999997</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6.5193000000000003</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6.3959999999999999</v>
+      </c>
+      <c r="G44" s="1">
+        <v>6.5202999999999998</v>
+      </c>
+      <c r="I44" s="1">
+        <v>6.3602999999999996</v>
+      </c>
+      <c r="K44" s="1">
+        <v>6.4885000000000002</v>
+      </c>
+      <c r="L44" s="1">
+        <v>4.8231000000000002</v>
+      </c>
+      <c r="M44" s="1">
+        <v>6.4313000000000002</v>
+      </c>
+      <c r="N44" s="1">
+        <v>4.8121</v>
+      </c>
+      <c r="O44" s="1">
+        <v>6.4466999999999999</v>
+      </c>
+      <c r="P44" s="1">
+        <v>8.0684000000000005</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>6.5022000000000002</v>
+      </c>
+      <c r="R44" s="1">
+        <v>8.0904000000000007</v>
+      </c>
+      <c r="S44" s="1">
+        <v>6.4667000000000003</v>
+      </c>
+      <c r="T44" s="1">
+        <v>6.4608999999999996</v>
+      </c>
+      <c r="U44" s="1">
+        <v>6.4664999999999999</v>
+      </c>
+      <c r="V44" s="1">
+        <v>6.4607999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="1">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1">
-        <v>6</v>
-      </c>
-      <c r="F38" s="1">
-        <v>6</v>
-      </c>
-      <c r="G38" s="1">
-        <v>6</v>
-      </c>
-      <c r="H38" s="1">
-        <v>6</v>
-      </c>
-      <c r="I38" s="1">
-        <v>6</v>
-      </c>
-      <c r="J38" s="1">
-        <v>6</v>
-      </c>
-      <c r="K38" s="1">
-        <v>6</v>
-      </c>
-      <c r="L38" s="1">
-        <v>4.8231000000000002</v>
-      </c>
-      <c r="M38" s="1">
-        <v>6</v>
-      </c>
-      <c r="N38" s="1">
-        <v>4.8121</v>
-      </c>
-      <c r="O38" s="1">
-        <v>6</v>
-      </c>
-      <c r="P38" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>6</v>
-      </c>
-      <c r="R38" s="1">
-        <v>6</v>
-      </c>
-      <c r="S38" s="1">
-        <v>6</v>
-      </c>
-      <c r="T38" s="1">
-        <v>6</v>
-      </c>
-      <c r="U38" s="1">
-        <v>6</v>
-      </c>
-      <c r="V38" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B45" s="5">
+        <v>6.4665999999999997</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6.5358999999999998</v>
+      </c>
+      <c r="E45" s="1">
+        <v>6.4668999999999999</v>
+      </c>
+      <c r="G45" s="1">
+        <v>6.5453000000000001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>6.4664999999999999</v>
+      </c>
+      <c r="K45" s="1">
+        <v>6.4968000000000004</v>
+      </c>
+      <c r="L45" s="1">
+        <v>6.3724999999999996</v>
+      </c>
+      <c r="M45" s="1">
+        <v>6.4667000000000003</v>
+      </c>
+      <c r="N45" s="1">
+        <v>6.4161000000000001</v>
+      </c>
+      <c r="O45" s="1">
+        <v>6.4383999999999997</v>
+      </c>
+      <c r="P45" s="1">
+        <v>6.4897</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>6.4668000000000001</v>
+      </c>
+      <c r="R45" s="1">
+        <v>6.4722999999999997</v>
+      </c>
+      <c r="S45" s="1">
+        <v>6.4668000000000001</v>
+      </c>
+      <c r="T45" s="1">
+        <v>6.4672000000000001</v>
+      </c>
+      <c r="U45" s="1">
+        <v>6.4665999999999997</v>
+      </c>
+      <c r="V45" s="1">
+        <v>6.4672999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="1">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1">
-        <v>6</v>
-      </c>
-      <c r="E39" s="1">
-        <v>6</v>
-      </c>
-      <c r="F39" s="1">
-        <v>6</v>
-      </c>
-      <c r="G39" s="1">
-        <v>6</v>
-      </c>
-      <c r="H39" s="1">
-        <v>6</v>
-      </c>
-      <c r="I39" s="1">
-        <v>6</v>
-      </c>
-      <c r="J39" s="1">
-        <v>6</v>
-      </c>
-      <c r="K39" s="1">
-        <v>6</v>
-      </c>
-      <c r="L39" s="1">
-        <v>6</v>
-      </c>
-      <c r="M39" s="1">
-        <v>6</v>
-      </c>
-      <c r="N39" s="1">
-        <v>6</v>
-      </c>
-      <c r="O39" s="1">
-        <v>6</v>
-      </c>
-      <c r="P39" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>6</v>
-      </c>
-      <c r="R39" s="1">
-        <v>6</v>
-      </c>
-      <c r="S39" s="1">
-        <v>6</v>
-      </c>
-      <c r="T39" s="1">
-        <v>6</v>
-      </c>
-      <c r="U39" s="1">
-        <v>6</v>
-      </c>
-      <c r="V39" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="1">
-        <v>6.4665999999999997</v>
-      </c>
-      <c r="C40" s="1">
-        <v>6.5193000000000003</v>
-      </c>
-      <c r="E40" s="1">
-        <v>6.3959999999999999</v>
-      </c>
-      <c r="G40" s="1">
-        <v>6.5202999999999998</v>
-      </c>
-      <c r="I40" s="1">
-        <v>6.3602999999999996</v>
-      </c>
-      <c r="K40" s="1">
-        <v>6.4885000000000002</v>
-      </c>
-      <c r="L40" s="1">
-        <v>4.8231000000000002</v>
-      </c>
-      <c r="M40" s="1">
-        <v>6.4313000000000002</v>
-      </c>
-      <c r="N40" s="1">
-        <v>4.8121</v>
-      </c>
-      <c r="O40" s="1">
-        <v>6.4466999999999999</v>
-      </c>
-      <c r="P40" s="1">
-        <v>8.0684000000000005</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>6.5022000000000002</v>
-      </c>
-      <c r="R40" s="1">
-        <v>8.0904000000000007</v>
-      </c>
-      <c r="S40" s="1">
-        <v>6.4667000000000003</v>
-      </c>
-      <c r="T40" s="1">
-        <v>6.4608999999999996</v>
-      </c>
-      <c r="U40" s="1">
-        <v>6.4664999999999999</v>
-      </c>
-      <c r="V40" s="1">
-        <v>6.4607999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="B47" s="8">
+        <v>10.0883</v>
+      </c>
+      <c r="C47" s="6">
+        <f>C38</f>
+        <v>10.172914499999999</v>
+      </c>
+      <c r="D47" s="6">
+        <v>5.0442999999999998</v>
+      </c>
+      <c r="E47" s="6">
+        <f>E38</f>
+        <v>10.088552</v>
+      </c>
+      <c r="F47" s="6">
+        <v>5.0922000000000001</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" ref="G47" si="29">G38</f>
+        <v>10.184378000000001</v>
+      </c>
+      <c r="H47" s="6">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="I47" s="6">
+        <f t="shared" ref="I47" si="30">I38</f>
+        <v>10.088162000000001</v>
+      </c>
+      <c r="J47" s="6">
+        <v>2.5312999999999999</v>
+      </c>
+      <c r="K47" s="6">
+        <f t="shared" ref="K47" si="31">K38</f>
+        <v>10.125124</v>
+      </c>
+      <c r="L47" s="6">
+        <f t="shared" ref="L47" si="32">L38 * L3</f>
+        <v>7.4796562499999997</v>
+      </c>
+      <c r="M47" s="6">
+        <f t="shared" ref="M47" si="33">M38</f>
+        <v>10.088305999999999</v>
+      </c>
+      <c r="N47" s="6">
+        <f t="shared" ref="N47" si="34">N38 * N3</f>
+        <v>7.5197880000000001</v>
+      </c>
+      <c r="O47" s="6">
+        <f t="shared" ref="O47" si="35">O38</f>
+        <v>10.053661999999999</v>
+      </c>
+      <c r="P47" s="6">
+        <f t="shared" ref="P47" si="36">P38 * P3</f>
+        <v>12.645578749999999</v>
+      </c>
+      <c r="Q47" s="6">
+        <f t="shared" ref="Q47" si="37">Q38</f>
+        <v>10.088471999999999</v>
+      </c>
+      <c r="R47" s="6">
+        <f t="shared" ref="R47" si="38">R38 * R3</f>
+        <v>12.619008750000001</v>
+      </c>
+      <c r="S47" s="6">
+        <f t="shared" ref="S47" si="39">S38</f>
+        <v>10.088437000000001</v>
+      </c>
+      <c r="T47" s="6">
+        <f t="shared" ref="T47" si="40">T38 * T3</f>
+        <v>10.078850061000001</v>
+      </c>
+      <c r="U47" s="6">
+        <f t="shared" ref="U47" si="41">U38</f>
+        <v>10.088243</v>
+      </c>
+      <c r="V47" s="6">
+        <f>V38 * V3</f>
+        <v>10.078937973</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="5">
-        <v>6.4665999999999997</v>
-      </c>
-      <c r="C41" s="1">
-        <v>6.5358999999999998</v>
-      </c>
-      <c r="E41" s="1">
-        <v>6.4668999999999999</v>
-      </c>
-      <c r="G41" s="1">
-        <v>6.5453000000000001</v>
-      </c>
-      <c r="I41" s="1">
-        <v>6.4664999999999999</v>
-      </c>
-      <c r="K41" s="1">
-        <v>6.4968000000000004</v>
-      </c>
-      <c r="L41" s="1">
-        <v>6.3724999999999996</v>
-      </c>
-      <c r="M41" s="1">
-        <v>6.4667000000000003</v>
-      </c>
-      <c r="N41" s="1">
-        <v>6.4161000000000001</v>
-      </c>
-      <c r="O41" s="1">
-        <v>6.4383999999999997</v>
-      </c>
-      <c r="P41" s="1">
-        <v>6.4897</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>6.4668000000000001</v>
-      </c>
-      <c r="R41" s="1">
-        <v>6.4722999999999997</v>
-      </c>
-      <c r="S41" s="1">
-        <v>6.4668000000000001</v>
-      </c>
-      <c r="T41" s="1">
-        <v>6.4672000000000001</v>
-      </c>
-      <c r="U41" s="1">
-        <v>6.4665999999999997</v>
-      </c>
-      <c r="V41" s="1">
-        <v>6.4672999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B48" s="8">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="C48" s="6">
+        <f>C39</f>
+        <v>0.34060466</v>
+      </c>
+      <c r="D48" s="6">
+        <f>D39</f>
+        <v>0.34060466</v>
+      </c>
+      <c r="E48" s="6">
+        <f>E39 * E4</f>
+        <v>0.17030233</v>
+      </c>
+      <c r="F48" s="6">
+        <f>F39 * F4</f>
+        <v>0.17030233</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" ref="G48:H48" si="42">G39</f>
+        <v>0.34060466</v>
+      </c>
+      <c r="H48" s="6">
+        <f t="shared" si="42"/>
+        <v>0.34060466</v>
+      </c>
+      <c r="I48" s="6">
+        <f t="shared" ref="I48:J48" si="43">I39 * I4</f>
+        <v>8.5151165000000001E-2</v>
+      </c>
+      <c r="J48" s="6">
+        <f t="shared" si="43"/>
+        <v>8.5151165000000001E-2</v>
+      </c>
+      <c r="K48" s="6">
+        <f t="shared" ref="K48:L48" si="44">K39</f>
+        <v>0.34060466</v>
+      </c>
+      <c r="L48" s="6">
+        <f t="shared" si="44"/>
+        <v>0.34060466</v>
+      </c>
+      <c r="M48" s="6">
+        <f t="shared" ref="M48:N48" si="45">M39 * M4</f>
+        <v>0.25545349500000003</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" si="45"/>
+        <v>0.25545349500000003</v>
+      </c>
+      <c r="O48" s="6">
+        <f t="shared" ref="O48:P48" si="46">O39</f>
+        <v>0.34060466</v>
+      </c>
+      <c r="P48" s="6">
+        <f t="shared" si="46"/>
+        <v>0.34060466</v>
+      </c>
+      <c r="Q48" s="6">
+        <f t="shared" ref="Q48:R48" si="47">Q39 * Q4</f>
+        <v>0.42575582499999998</v>
+      </c>
+      <c r="R48" s="6">
+        <f t="shared" si="47"/>
+        <v>0.42575582499999998</v>
+      </c>
+      <c r="S48" s="6">
+        <f t="shared" ref="S48:T48" si="48">S39</f>
+        <v>0.34060466</v>
+      </c>
+      <c r="T48" s="6">
+        <f t="shared" si="48"/>
+        <v>0.34060466</v>
+      </c>
+      <c r="U48" s="6">
+        <f t="shared" ref="U48" si="49">U39 * U4</f>
+        <v>0.34026405533999998</v>
+      </c>
+      <c r="V48" s="6">
+        <f>V39 * V4</f>
+        <v>0.34026405533999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="6">
-        <v>10.0883</v>
-      </c>
-      <c r="C43" s="4">
-        <f>C34</f>
-        <v>10.172914499999999</v>
-      </c>
-      <c r="D43" s="4">
-        <v>5.0442999999999998</v>
-      </c>
-      <c r="E43" s="4">
-        <f>E34</f>
-        <v>10.088552</v>
-      </c>
-      <c r="F43" s="4">
-        <v>5.0922000000000001</v>
-      </c>
-      <c r="G43" s="4">
-        <f t="shared" ref="G43:V43" si="29">G34</f>
-        <v>10.184378000000001</v>
-      </c>
-      <c r="H43" s="4">
-        <v>2.5219999999999998</v>
-      </c>
-      <c r="I43" s="4">
-        <f t="shared" ref="I43:V43" si="30">I34</f>
-        <v>10.088162000000001</v>
-      </c>
-      <c r="J43" s="4">
-        <v>2.5312999999999999</v>
-      </c>
-      <c r="K43" s="4">
-        <f t="shared" ref="K43:V43" si="31">K34</f>
-        <v>10.125124</v>
-      </c>
-      <c r="L43" s="4">
-        <f t="shared" ref="L43:V43" si="32">L34 * L3</f>
-        <v>7.4796562499999997</v>
-      </c>
-      <c r="M43" s="4">
-        <f t="shared" ref="M43:V43" si="33">M34</f>
-        <v>10.088305999999999</v>
-      </c>
-      <c r="N43" s="4">
-        <f t="shared" ref="N43:V43" si="34">N34 * N3</f>
-        <v>7.5197880000000001</v>
-      </c>
-      <c r="O43" s="4">
-        <f t="shared" ref="O43:V43" si="35">O34</f>
-        <v>10.053661999999999</v>
-      </c>
-      <c r="P43" s="4">
-        <f t="shared" ref="P43:V43" si="36">P34 * P3</f>
-        <v>12.645578749999999</v>
-      </c>
-      <c r="Q43" s="4">
-        <f t="shared" ref="Q43:V43" si="37">Q34</f>
-        <v>10.088471999999999</v>
-      </c>
-      <c r="R43" s="4">
-        <f t="shared" ref="R43:V43" si="38">R34 * R3</f>
-        <v>12.619008750000001</v>
-      </c>
-      <c r="S43" s="4">
-        <f t="shared" ref="S43:V43" si="39">S34</f>
-        <v>10.088437000000001</v>
-      </c>
-      <c r="T43" s="4">
-        <f t="shared" ref="T43:V43" si="40">T34 * T3</f>
-        <v>10.078850061000001</v>
-      </c>
-      <c r="U43" s="4">
-        <f t="shared" ref="U43:V43" si="41">U34</f>
-        <v>10.088243</v>
-      </c>
-      <c r="V43" s="4">
-        <f t="shared" ref="V43:V44" si="42">V34 * V3</f>
-        <v>10.078937973</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="6">
-        <v>0.34060000000000001</v>
-      </c>
-      <c r="C44" s="4">
-        <f>C35</f>
-        <v>0.34060466</v>
-      </c>
-      <c r="D44" s="4">
-        <f>D35</f>
-        <v>0.34060466</v>
-      </c>
-      <c r="E44" s="4">
-        <f>E35 * E4</f>
-        <v>0.17030233</v>
-      </c>
-      <c r="F44" s="4">
-        <f>F35 * F4</f>
-        <v>0.17030233</v>
-      </c>
-      <c r="G44" s="4">
-        <f t="shared" ref="G44:V44" si="43">G35</f>
-        <v>0.34060466</v>
-      </c>
-      <c r="H44" s="4">
-        <f t="shared" si="43"/>
-        <v>0.34060466</v>
-      </c>
-      <c r="I44" s="4">
-        <f t="shared" ref="I44:V44" si="44">I35 * I4</f>
-        <v>8.5151165000000001E-2</v>
-      </c>
-      <c r="J44" s="4">
-        <f t="shared" si="44"/>
-        <v>8.5151165000000001E-2</v>
-      </c>
-      <c r="K44" s="4">
-        <f t="shared" ref="K44:V44" si="45">K35</f>
-        <v>0.34060466</v>
-      </c>
-      <c r="L44" s="4">
-        <f t="shared" si="45"/>
-        <v>0.34060466</v>
-      </c>
-      <c r="M44" s="4">
-        <f t="shared" ref="M44:V44" si="46">M35 * M4</f>
-        <v>0.25545349500000003</v>
-      </c>
-      <c r="N44" s="4">
-        <f t="shared" si="46"/>
-        <v>0.25545349500000003</v>
-      </c>
-      <c r="O44" s="4">
-        <f t="shared" ref="O44:V44" si="47">O35</f>
-        <v>0.34060466</v>
-      </c>
-      <c r="P44" s="4">
-        <f t="shared" si="47"/>
-        <v>0.34060466</v>
-      </c>
-      <c r="Q44" s="4">
-        <f t="shared" ref="Q44:V44" si="48">Q35 * Q4</f>
-        <v>0.42575582499999998</v>
-      </c>
-      <c r="R44" s="4">
-        <f t="shared" si="48"/>
-        <v>0.42575582499999998</v>
-      </c>
-      <c r="S44" s="4">
-        <f t="shared" ref="S44:V44" si="49">S35</f>
-        <v>0.34060466</v>
-      </c>
-      <c r="T44" s="4">
-        <f t="shared" si="49"/>
-        <v>0.34060466</v>
-      </c>
-      <c r="U44" s="4">
-        <f t="shared" ref="U44:V44" si="50">U35 * U4</f>
-        <v>0.34026405533999998</v>
-      </c>
-      <c r="V44" s="4">
-        <f t="shared" si="42"/>
-        <v>0.34026405533999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="6">
+      <c r="B49" s="8">
         <v>6.5556000000000001</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C49" s="6">
         <f>6.5556 * C2</f>
         <v>3.2778</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D49" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E49" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F49" s="6">
         <f>6.5556 * F2</f>
         <v>3.2778</v>
       </c>
-      <c r="G45" s="4">
-        <f t="shared" ref="G45:V45" si="51">6.5556 * G2</f>
+      <c r="G49" s="6">
+        <f t="shared" ref="G49" si="50">6.5556 * G2</f>
         <v>1.6389</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H49" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I49" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="J45" s="4">
-        <f t="shared" ref="J45:V45" si="52">6.5556 * J2</f>
+      <c r="J49" s="6">
+        <f t="shared" ref="J49:K49" si="51">6.5556 * J2</f>
         <v>1.6389</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K49" s="6">
+        <f t="shared" si="51"/>
+        <v>4.9167000000000005</v>
+      </c>
+      <c r="L49" s="6">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="M49" s="6">
+        <v>6.5556000000000001</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" ref="N49:O49" si="52">6.5556 * N2</f>
+        <v>4.9167000000000005</v>
+      </c>
+      <c r="O49" s="6">
         <f t="shared" si="52"/>
-        <v>4.9167000000000005</v>
-      </c>
-      <c r="L45" s="4">
+        <v>8.1944999999999997</v>
+      </c>
+      <c r="P49" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="M45" s="4">
+      <c r="Q49" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="N45" s="4">
-        <f t="shared" ref="N45:V45" si="53">6.5556 * N2</f>
-        <v>4.9167000000000005</v>
-      </c>
-      <c r="O45" s="4">
+      <c r="R49" s="6">
+        <f t="shared" ref="R49:S49" si="53">6.5556 * R2</f>
+        <v>8.1944999999999997</v>
+      </c>
+      <c r="S49" s="6">
         <f t="shared" si="53"/>
-        <v>8.1944999999999997</v>
-      </c>
-      <c r="P45" s="4">
+        <v>6.5490443999999997</v>
+      </c>
+      <c r="T49" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="U49" s="6">
         <v>6.5556000000000001</v>
       </c>
-      <c r="R45" s="4">
-        <f t="shared" ref="R45:V45" si="54">6.5556 * R2</f>
-        <v>8.1944999999999997</v>
-      </c>
-      <c r="S45" s="4">
-        <f t="shared" si="54"/>
+      <c r="V49" s="6">
+        <f t="shared" ref="V49" si="54">6.5556 * V2</f>
         <v>6.5490443999999997</v>
       </c>
-      <c r="T45" s="4">
-        <v>6.5556000000000001</v>
-      </c>
-      <c r="U45" s="4">
-        <v>6.5556000000000001</v>
-      </c>
-      <c r="V45" s="4">
-        <f t="shared" ref="V45" si="55">6.5556 * V2</f>
-        <v>6.5490443999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="6">
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="8">
         <v>6.4665999999999997</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C50" s="6">
         <v>3.2679999999999998</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D50" s="6">
         <v>2.7113</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E50" s="6">
         <v>6.3605999999999998</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F50" s="6">
         <v>1.3183</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G50" s="6">
         <v>1.6363000000000001</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H50" s="6">
         <v>1.1973</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I50" s="6">
         <v>6.3338000000000001</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J50" s="6">
         <v>0.26740000000000003</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K50" s="6">
         <v>4.8726000000000003</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L50" s="6">
         <v>4.4256000000000002</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M50" s="6">
         <v>6.4047000000000001</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N50" s="6">
         <v>3.2951000000000001</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O50" s="6">
         <v>8.048</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P50" s="6">
         <v>8.6351999999999993</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q50" s="6">
         <v>6.5465</v>
       </c>
-      <c r="R46" s="4">
+      <c r="R50" s="6">
         <v>10.8644</v>
       </c>
-      <c r="S46" s="4">
+      <c r="S50" s="6">
         <v>6.4603000000000002</v>
       </c>
-      <c r="T46" s="4">
+      <c r="T50" s="6">
         <v>6.4584999999999999</v>
       </c>
-      <c r="U46" s="4">
+      <c r="U50" s="6">
         <v>6.4668999999999999</v>
       </c>
-      <c r="V46" s="4">
+      <c r="V50" s="6">
         <v>6.4516</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ROS_calculations.xlsx
+++ b/ROS_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremybenik/Research_Files/Hill_Runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47E2471-6359-1642-BAD2-9CB4D345130B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7C1498-BDB9-0F42-8B09-10EC714E4B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21600" xr2:uid="{031D4DE6-AC10-0C46-90BE-D06C7BB4FFA7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>ROS Data</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Original Rothermel Matlab Code</t>
-  </si>
-  <si>
-    <t>For the cells below, I used the different winds speeds in the model</t>
   </si>
   <si>
     <t>Modified Rothermel Code ROS</t>
@@ -523,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C5D8E9-26BC-FC46-9670-57C49E39CB3F}">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,13 +721,13 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>12</v>
@@ -903,7 +900,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -966,634 +963,654 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11.5319</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11.532400000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9.8877000000000006</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11.537699999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9.5982000000000003</v>
+      </c>
+      <c r="G9" s="2">
+        <v>11.4985</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>11.540699999999999</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>11.560499999999999</v>
+      </c>
+      <c r="L9" s="2">
+        <v>11.1686</v>
+      </c>
+      <c r="M9" s="2">
+        <v>11.534700000000001</v>
+      </c>
+      <c r="N9" s="2">
+        <v>11.0215</v>
+      </c>
+      <c r="O9" s="2">
+        <v>11.559900000000001</v>
+      </c>
+      <c r="P9" s="2">
+        <v>11.7921</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>11.5288</v>
+      </c>
+      <c r="R9" s="2">
+        <v>11.780099999999999</v>
+      </c>
+      <c r="S9" s="2">
+        <v>11.532500000000001</v>
+      </c>
+      <c r="T9" s="2">
+        <v>11.5345</v>
+      </c>
+      <c r="U9" s="2">
+        <v>11.5319</v>
+      </c>
+      <c r="V9" s="2">
+        <v>11.5352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>11.5319</v>
       </c>
-      <c r="C10" s="2">
-        <v>11.532400000000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9.8877000000000006</v>
-      </c>
-      <c r="E10" s="2">
-        <v>11.537699999999999</v>
-      </c>
-      <c r="F10" s="2">
-        <v>9.5982000000000003</v>
-      </c>
-      <c r="G10" s="2">
-        <v>11.4985</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
-        <v>11.540699999999999</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <v>11.560499999999999</v>
-      </c>
-      <c r="L10" s="2">
-        <v>11.1686</v>
-      </c>
-      <c r="M10" s="2">
-        <v>11.534700000000001</v>
-      </c>
-      <c r="N10" s="2">
-        <v>11.0215</v>
-      </c>
-      <c r="O10" s="2">
-        <v>11.559900000000001</v>
-      </c>
-      <c r="P10" s="2">
-        <v>11.7921</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>11.5288</v>
-      </c>
-      <c r="R10" s="2">
-        <v>11.780099999999999</v>
-      </c>
-      <c r="S10" s="2">
-        <v>11.532500000000001</v>
-      </c>
-      <c r="T10" s="2">
-        <v>11.5345</v>
-      </c>
-      <c r="U10" s="2">
+      <c r="C10" s="3">
+        <v>11.5152</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.7835000000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11.530900000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5.7659000000000002</v>
+      </c>
+      <c r="G10" s="3">
+        <v>11.5069</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2.9093</v>
+      </c>
+      <c r="I10" s="3">
+        <v>11.5305</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2.883</v>
+      </c>
+      <c r="K10" s="3">
+        <v>11.5235</v>
+      </c>
+      <c r="L10" s="3">
+        <v>8.6577000000000002</v>
+      </c>
+      <c r="M10" s="3">
+        <v>11.5314</v>
+      </c>
+      <c r="N10" s="3">
+        <v>8.6488999999999994</v>
+      </c>
+      <c r="O10" s="3">
+        <v>11.5402</v>
+      </c>
+      <c r="P10" s="3">
+        <v>14.406000000000001</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>11.532299999999999</v>
+      </c>
+      <c r="R10" s="3">
+        <v>14.4148</v>
+      </c>
+      <c r="S10" s="3">
+        <v>11.5318</v>
+      </c>
+      <c r="T10" s="3">
+        <v>11.5204</v>
+      </c>
+      <c r="U10" s="3">
         <v>11.5319</v>
       </c>
-      <c r="V10" s="2">
-        <v>11.5352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3">
-        <v>11.5319</v>
-      </c>
-      <c r="C11" s="3">
-        <v>11.5152</v>
-      </c>
-      <c r="D11" s="3">
-        <v>5.7835000000000001</v>
-      </c>
-      <c r="E11" s="3">
-        <v>11.530900000000001</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5.7659000000000002</v>
-      </c>
-      <c r="G11" s="3">
-        <v>11.5069</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2.9093</v>
-      </c>
-      <c r="I11" s="3">
-        <v>11.5305</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2.883</v>
-      </c>
-      <c r="K11" s="3">
-        <v>11.5235</v>
-      </c>
-      <c r="L11" s="3">
-        <v>8.6577000000000002</v>
-      </c>
-      <c r="M11" s="3">
-        <v>11.5314</v>
-      </c>
-      <c r="N11" s="3">
-        <v>8.6488999999999994</v>
-      </c>
-      <c r="O11" s="3">
-        <v>11.5402</v>
-      </c>
-      <c r="P11" s="3">
-        <v>14.406000000000001</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>11.532299999999999</v>
-      </c>
-      <c r="R11" s="3">
-        <v>14.4148</v>
-      </c>
-      <c r="S11" s="3">
-        <v>11.5318</v>
-      </c>
-      <c r="T11" s="3">
-        <v>11.5204</v>
-      </c>
-      <c r="U11" s="3">
-        <v>11.5319</v>
-      </c>
-      <c r="V11" s="3">
+      <c r="V10" s="3">
         <v>11.520300000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10.511709</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10.606191000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10.183984000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10.512212</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10.121859000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10.623476999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10.512638000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10.546491</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10.453250000000001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>10.512064000000001</v>
+      </c>
+      <c r="N12" s="1">
+        <v>10.442306500000001</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10.476487000000001</v>
+      </c>
+      <c r="P12" s="1">
+        <v>10.4758</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>10.511231</v>
+      </c>
+      <c r="R12" s="1">
+        <v>10.455652000000001</v>
+      </c>
+      <c r="S12" s="1">
+        <v>10.511894</v>
+      </c>
+      <c r="T12" s="1">
+        <v>10.511896</v>
+      </c>
+      <c r="U12" s="1">
+        <v>10.511658000000001</v>
+      </c>
+      <c r="V12" s="1">
+        <v>10.511988000000001</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>10.511709</v>
+        <v>0.29007253</v>
       </c>
       <c r="C13" s="1">
-        <v>10.606191000000001</v>
+        <v>0.29007253</v>
       </c>
       <c r="D13" s="1">
-        <v>10.183984000000001</v>
+        <v>0.29007253</v>
       </c>
       <c r="E13" s="1">
-        <v>10.512212</v>
+        <v>0.29007253</v>
       </c>
       <c r="F13" s="1">
-        <v>10.121859000000001</v>
+        <v>0.29007253</v>
       </c>
       <c r="G13" s="1">
-        <v>10.623476999999999</v>
+        <v>0.29007253</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.29007253</v>
       </c>
       <c r="I13" s="1">
-        <v>10.512638000000001</v>
+        <v>0.29007253</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.29007253</v>
       </c>
       <c r="K13" s="1">
-        <v>10.546491</v>
+        <v>0.29007253</v>
       </c>
       <c r="L13" s="1">
-        <v>10.453250000000001</v>
+        <v>0.29007253</v>
       </c>
       <c r="M13" s="1">
-        <v>10.512064000000001</v>
+        <v>0.29007253</v>
       </c>
       <c r="N13" s="1">
-        <v>10.442306500000001</v>
+        <v>0.29007253</v>
       </c>
       <c r="O13" s="1">
-        <v>10.476487000000001</v>
+        <v>0.29007253</v>
       </c>
       <c r="P13" s="1">
-        <v>10.4758</v>
+        <v>0.29007253</v>
       </c>
       <c r="Q13" s="1">
-        <v>10.511231</v>
+        <v>0.29007253</v>
       </c>
       <c r="R13" s="1">
-        <v>10.455652000000001</v>
+        <v>0.29007253</v>
       </c>
       <c r="S13" s="1">
-        <v>10.511894</v>
+        <v>0.29007253</v>
       </c>
       <c r="T13" s="1">
-        <v>10.511896</v>
+        <v>0.29007253</v>
       </c>
       <c r="U13" s="1">
-        <v>10.511658000000001</v>
+        <v>0.29007253</v>
       </c>
       <c r="V13" s="1">
-        <v>10.511988000000001</v>
+        <v>0.29007253</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>0.29007253</v>
+        <v>0.60530806000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>0.29007253</v>
+        <v>0.60672959999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>0.29007253</v>
+        <v>0.40722406</v>
       </c>
       <c r="E14" s="1">
-        <v>0.29007253</v>
+        <v>0.60585829999999996</v>
       </c>
       <c r="F14" s="1">
-        <v>0.29007253</v>
+        <v>0.38986418</v>
       </c>
       <c r="G14" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.29007253</v>
+        <v>0.62131625000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>0.29007253</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.29007253</v>
+        <v>0.60610549999999996</v>
       </c>
       <c r="K14" s="1">
-        <v>0.29007253</v>
+        <v>0.61175597000000004</v>
       </c>
       <c r="L14" s="1">
-        <v>0.29007253</v>
+        <v>0.52608319999999997</v>
       </c>
       <c r="M14" s="1">
-        <v>0.29007253</v>
+        <v>0.60557395000000003</v>
       </c>
       <c r="N14" s="1">
-        <v>0.29007253</v>
+        <v>0.51828969999999996</v>
       </c>
       <c r="O14" s="1">
-        <v>0.29007253</v>
+        <v>0.60281085999999995</v>
       </c>
       <c r="P14" s="1">
-        <v>0.29007253</v>
+        <v>0.60864339999999995</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.29007253</v>
+        <v>0.60507619999999995</v>
       </c>
       <c r="R14" s="1">
-        <v>0.29007253</v>
+        <v>0.60420436</v>
       </c>
       <c r="S14" s="1">
-        <v>0.29007253</v>
+        <v>0.60536160000000006</v>
       </c>
       <c r="T14" s="1">
-        <v>0.29007253</v>
+        <v>0.60522880000000001</v>
       </c>
       <c r="U14" s="1">
-        <v>0.29007253</v>
+        <v>0.6053636</v>
       </c>
       <c r="V14" s="1">
-        <v>0.29007253</v>
+        <v>0.60534980000000005</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6.8544999999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.5061</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6.7765000000000004</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6.4551999999999996</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6.8688000000000002</v>
+      </c>
+      <c r="I15" s="1">
+        <v>6.7769000000000004</v>
+      </c>
+      <c r="K15" s="1">
+        <v>6.8048999999999999</v>
+      </c>
+      <c r="L15" s="1">
+        <v>6.7278000000000002</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6.7763999999999998</v>
+      </c>
+      <c r="N15" s="1">
+        <v>6.7187000000000001</v>
+      </c>
+      <c r="O15" s="1">
+        <v>6.7469999999999999</v>
+      </c>
+      <c r="P15" s="1">
+        <v>6.7464000000000004</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>6.7756999999999996</v>
+      </c>
+      <c r="R15" s="1">
+        <v>6.7297000000000002</v>
+      </c>
+      <c r="S15" s="1">
+        <v>6.7763</v>
+      </c>
+      <c r="T15" s="1">
+        <v>6.7763</v>
+      </c>
+      <c r="U15" s="1">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="V15" s="1">
+        <v>6.7695999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.7595000000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.4561000000000002</v>
+      </c>
+      <c r="E16" s="4">
+        <v>6.7247000000000003</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3.3881000000000001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6.7511000000000001</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.7961</v>
+      </c>
+      <c r="I16" s="4">
+        <v>6.6990999999999996</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1.694</v>
+      </c>
+      <c r="K16" s="4">
+        <v>6.7678000000000003</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5.1161000000000003</v>
+      </c>
+      <c r="M16" s="4">
+        <v>6.7504</v>
+      </c>
+      <c r="N16" s="4">
+        <v>5.0820999999999996</v>
+      </c>
+      <c r="O16" s="4">
+        <v>6.7843999999999998</v>
+      </c>
+      <c r="P16" s="4">
+        <v>8.4360999999999997</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>6.8018000000000001</v>
+      </c>
+      <c r="R16" s="4">
+        <v>8.4701000000000004</v>
+      </c>
+      <c r="S16" s="4">
+        <v>6.7760999999999996</v>
+      </c>
+      <c r="T16" s="4">
+        <v>6.7694999999999999</v>
+      </c>
+      <c r="U16" s="4">
+        <v>6.7759999999999998</v>
+      </c>
+      <c r="V16" s="4">
+        <v>6.7693000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.60530806000000004</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.60672959999999998</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.40722406</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.60585829999999996</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.38986418</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.62131625000000001</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.60610549999999996</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.61175597000000004</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.52608319999999997</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.60557395000000003</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.51828969999999996</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0.60281085999999995</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0.60864339999999995</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0.60507619999999995</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0.60420436</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0.60536160000000006</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0.60522880000000001</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0.6053636</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0.60534980000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1">
-        <v>6.7760999999999996</v>
-      </c>
-      <c r="C17" s="1">
-        <v>6.8544999999999998</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6.5061</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6.7765000000000004</v>
-      </c>
-      <c r="F17" s="1">
-        <v>6.4551999999999996</v>
-      </c>
-      <c r="G17" s="1">
-        <v>6.8688000000000002</v>
-      </c>
-      <c r="I17" s="1">
-        <v>6.7769000000000004</v>
-      </c>
-      <c r="K17" s="1">
-        <v>6.8048999999999999</v>
-      </c>
-      <c r="L17" s="1">
-        <v>6.7278000000000002</v>
-      </c>
-      <c r="M17" s="1">
-        <v>6.7763999999999998</v>
-      </c>
-      <c r="N17" s="1">
-        <v>6.7187000000000001</v>
-      </c>
-      <c r="O17" s="1">
-        <v>6.7469999999999999</v>
-      </c>
-      <c r="P17" s="1">
-        <v>6.7464000000000004</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>6.7756999999999996</v>
-      </c>
-      <c r="R17" s="1">
-        <v>6.7297000000000002</v>
-      </c>
-      <c r="S17" s="1">
-        <v>6.7763</v>
-      </c>
-      <c r="T17" s="1">
-        <v>6.7763</v>
-      </c>
-      <c r="U17" s="1">
-        <v>6.7760999999999996</v>
-      </c>
-      <c r="V17" s="1">
-        <v>6.7695999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="4">
-        <v>6.7760999999999996</v>
-      </c>
-      <c r="C18" s="4">
-        <v>6.7595000000000001</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3.4561000000000002</v>
-      </c>
-      <c r="E18" s="4">
-        <v>6.7247000000000003</v>
-      </c>
-      <c r="F18" s="4">
-        <v>3.3881000000000001</v>
-      </c>
-      <c r="G18" s="4">
-        <v>6.7511000000000001</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1.7961</v>
-      </c>
-      <c r="I18" s="4">
-        <v>6.6990999999999996</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1.694</v>
-      </c>
-      <c r="K18" s="4">
-        <v>6.7678000000000003</v>
-      </c>
-      <c r="L18" s="4">
-        <v>5.1161000000000003</v>
-      </c>
-      <c r="M18" s="4">
-        <v>6.7504</v>
-      </c>
-      <c r="N18" s="4">
-        <v>5.0820999999999996</v>
-      </c>
-      <c r="O18" s="4">
-        <v>6.7843999999999998</v>
-      </c>
-      <c r="P18" s="4">
-        <v>8.4360999999999997</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>6.8018000000000001</v>
-      </c>
-      <c r="R18" s="4">
-        <v>8.4701000000000004</v>
-      </c>
-      <c r="S18" s="4">
-        <v>6.7760999999999996</v>
-      </c>
-      <c r="T18" s="4">
-        <v>6.7694999999999999</v>
-      </c>
-      <c r="U18" s="4">
-        <v>6.7759999999999998</v>
-      </c>
-      <c r="V18" s="4">
-        <v>6.7693000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="B21" s="2">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.61980000000000002</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
+        <v>0.62229999999999996</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.62129999999999996</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.62229999999999996</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.63119999999999998</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.62129999999999996</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0.62129999999999996</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.62119999999999997</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.62119999999999997</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.55379999999999996</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.62139999999999995</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.54179999999999995</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.61980000000000002</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
-        <v>0.62150000000000005</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2">
-        <v>0.62229999999999996</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.60640000000000005</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0.62129999999999996</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.60050000000000003</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0.62229999999999996</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0.63160000000000005</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.621</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0.63119999999999998</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0.62119999999999997</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0.62129999999999996</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0.62119999999999997</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0.62129999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="B22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C22" s="1">
         <v>0.4899</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D22" s="1">
         <v>0.47410000000000002</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F22" s="1">
         <v>0.4718</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G22" s="1">
         <v>0.49059999999999998</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K22" s="1">
         <v>0.48770000000000002</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L22" s="1">
         <v>0.48770000000000002</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N22" s="1">
         <v>0.48380000000000001</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O22" s="1">
         <v>0.48509999999999998</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P22" s="1">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R22" s="1">
         <v>0.48430000000000001</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U22" s="1">
         <v>0.4864</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V22" s="1">
         <v>10.511988000000001</v>
       </c>
     </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
+    </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
@@ -1642,98 +1659,52 @@
       <c r="V31" s="6"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="8"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B33" s="8"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
